--- a/result/NCDC_weather_data/stations_imputed/58527099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58527099999.xlsx
@@ -569,7 +569,9 @@
       <c r="M2" t="n">
         <v>2.31498</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>8.529814864541832</v>
+      </c>
       <c r="O2" t="n">
         <v>136.58</v>
       </c>
@@ -579,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -625,7 +629,9 @@
       <c r="M3" t="n">
         <v>1.903428</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>8.529814864541832</v>
+      </c>
       <c r="O3" t="n">
         <v>137.84</v>
       </c>
@@ -635,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -681,7 +689,9 @@
       <c r="M4" t="n">
         <v>1.594764</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>8.529814864541832</v>
+      </c>
       <c r="O4" t="n">
         <v>146.3</v>
       </c>
@@ -691,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -749,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -807,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0.003556</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -865,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -923,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -981,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0.006096</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1039,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1097,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1155,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1213,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1271,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1329,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1387,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1445,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0.004064</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1503,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1561,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1619,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1677,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1735,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.02621867768595042</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">

--- a/result/NCDC_weather_data/stations_imputed/58527099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58527099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R506"/>
+  <dimension ref="A1:S506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>108.32</v>
       </c>
       <c r="H2" t="n">
-        <v>94.09999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="I2" t="n">
         <v>102.89</v>
@@ -584,6 +589,9 @@
       <c r="R2" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S2" t="n">
+        <v>3.887269588191183</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -612,7 +620,7 @@
         <v>110.84</v>
       </c>
       <c r="H3" t="n">
-        <v>90.31999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="I3" t="n">
         <v>102.71</v>
@@ -644,6 +652,9 @@
       <c r="R3" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S3" t="n">
+        <v>3.167454569681966</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -672,7 +683,7 @@
         <v>120.2</v>
       </c>
       <c r="H4" t="n">
-        <v>94.28</v>
+        <v>34.6</v>
       </c>
       <c r="I4" t="n">
         <v>102.44</v>
@@ -704,6 +715,9 @@
       <c r="R4" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S4" t="n">
+        <v>2.621636332870029</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -732,7 +746,7 @@
         <v>123.62</v>
       </c>
       <c r="H5" t="n">
-        <v>109.76</v>
+        <v>43.2</v>
       </c>
       <c r="I5" t="n">
         <v>102.04</v>
@@ -764,6 +778,9 @@
       <c r="R5" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S5" t="n">
+        <v>3.734764201059156</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -792,7 +809,7 @@
         <v>116.96</v>
       </c>
       <c r="H6" t="n">
-        <v>108.86</v>
+        <v>42.7</v>
       </c>
       <c r="I6" t="n">
         <v>102.43</v>
@@ -824,6 +841,9 @@
       <c r="R6" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S6" t="n">
+        <v>4.51772883844869</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -852,7 +872,7 @@
         <v>115.88</v>
       </c>
       <c r="H7" t="n">
-        <v>102.02</v>
+        <v>38.9</v>
       </c>
       <c r="I7" t="n">
         <v>102.88</v>
@@ -884,6 +904,9 @@
       <c r="R7" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S7" t="n">
+        <v>3.825105169242315</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -912,7 +935,7 @@
         <v>114.08</v>
       </c>
       <c r="H8" t="n">
-        <v>100.04</v>
+        <v>37.8</v>
       </c>
       <c r="I8" t="n">
         <v>102.86</v>
@@ -944,6 +967,9 @@
       <c r="R8" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S8" t="n">
+        <v>3.827738152190478</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -972,7 +998,7 @@
         <v>113.54</v>
       </c>
       <c r="H9" t="n">
-        <v>104.54</v>
+        <v>40.3</v>
       </c>
       <c r="I9" t="n">
         <v>102.5</v>
@@ -1004,6 +1030,9 @@
       <c r="R9" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S9" t="n">
+        <v>4.460280887578639</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1032,7 +1061,7 @@
         <v>112.28</v>
       </c>
       <c r="H10" t="n">
-        <v>106.88</v>
+        <v>41.6</v>
       </c>
       <c r="I10" t="n">
         <v>102.34</v>
@@ -1064,6 +1093,9 @@
       <c r="R10" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S10" t="n">
+        <v>4.987927669750968</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1092,7 +1124,7 @@
         <v>109.4</v>
       </c>
       <c r="H11" t="n">
-        <v>104.36</v>
+        <v>40.2</v>
       </c>
       <c r="I11" t="n">
         <v>102.49</v>
@@ -1124,6 +1156,9 @@
       <c r="R11" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S11" t="n">
+        <v>5.11021282847664</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1152,7 +1187,7 @@
         <v>108.86</v>
       </c>
       <c r="H12" t="n">
-        <v>91.22</v>
+        <v>32.9</v>
       </c>
       <c r="I12" t="n">
         <v>102.71</v>
@@ -1184,6 +1219,9 @@
       <c r="R12" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S12" t="n">
+        <v>3.488151813800916</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1212,7 +1250,7 @@
         <v>109.22</v>
       </c>
       <c r="H13" t="n">
-        <v>93.56</v>
+        <v>34.2</v>
       </c>
       <c r="I13" t="n">
         <v>102.54</v>
@@ -1244,6 +1282,9 @@
       <c r="R13" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S13" t="n">
+        <v>3.705365042252055</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1272,7 +1313,7 @@
         <v>105.26</v>
       </c>
       <c r="H14" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I14" t="n">
         <v>102.8</v>
@@ -1304,6 +1345,9 @@
       <c r="R14" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S14" t="n">
+        <v>2.68774215865561</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1332,7 +1376,7 @@
         <v>102.92</v>
       </c>
       <c r="H15" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="I15" t="n">
         <v>102.45</v>
@@ -1364,6 +1408,9 @@
       <c r="R15" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S15" t="n">
+        <v>3.646223913315969</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1392,7 +1439,7 @@
         <v>119.3</v>
       </c>
       <c r="H16" t="n">
-        <v>97.88000000000001</v>
+        <v>36.6</v>
       </c>
       <c r="I16" t="n">
         <v>102.45</v>
@@ -1424,6 +1471,9 @@
       <c r="R16" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S16" t="n">
+        <v>3.015053953969876</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1452,7 +1502,7 @@
         <v>120.56</v>
       </c>
       <c r="H17" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I17" t="n">
         <v>102.61</v>
@@ -1484,6 +1534,9 @@
       <c r="R17" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S17" t="n">
+        <v>4.186566522718176</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1512,7 +1565,7 @@
         <v>118.22</v>
       </c>
       <c r="H18" t="n">
-        <v>113.54</v>
+        <v>45.3</v>
       </c>
       <c r="I18" t="n">
         <v>102.72</v>
@@ -1544,6 +1597,9 @@
       <c r="R18" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S18" t="n">
+        <v>4.961832424989487</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1572,7 +1628,7 @@
         <v>123.08</v>
       </c>
       <c r="H19" t="n">
-        <v>111.38</v>
+        <v>44.1</v>
       </c>
       <c r="I19" t="n">
         <v>102.45</v>
@@ -1604,6 +1660,9 @@
       <c r="R19" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S19" t="n">
+        <v>3.98251181911028</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1632,7 +1691,7 @@
         <v>125.42</v>
       </c>
       <c r="H20" t="n">
-        <v>111.56</v>
+        <v>44.2</v>
       </c>
       <c r="I20" t="n">
         <v>102.36</v>
@@ -1664,6 +1723,9 @@
       <c r="R20" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S20" t="n">
+        <v>3.716064664230162</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1692,7 +1754,7 @@
         <v>127.76</v>
       </c>
       <c r="H21" t="n">
-        <v>104.36</v>
+        <v>40.2</v>
       </c>
       <c r="I21" t="n">
         <v>102.31</v>
@@ -1724,6 +1786,9 @@
       <c r="R21" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S21" t="n">
+        <v>2.796294409242275</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1752,7 +1817,7 @@
         <v>123.62</v>
       </c>
       <c r="H22" t="n">
-        <v>110.48</v>
+        <v>43.6</v>
       </c>
       <c r="I22" t="n">
         <v>102.1</v>
@@ -1784,6 +1849,9 @@
       <c r="R22" t="n">
         <v>0.02621867768595042</v>
       </c>
+      <c r="S22" t="n">
+        <v>3.813676748835812</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1812,7 +1880,7 @@
         <v>122.18</v>
       </c>
       <c r="H23" t="n">
-        <v>119.66</v>
+        <v>48.7</v>
       </c>
       <c r="I23" t="n">
         <v>101.66</v>
@@ -1844,6 +1912,9 @@
       <c r="R23" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S23" t="n">
+        <v>5.187843935809378</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1872,7 +1943,7 @@
         <v>119.3</v>
       </c>
       <c r="H24" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I24" t="n">
         <v>101.76</v>
@@ -1904,6 +1975,9 @@
       <c r="R24" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S24" t="n">
+        <v>5.333013710522872</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1932,7 +2006,7 @@
         <v>112.64</v>
       </c>
       <c r="H25" t="n">
-        <v>111.2</v>
+        <v>44</v>
       </c>
       <c r="I25" t="n">
         <v>102.15</v>
@@ -1964,6 +2038,9 @@
       <c r="R25" t="n">
         <v>0.012192</v>
       </c>
+      <c r="S25" t="n">
+        <v>5.588879515118037</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1992,7 +2069,7 @@
         <v>113.18</v>
       </c>
       <c r="H26" t="n">
-        <v>112.1</v>
+        <v>44.5</v>
       </c>
       <c r="I26" t="n">
         <v>102.21</v>
@@ -2024,6 +2101,9 @@
       <c r="R26" t="n">
         <v>0.014224</v>
       </c>
+      <c r="S26" t="n">
+        <v>5.63203200815216</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2052,7 +2132,7 @@
         <v>114.44</v>
       </c>
       <c r="H27" t="n">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I27" t="n">
         <v>102.12</v>
@@ -2084,6 +2164,9 @@
       <c r="R27" t="n">
         <v>0.016256</v>
       </c>
+      <c r="S27" t="n">
+        <v>5.539469694642509</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2112,7 +2195,7 @@
         <v>109.04</v>
       </c>
       <c r="H28" t="n">
-        <v>106.88</v>
+        <v>41.6</v>
       </c>
       <c r="I28" t="n">
         <v>102.45</v>
@@ -2144,6 +2227,9 @@
       <c r="R28" t="n">
         <v>0.018288</v>
       </c>
+      <c r="S28" t="n">
+        <v>5.574294135282965</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2172,7 +2258,7 @@
         <v>101.84</v>
       </c>
       <c r="H29" t="n">
-        <v>99.68000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="I29" t="n">
         <v>102.42</v>
@@ -2204,6 +2290,9 @@
       <c r="R29" t="n">
         <v>0.02032</v>
       </c>
+      <c r="S29" t="n">
+        <v>5.800067775622508</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2232,7 +2321,7 @@
         <v>96.62</v>
       </c>
       <c r="H30" t="n">
-        <v>93.73999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="I30" t="n">
         <v>102.37</v>
@@ -2264,6 +2353,9 @@
       <c r="R30" t="n">
         <v>0.018288</v>
       </c>
+      <c r="S30" t="n">
+        <v>5.85479302471132</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2292,7 +2384,7 @@
         <v>101.48</v>
       </c>
       <c r="H31" t="n">
-        <v>90.86000000000001</v>
+        <v>32.7</v>
       </c>
       <c r="I31" t="n">
         <v>102.74</v>
@@ -2324,6 +2416,9 @@
       <c r="R31" t="n">
         <v>0.016256</v>
       </c>
+      <c r="S31" t="n">
+        <v>4.478655650795204</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2352,7 +2447,7 @@
         <v>106.88</v>
       </c>
       <c r="H32" t="n">
-        <v>97.7</v>
+        <v>36.5</v>
       </c>
       <c r="I32" t="n">
         <v>102.71</v>
@@ -2384,6 +2479,9 @@
       <c r="R32" t="n">
         <v>0.014224</v>
       </c>
+      <c r="S32" t="n">
+        <v>4.565462502123204</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2412,7 +2510,7 @@
         <v>104.18</v>
       </c>
       <c r="H33" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I33" t="n">
         <v>102.72</v>
@@ -2444,6 +2542,9 @@
       <c r="R33" t="n">
         <v>0.012192</v>
       </c>
+      <c r="S33" t="n">
+        <v>5.2757310490035</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2472,7 +2573,7 @@
         <v>97.16000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>94.46000000000001</v>
+        <v>34.7</v>
       </c>
       <c r="I34" t="n">
         <v>102.74</v>
@@ -2504,6 +2605,9 @@
       <c r="R34" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S34" t="n">
+        <v>5.86778418296413</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2532,7 +2636,7 @@
         <v>99.86000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>96.26000000000001</v>
+        <v>35.7</v>
       </c>
       <c r="I35" t="n">
         <v>102.7</v>
@@ -2564,6 +2668,9 @@
       <c r="R35" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S35" t="n">
+        <v>5.615625639636961</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2592,7 +2699,7 @@
         <v>105.08</v>
       </c>
       <c r="H36" t="n">
-        <v>97.16000000000001</v>
+        <v>36.2</v>
       </c>
       <c r="I36" t="n">
         <v>102.99</v>
@@ -2624,6 +2731,9 @@
       <c r="R36" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S36" t="n">
+        <v>4.784823804928435</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2652,7 +2762,7 @@
         <v>109.76</v>
       </c>
       <c r="H37" t="n">
-        <v>90.5</v>
+        <v>32.5</v>
       </c>
       <c r="I37" t="n">
         <v>103.01</v>
@@ -2684,6 +2794,9 @@
       <c r="R37" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S37" t="n">
+        <v>3.305876907875446</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2712,7 +2825,7 @@
         <v>100.94</v>
       </c>
       <c r="H38" t="n">
-        <v>91.76000000000001</v>
+        <v>33.2</v>
       </c>
       <c r="I38" t="n">
         <v>102.63</v>
@@ -2744,6 +2857,9 @@
       <c r="R38" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S38" t="n">
+        <v>4.697478757713426</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2772,7 +2888,7 @@
         <v>96.08</v>
       </c>
       <c r="H39" t="n">
-        <v>93.02</v>
+        <v>33.9</v>
       </c>
       <c r="I39" t="n">
         <v>102.54</v>
@@ -2804,6 +2920,9 @@
       <c r="R39" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S39" t="n">
+        <v>5.841828018411398</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2832,7 +2951,7 @@
         <v>101.48</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2</v>
+        <v>34</v>
       </c>
       <c r="I40" t="n">
         <v>102.73</v>
@@ -2864,6 +2983,9 @@
       <c r="R40" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S40" t="n">
+        <v>4.817720858071514</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2892,7 +3014,7 @@
         <v>100.58</v>
       </c>
       <c r="H41" t="n">
-        <v>98.06</v>
+        <v>36.7</v>
       </c>
       <c r="I41" t="n">
         <v>102.57</v>
@@ -2924,6 +3046,9 @@
       <c r="R41" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S41" t="n">
+        <v>5.77957451060537</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2952,7 +3077,7 @@
         <v>106.88</v>
       </c>
       <c r="H42" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I42" t="n">
         <v>102.29</v>
@@ -2984,6 +3109,9 @@
       <c r="R42" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S42" t="n">
+        <v>5.174366796066955</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3012,7 +3140,7 @@
         <v>107.78</v>
       </c>
       <c r="H43" t="n">
-        <v>105.98</v>
+        <v>41.1</v>
       </c>
       <c r="I43" t="n">
         <v>102.26</v>
@@ -3044,6 +3172,9 @@
       <c r="R43" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S43" t="n">
+        <v>5.671358208730154</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3072,7 +3203,7 @@
         <v>110.48</v>
       </c>
       <c r="H44" t="n">
-        <v>107.42</v>
+        <v>41.9</v>
       </c>
       <c r="I44" t="n">
         <v>102.24</v>
@@ -3104,6 +3235,9 @@
       <c r="R44" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S44" t="n">
+        <v>5.389110771233577</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3132,7 +3266,7 @@
         <v>111.2</v>
       </c>
       <c r="H45" t="n">
-        <v>108.68</v>
+        <v>42.6</v>
       </c>
       <c r="I45" t="n">
         <v>102.26</v>
@@ -3164,6 +3298,9 @@
       <c r="R45" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S45" t="n">
+        <v>5.455329709485014</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3192,7 +3329,7 @@
         <v>117.86</v>
       </c>
       <c r="H46" t="n">
-        <v>103.46</v>
+        <v>39.7</v>
       </c>
       <c r="I46" t="n">
         <v>102.39</v>
@@ -3224,6 +3361,9 @@
       <c r="R46" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S46" t="n">
+        <v>3.739773546432603</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3252,7 +3392,7 @@
         <v>117.86</v>
       </c>
       <c r="H47" t="n">
-        <v>100.58</v>
+        <v>38.1</v>
       </c>
       <c r="I47" t="n">
         <v>102.24</v>
@@ -3284,6 +3424,9 @@
       <c r="R47" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S47" t="n">
+        <v>3.430484310708156</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3312,7 +3455,7 @@
         <v>120.92</v>
       </c>
       <c r="H48" t="n">
-        <v>105.26</v>
+        <v>40.7</v>
       </c>
       <c r="I48" t="n">
         <v>102.02</v>
@@ -3344,6 +3487,9 @@
       <c r="R48" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S48" t="n">
+        <v>3.569777911007554</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3372,7 +3518,7 @@
         <v>102.02</v>
       </c>
       <c r="H49" t="n">
-        <v>99.68000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="I49" t="n">
         <v>102.17</v>
@@ -3404,6 +3550,9 @@
       <c r="R49" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S49" t="n">
+        <v>5.762543497231833</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3432,7 +3581,7 @@
         <v>102.56</v>
       </c>
       <c r="H50" t="n">
-        <v>99.86000000000001</v>
+        <v>37.7</v>
       </c>
       <c r="I50" t="n">
         <v>102.49</v>
@@ -3464,6 +3613,9 @@
       <c r="R50" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S50" t="n">
+        <v>5.682497255243302</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3492,7 +3644,7 @@
         <v>103.1</v>
       </c>
       <c r="H51" t="n">
-        <v>87.44</v>
+        <v>30.8</v>
       </c>
       <c r="I51" t="n">
         <v>103.07</v>
@@ -3524,6 +3676,9 @@
       <c r="R51" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S51" t="n">
+        <v>3.792873233118625</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3552,7 +3707,7 @@
         <v>102.74</v>
       </c>
       <c r="H52" t="n">
-        <v>70.88</v>
+        <v>21.6</v>
       </c>
       <c r="I52" t="n">
         <v>103.23</v>
@@ -3584,6 +3739,9 @@
       <c r="R52" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S52" t="n">
+        <v>2.229258543784056</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3612,7 +3770,7 @@
         <v>102.92</v>
       </c>
       <c r="H53" t="n">
-        <v>81.86</v>
+        <v>27.7</v>
       </c>
       <c r="I53" t="n">
         <v>103.18</v>
@@ -3644,6 +3802,9 @@
       <c r="R53" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S53" t="n">
+        <v>3.190805846299826</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3672,7 +3833,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>91.40000000000001</v>
+        <v>33</v>
       </c>
       <c r="I54" t="n">
         <v>103.33</v>
@@ -3704,6 +3865,9 @@
       <c r="R54" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S54" t="n">
+        <v>5.591663868740429</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3732,7 +3896,7 @@
         <v>100.76</v>
       </c>
       <c r="H55" t="n">
-        <v>91.76000000000001</v>
+        <v>33.2</v>
       </c>
       <c r="I55" t="n">
         <v>103.38</v>
@@ -3764,6 +3928,9 @@
       <c r="R55" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S55" t="n">
+        <v>4.728260397573185</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3792,7 +3959,7 @@
         <v>111.38</v>
       </c>
       <c r="H56" t="n">
-        <v>90.5</v>
+        <v>32.5</v>
       </c>
       <c r="I56" t="n">
         <v>103.08</v>
@@ -3824,6 +3991,9 @@
       <c r="R56" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S56" t="n">
+        <v>3.127086679836581</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3852,7 +4022,7 @@
         <v>113.9</v>
       </c>
       <c r="H57" t="n">
-        <v>94.81999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="I57" t="n">
         <v>102.67</v>
@@ -3884,6 +4054,9 @@
       <c r="R57" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S57" t="n">
+        <v>3.283813098817835</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3912,7 +4085,7 @@
         <v>118.04</v>
       </c>
       <c r="H58" t="n">
-        <v>103.1</v>
+        <v>39.5</v>
       </c>
       <c r="I58" t="n">
         <v>102.48</v>
@@ -3944,6 +4117,9 @@
       <c r="R58" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S58" t="n">
+        <v>3.677966224976512</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3972,7 +4148,7 @@
         <v>136.94</v>
       </c>
       <c r="H59" t="n">
-        <v>111.02</v>
+        <v>43.9</v>
       </c>
       <c r="I59" t="n">
         <v>101.93</v>
@@ -4004,6 +4180,9 @@
       <c r="R59" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S59" t="n">
+        <v>2.569973988500824</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4032,7 +4211,7 @@
         <v>148.1</v>
       </c>
       <c r="H60" t="n">
-        <v>124.7</v>
+        <v>51.5</v>
       </c>
       <c r="I60" t="n">
         <v>101.65</v>
@@ -4064,6 +4243,9 @@
       <c r="R60" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S60" t="n">
+        <v>2.738142252151758</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4092,7 +4274,7 @@
         <v>129.92</v>
       </c>
       <c r="H61" t="n">
-        <v>116.6</v>
+        <v>47</v>
       </c>
       <c r="I61" t="n">
         <v>102.18</v>
@@ -4124,6 +4306,9 @@
       <c r="R61" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S61" t="n">
+        <v>3.729473020797775</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4152,7 +4337,7 @@
         <v>132.44</v>
       </c>
       <c r="H62" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I62" t="n">
         <v>102.03</v>
@@ -4184,6 +4369,9 @@
       <c r="R62" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S62" t="n">
+        <v>3.147742558007451</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4212,7 +4400,7 @@
         <v>143.42</v>
       </c>
       <c r="H63" t="n">
-        <v>121.28</v>
+        <v>49.6</v>
       </c>
       <c r="I63" t="n">
         <v>101.54</v>
@@ -4244,6 +4432,9 @@
       <c r="R63" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S63" t="n">
+        <v>2.845189361254112</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4272,7 +4463,7 @@
         <v>143.06</v>
       </c>
       <c r="H64" t="n">
-        <v>131.18</v>
+        <v>55.1</v>
       </c>
       <c r="I64" t="n">
         <v>101.58</v>
@@ -4304,6 +4495,9 @@
       <c r="R64" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S64" t="n">
+        <v>3.767369569547968</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4332,7 +4526,7 @@
         <v>151.16</v>
       </c>
       <c r="H65" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I65" t="n">
         <v>101.65</v>
@@ -4364,6 +4558,9 @@
       <c r="R65" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S65" t="n">
+        <v>1.631285504770574</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4392,7 +4589,7 @@
         <v>119.66</v>
       </c>
       <c r="H66" t="n">
-        <v>114.26</v>
+        <v>45.7</v>
       </c>
       <c r="I66" t="n">
         <v>101.92</v>
@@ -4424,6 +4621,9 @@
       <c r="R66" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S66" t="n">
+        <v>4.831783160710964</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4452,7 +4652,7 @@
         <v>124.34</v>
       </c>
       <c r="H67" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I67" t="n">
         <v>102.29</v>
@@ -4484,6 +4684,9 @@
       <c r="R67" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S67" t="n">
+        <v>3.319874293516798</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4512,7 +4715,7 @@
         <v>132.26</v>
       </c>
       <c r="H68" t="n">
-        <v>106.16</v>
+        <v>41.2</v>
       </c>
       <c r="I68" t="n">
         <v>101.84</v>
@@ -4544,6 +4747,9 @@
       <c r="R68" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S68" t="n">
+        <v>2.567096483189629</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4572,7 +4778,7 @@
         <v>144.32</v>
       </c>
       <c r="H69" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I69" t="n">
         <v>101.67</v>
@@ -4604,6 +4810,9 @@
       <c r="R69" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S69" t="n">
+        <v>1.977137738477762</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4632,7 +4841,7 @@
         <v>150.44</v>
       </c>
       <c r="H70" t="n">
-        <v>119.12</v>
+        <v>48.4</v>
       </c>
       <c r="I70" t="n">
         <v>101.43</v>
@@ -4664,6 +4873,9 @@
       <c r="R70" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S70" t="n">
+        <v>2.197056745148759</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4692,7 +4904,7 @@
         <v>157.46</v>
       </c>
       <c r="H71" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I71" t="n">
         <v>101.31</v>
@@ -4724,6 +4936,9 @@
       <c r="R71" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S71" t="n">
+        <v>2.056624383297355</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4752,7 +4967,7 @@
         <v>162.32</v>
       </c>
       <c r="H72" t="n">
-        <v>133.7</v>
+        <v>56.5</v>
       </c>
       <c r="I72" t="n">
         <v>101.07</v>
@@ -4784,6 +4999,9 @@
       <c r="R72" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S72" t="n">
+        <v>2.375881479190865</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4812,7 +5030,7 @@
         <v>161.78</v>
       </c>
       <c r="H73" t="n">
-        <v>141.8</v>
+        <v>61</v>
       </c>
       <c r="I73" t="n">
         <v>101.08</v>
@@ -4844,6 +5062,9 @@
       <c r="R73" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S73" t="n">
+        <v>2.978584451130955</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4872,7 +5093,7 @@
         <v>157.64</v>
       </c>
       <c r="H74" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I74" t="n">
         <v>101.27</v>
@@ -4904,6 +5125,9 @@
       <c r="R74" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S74" t="n">
+        <v>3.513045535062892</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4932,7 +5156,7 @@
         <v>158.54</v>
       </c>
       <c r="H75" t="n">
-        <v>142.7</v>
+        <v>61.5</v>
       </c>
       <c r="I75" t="n">
         <v>101.12</v>
@@ -4964,6 +5188,9 @@
       <c r="R75" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S75" t="n">
+        <v>3.320679847168376</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4992,7 +5219,7 @@
         <v>169.52</v>
       </c>
       <c r="H76" t="n">
-        <v>146.84</v>
+        <v>63.8</v>
       </c>
       <c r="I76" t="n">
         <v>100.75</v>
@@ -5024,6 +5251,9 @@
       <c r="R76" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S76" t="n">
+        <v>2.776647441219533</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5052,7 +5282,7 @@
         <v>135.32</v>
       </c>
       <c r="H77" t="n">
-        <v>125.42</v>
+        <v>51.9</v>
       </c>
       <c r="I77" t="n">
         <v>101.11</v>
@@ -5084,6 +5314,9 @@
       <c r="R77" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S77" t="n">
+        <v>4.045893237852143</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5112,7 +5345,7 @@
         <v>131</v>
       </c>
       <c r="H78" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I78" t="n">
         <v>101.37</v>
@@ -5144,6 +5377,9 @@
       <c r="R78" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S78" t="n">
+        <v>3.644534004371937</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5172,7 +5408,7 @@
         <v>138.74</v>
       </c>
       <c r="H79" t="n">
-        <v>123.26</v>
+        <v>50.7</v>
       </c>
       <c r="I79" t="n">
         <v>101.24</v>
@@ -5204,6 +5440,9 @@
       <c r="R79" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S79" t="n">
+        <v>3.444120802775442</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5232,7 +5471,7 @@
         <v>125.6</v>
       </c>
       <c r="H80" t="n">
-        <v>120.2</v>
+        <v>49</v>
       </c>
       <c r="I80" t="n">
         <v>101.45</v>
@@ -5264,6 +5503,9 @@
       <c r="R80" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S80" t="n">
+        <v>4.722782744336829</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5292,7 +5534,7 @@
         <v>119.66</v>
       </c>
       <c r="H81" t="n">
-        <v>117.5</v>
+        <v>47.5</v>
       </c>
       <c r="I81" t="n">
         <v>101.6</v>
@@ -5324,6 +5566,9 @@
       <c r="R81" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S81" t="n">
+        <v>5.297541776014725</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5352,7 +5597,7 @@
         <v>117.32</v>
       </c>
       <c r="H82" t="n">
-        <v>113.36</v>
+        <v>45.2</v>
       </c>
       <c r="I82" t="n">
         <v>102.07</v>
@@ -5384,6 +5629,9 @@
       <c r="R82" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S82" t="n">
+        <v>5.084946127790529</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5412,7 +5660,7 @@
         <v>124.16</v>
       </c>
       <c r="H83" t="n">
-        <v>112.82</v>
+        <v>44.9</v>
       </c>
       <c r="I83" t="n">
         <v>101.99</v>
@@ -5444,6 +5692,9 @@
       <c r="R83" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S83" t="n">
+        <v>4.010572198577768</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5472,7 +5723,7 @@
         <v>141.26</v>
       </c>
       <c r="H84" t="n">
-        <v>125.96</v>
+        <v>52.2</v>
       </c>
       <c r="I84" t="n">
         <v>101.16</v>
@@ -5504,6 +5755,9 @@
       <c r="R84" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S84" t="n">
+        <v>3.44571807310144</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5532,7 +5786,7 @@
         <v>140.54</v>
       </c>
       <c r="H85" t="n">
-        <v>138.74</v>
+        <v>59.3</v>
       </c>
       <c r="I85" t="n">
         <v>100.79</v>
@@ -5564,6 +5818,9 @@
       <c r="R85" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S85" t="n">
+        <v>4.949467954266266</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5592,7 +5849,7 @@
         <v>132.08</v>
       </c>
       <c r="H86" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I86" t="n">
         <v>101.78</v>
@@ -5624,6 +5881,9 @@
       <c r="R86" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S86" t="n">
+        <v>4.268111981300224</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5652,7 +5912,7 @@
         <v>131.36</v>
       </c>
       <c r="H87" t="n">
-        <v>121.1</v>
+        <v>49.5</v>
       </c>
       <c r="I87" t="n">
         <v>102.13</v>
@@ -5684,6 +5944,9 @@
       <c r="R87" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S87" t="n">
+        <v>4.04863620967404</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5712,7 +5975,7 @@
         <v>139.1</v>
       </c>
       <c r="H88" t="n">
-        <v>112.64</v>
+        <v>44.8</v>
       </c>
       <c r="I88" t="n">
         <v>102.16</v>
@@ -5744,6 +6007,9 @@
       <c r="R88" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S88" t="n">
+        <v>2.526365366773812</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5772,7 +6038,7 @@
         <v>146.84</v>
       </c>
       <c r="H89" t="n">
-        <v>126.32</v>
+        <v>52.4</v>
       </c>
       <c r="I89" t="n">
         <v>101.82</v>
@@ -5804,6 +6070,9 @@
       <c r="R89" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S89" t="n">
+        <v>2.965685891291862</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5832,7 +6101,7 @@
         <v>147.2</v>
       </c>
       <c r="H90" t="n">
-        <v>140.18</v>
+        <v>60.1</v>
       </c>
       <c r="I90" t="n">
         <v>101.89</v>
@@ -5864,6 +6133,9 @@
       <c r="R90" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S90" t="n">
+        <v>4.245000661743786</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5892,7 +6164,7 @@
         <v>129.38</v>
       </c>
       <c r="H91" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I91" t="n">
         <v>102.6</v>
@@ -5924,6 +6196,9 @@
       <c r="R91" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S91" t="n">
+        <v>4.614304262299972</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5952,7 +6227,7 @@
         <v>122.54</v>
       </c>
       <c r="H92" t="n">
-        <v>105.8</v>
+        <v>41</v>
       </c>
       <c r="I92" t="n">
         <v>103.11</v>
@@ -5984,6 +6259,9 @@
       <c r="R92" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S92" t="n">
+        <v>3.442554129638259</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6012,7 +6290,7 @@
         <v>130.46</v>
       </c>
       <c r="H93" t="n">
-        <v>107.42</v>
+        <v>41.9</v>
       </c>
       <c r="I93" t="n">
         <v>102.81</v>
@@ -6044,6 +6322,9 @@
       <c r="R93" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S93" t="n">
+        <v>2.814988581400815</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6072,7 +6353,7 @@
         <v>140.18</v>
       </c>
       <c r="H94" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I94" t="n">
         <v>102.6</v>
@@ -6104,6 +6385,9 @@
       <c r="R94" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S94" t="n">
+        <v>1.952599472442798</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6132,7 +6416,7 @@
         <v>145.4</v>
       </c>
       <c r="H95" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I95" t="n">
         <v>102.38</v>
@@ -6164,6 +6448,9 @@
       <c r="R95" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S95" t="n">
+        <v>1.917151044066927</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6192,7 +6479,7 @@
         <v>142.88</v>
       </c>
       <c r="H96" t="n">
-        <v>118.04</v>
+        <v>47.8</v>
       </c>
       <c r="I96" t="n">
         <v>102.11</v>
@@ -6224,6 +6511,9 @@
       <c r="R96" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S96" t="n">
+        <v>2.639163112392509</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6252,7 +6542,7 @@
         <v>151.52</v>
       </c>
       <c r="H97" t="n">
-        <v>122.18</v>
+        <v>50.1</v>
       </c>
       <c r="I97" t="n">
         <v>101.96</v>
@@ -6284,6 +6574,9 @@
       <c r="R97" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S97" t="n">
+        <v>2.322409932861776</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6312,7 +6605,7 @@
         <v>158.72</v>
       </c>
       <c r="H98" t="n">
-        <v>126.14</v>
+        <v>52.3</v>
       </c>
       <c r="I98" t="n">
         <v>101.82</v>
@@ -6344,6 +6637,9 @@
       <c r="R98" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S98" t="n">
+        <v>2.131065124924778</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6372,7 +6668,7 @@
         <v>160.34</v>
       </c>
       <c r="H99" t="n">
-        <v>108.5</v>
+        <v>42.5</v>
       </c>
       <c r="I99" t="n">
         <v>101.52</v>
@@ -6404,6 +6700,9 @@
       <c r="R99" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S99" t="n">
+        <v>1.240218808369725</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6432,7 +6731,7 @@
         <v>161.78</v>
       </c>
       <c r="H100" t="n">
-        <v>116.6</v>
+        <v>47</v>
       </c>
       <c r="I100" t="n">
         <v>101.14</v>
@@ -6464,6 +6763,9 @@
       <c r="R100" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S100" t="n">
+        <v>1.507533421809581</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6492,7 +6794,7 @@
         <v>165.2</v>
       </c>
       <c r="H101" t="n">
-        <v>129.38</v>
+        <v>54.1</v>
       </c>
       <c r="I101" t="n">
         <v>101.06</v>
@@ -6524,6 +6826,9 @@
       <c r="R101" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S101" t="n">
+        <v>1.964021376644153</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6552,7 +6857,7 @@
         <v>170.96</v>
       </c>
       <c r="H102" t="n">
-        <v>138.02</v>
+        <v>58.9</v>
       </c>
       <c r="I102" t="n">
         <v>100.89</v>
@@ -6584,6 +6889,9 @@
       <c r="R102" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S102" t="n">
+        <v>2.134375896455288</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6612,7 +6920,7 @@
         <v>174.92</v>
       </c>
       <c r="H103" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I103" t="n">
         <v>100.61</v>
@@ -6644,6 +6952,9 @@
       <c r="R103" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S103" t="n">
+        <v>2.07539652278459</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6672,7 +6983,7 @@
         <v>138.38</v>
       </c>
       <c r="H104" t="n">
-        <v>132.98</v>
+        <v>56.1</v>
       </c>
       <c r="I104" t="n">
         <v>100.95</v>
@@ -6704,6 +7015,9 @@
       <c r="R104" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S104" t="n">
+        <v>4.530714932290871</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6732,7 +7046,7 @@
         <v>147.02</v>
       </c>
       <c r="H105" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I105" t="n">
         <v>101.6</v>
@@ -6764,6 +7078,9 @@
       <c r="R105" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S105" t="n">
+        <v>2.994433543124053</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6792,7 +7109,7 @@
         <v>134.78</v>
       </c>
       <c r="H106" t="n">
-        <v>120.2</v>
+        <v>49</v>
       </c>
       <c r="I106" t="n">
         <v>101.93</v>
@@ -6824,6 +7141,9 @@
       <c r="R106" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S106" t="n">
+        <v>3.559094370513261</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6852,7 +7172,7 @@
         <v>126.68</v>
       </c>
       <c r="H107" t="n">
-        <v>119.12</v>
+        <v>48.4</v>
       </c>
       <c r="I107" t="n">
         <v>102.03</v>
@@ -6884,6 +7204,9 @@
       <c r="R107" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S107" t="n">
+        <v>4.428904933239215</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6912,7 +7235,7 @@
         <v>136.04</v>
       </c>
       <c r="H108" t="n">
-        <v>123.44</v>
+        <v>50.8</v>
       </c>
       <c r="I108" t="n">
         <v>101.99</v>
@@ -6944,6 +7267,9 @@
       <c r="R108" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S108" t="n">
+        <v>3.749845506106775</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6972,7 +7298,7 @@
         <v>139.28</v>
       </c>
       <c r="H109" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I109" t="n">
         <v>102.08</v>
@@ -7004,6 +7330,9 @@
       <c r="R109" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S109" t="n">
+        <v>3.741696277887187</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7032,7 +7361,7 @@
         <v>144.68</v>
       </c>
       <c r="H110" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I110" t="n">
         <v>101.98</v>
@@ -7064,6 +7393,9 @@
       <c r="R110" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S110" t="n">
+        <v>3.247446642581794</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7092,7 +7424,7 @@
         <v>148.28</v>
       </c>
       <c r="H111" t="n">
-        <v>125.78</v>
+        <v>52.1</v>
       </c>
       <c r="I111" t="n">
         <v>101.33</v>
@@ -7124,6 +7456,9 @@
       <c r="R111" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S111" t="n">
+        <v>2.80621419508986</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -7152,7 +7487,7 @@
         <v>156.38</v>
       </c>
       <c r="H112" t="n">
-        <v>135.14</v>
+        <v>57.3</v>
       </c>
       <c r="I112" t="n">
         <v>101.13</v>
@@ -7184,6 +7519,9 @@
       <c r="R112" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S112" t="n">
+        <v>2.889272250800213</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7212,7 +7550,7 @@
         <v>158.54</v>
       </c>
       <c r="H113" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I113" t="n">
         <v>101.02</v>
@@ -7244,6 +7582,9 @@
       <c r="R113" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S113" t="n">
+        <v>4.340028855873569</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7272,7 +7613,7 @@
         <v>157.1</v>
       </c>
       <c r="H114" t="n">
-        <v>152.24</v>
+        <v>66.8</v>
       </c>
       <c r="I114" t="n">
         <v>100.98</v>
@@ -7304,6 +7645,9 @@
       <c r="R114" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S114" t="n">
+        <v>4.391148111177547</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7332,7 +7676,7 @@
         <v>171.68</v>
       </c>
       <c r="H115" t="n">
-        <v>156.92</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="I115" t="n">
         <v>100.6</v>
@@ -7364,6 +7708,9 @@
       <c r="R115" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S115" t="n">
+        <v>3.379175117873316</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -7392,7 +7739,7 @@
         <v>163.76</v>
       </c>
       <c r="H116" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I116" t="n">
         <v>100.79</v>
@@ -7424,6 +7771,9 @@
       <c r="R116" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S116" t="n">
+        <v>4.115546040205323</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -7452,7 +7802,7 @@
         <v>171.14</v>
       </c>
       <c r="H117" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I117" t="n">
         <v>101.01</v>
@@ -7484,6 +7834,9 @@
       <c r="R117" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S117" t="n">
+        <v>3.093498643523663</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7512,7 +7865,7 @@
         <v>150.26</v>
       </c>
       <c r="H118" t="n">
-        <v>141.44</v>
+        <v>60.8</v>
       </c>
       <c r="I118" t="n">
         <v>101.08</v>
@@ -7544,6 +7897,9 @@
       <c r="R118" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S118" t="n">
+        <v>4.025950339311309</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7572,7 +7928,7 @@
         <v>138.74</v>
       </c>
       <c r="H119" t="n">
-        <v>127.58</v>
+        <v>53.1</v>
       </c>
       <c r="I119" t="n">
         <v>101.81</v>
@@ -7604,6 +7960,9 @@
       <c r="R119" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S119" t="n">
+        <v>3.876795992617631</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7632,7 +7991,7 @@
         <v>136.22</v>
       </c>
       <c r="H120" t="n">
-        <v>129.92</v>
+        <v>54.4</v>
       </c>
       <c r="I120" t="n">
         <v>101.92</v>
@@ -7664,6 +8023,9 @@
       <c r="R120" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S120" t="n">
+        <v>4.450500882079695</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7692,7 +8054,7 @@
         <v>137.3</v>
       </c>
       <c r="H121" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I121" t="n">
         <v>102.05</v>
@@ -7724,6 +8086,9 @@
       <c r="R121" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S121" t="n">
+        <v>3.928155817981294</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7752,7 +8117,7 @@
         <v>150.44</v>
       </c>
       <c r="H122" t="n">
-        <v>127.22</v>
+        <v>52.9</v>
       </c>
       <c r="I122" t="n">
         <v>101.52</v>
@@ -7784,6 +8149,9 @@
       <c r="R122" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S122" t="n">
+        <v>2.748089863082301</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7812,7 +8180,7 @@
         <v>159.62</v>
       </c>
       <c r="H123" t="n">
-        <v>126.14</v>
+        <v>52.3</v>
       </c>
       <c r="I123" t="n">
         <v>101.22</v>
@@ -7844,6 +8212,9 @@
       <c r="R123" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S123" t="n">
+        <v>2.080772878041396</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7872,7 +8243,7 @@
         <v>164.12</v>
       </c>
       <c r="H124" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I124" t="n">
         <v>101.18</v>
@@ -7904,6 +8275,9 @@
       <c r="R124" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S124" t="n">
+        <v>2.299927655116752</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7932,7 +8306,7 @@
         <v>172.22</v>
       </c>
       <c r="H125" t="n">
-        <v>148.46</v>
+        <v>64.7</v>
       </c>
       <c r="I125" t="n">
         <v>101.37</v>
@@ -7964,6 +8338,9 @@
       <c r="R125" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S125" t="n">
+        <v>2.703295949724487</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7992,7 +8369,7 @@
         <v>160.88</v>
       </c>
       <c r="H126" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I126" t="n">
         <v>101.37</v>
@@ -8024,6 +8401,9 @@
       <c r="R126" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S126" t="n">
+        <v>3.712990710394647</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -8052,7 +8432,7 @@
         <v>158</v>
       </c>
       <c r="H127" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I127" t="n">
         <v>101.3</v>
@@ -8084,6 +8464,9 @@
       <c r="R127" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S127" t="n">
+        <v>4.442297901668213</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -8112,7 +8495,7 @@
         <v>151.88</v>
       </c>
       <c r="H128" t="n">
-        <v>147.56</v>
+        <v>64.2</v>
       </c>
       <c r="I128" t="n">
         <v>101</v>
@@ -8144,6 +8527,9 @@
       <c r="R128" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S128" t="n">
+        <v>4.50067154547141</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -8172,7 +8558,7 @@
         <v>164.66</v>
       </c>
       <c r="H129" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I129" t="n">
         <v>101</v>
@@ -8204,6 +8590,9 @@
       <c r="R129" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S129" t="n">
+        <v>3.364565689238509</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -8232,7 +8621,7 @@
         <v>155.84</v>
       </c>
       <c r="H130" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I130" t="n">
         <v>100.84</v>
@@ -8264,6 +8653,9 @@
       <c r="R130" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S130" t="n">
+        <v>4.26582335424577</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -8292,7 +8684,7 @@
         <v>154.76</v>
       </c>
       <c r="H131" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I131" t="n">
         <v>101.05</v>
@@ -8324,6 +8716,9 @@
       <c r="R131" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S131" t="n">
+        <v>3.428160607022139</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -8352,7 +8747,7 @@
         <v>145.4</v>
       </c>
       <c r="H132" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I132" t="n">
         <v>101.59</v>
@@ -8384,6 +8779,9 @@
       <c r="R132" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S132" t="n">
+        <v>3.933564942552981</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -8412,7 +8810,7 @@
         <v>140.9</v>
       </c>
       <c r="H133" t="n">
-        <v>126.32</v>
+        <v>52.4</v>
       </c>
       <c r="I133" t="n">
         <v>101.79</v>
@@ -8444,6 +8842,9 @@
       <c r="R133" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S133" t="n">
+        <v>3.51640813194995</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8472,7 +8873,7 @@
         <v>152.42</v>
       </c>
       <c r="H134" t="n">
-        <v>123.98</v>
+        <v>51.1</v>
       </c>
       <c r="I134" t="n">
         <v>101.61</v>
@@ -8504,6 +8905,9 @@
       <c r="R134" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S134" t="n">
+        <v>2.381165445690899</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8532,7 +8936,7 @@
         <v>158.18</v>
       </c>
       <c r="H135" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I135" t="n">
         <v>101.58</v>
@@ -8564,6 +8968,9 @@
       <c r="R135" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S135" t="n">
+        <v>2.383788700665763</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8592,7 +8999,7 @@
         <v>162.32</v>
       </c>
       <c r="H136" t="n">
-        <v>134.42</v>
+        <v>56.9</v>
       </c>
       <c r="I136" t="n">
         <v>101.54</v>
@@ -8624,6 +9031,9 @@
       <c r="R136" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S136" t="n">
+        <v>2.421690672449382</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8652,7 +9062,7 @@
         <v>152.6</v>
       </c>
       <c r="H137" t="n">
-        <v>135.5</v>
+        <v>57.5</v>
       </c>
       <c r="I137" t="n">
         <v>101.3</v>
@@ -8684,6 +9094,9 @@
       <c r="R137" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S137" t="n">
+        <v>3.232289194783036</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8712,7 +9125,7 @@
         <v>154.76</v>
       </c>
       <c r="H138" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I138" t="n">
         <v>101.05</v>
@@ -8744,6 +9157,9 @@
       <c r="R138" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S138" t="n">
+        <v>3.884643271525658</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8772,7 +9188,7 @@
         <v>163.22</v>
       </c>
       <c r="H139" t="n">
-        <v>147.56</v>
+        <v>64.2</v>
       </c>
       <c r="I139" t="n">
         <v>100.88</v>
@@ -8804,6 +9220,9 @@
       <c r="R139" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S139" t="n">
+        <v>3.322809673661732</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8832,7 +9251,7 @@
         <v>153.5</v>
       </c>
       <c r="H140" t="n">
-        <v>149.36</v>
+        <v>65.2</v>
       </c>
       <c r="I140" t="n">
         <v>101.07</v>
@@ -8864,6 +9283,9 @@
       <c r="R140" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S140" t="n">
+        <v>4.50468265585864</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8892,7 +9314,7 @@
         <v>167.9</v>
       </c>
       <c r="H141" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I141" t="n">
         <v>101.13</v>
@@ -8924,6 +9346,9 @@
       <c r="R141" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S141" t="n">
+        <v>3.402099894189536</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8952,7 +9377,7 @@
         <v>174.2</v>
       </c>
       <c r="H142" t="n">
-        <v>151.52</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I142" t="n">
         <v>100.76</v>
@@ -8984,6 +9409,9 @@
       <c r="R142" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S142" t="n">
+        <v>2.778728625651422</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -9012,7 +9440,7 @@
         <v>164.48</v>
       </c>
       <c r="H143" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I143" t="n">
         <v>100.65</v>
@@ -9044,6 +9472,9 @@
       <c r="R143" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S143" t="n">
+        <v>3.519929290463938</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -9072,7 +9503,7 @@
         <v>168.62</v>
       </c>
       <c r="H144" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I144" t="n">
         <v>100.58</v>
@@ -9104,6 +9535,9 @@
       <c r="R144" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S144" t="n">
+        <v>3.779709258440993</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -9132,7 +9566,7 @@
         <v>160.16</v>
       </c>
       <c r="H145" t="n">
-        <v>156.38</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="I145" t="n">
         <v>100.36</v>
@@ -9164,6 +9598,9 @@
       <c r="R145" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S145" t="n">
+        <v>4.482552262402724</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -9192,7 +9629,7 @@
         <v>166.46</v>
       </c>
       <c r="H146" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I146" t="n">
         <v>100.33</v>
@@ -9224,6 +9661,9 @@
       <c r="R146" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S146" t="n">
+        <v>4.848281526093022</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -9252,7 +9692,7 @@
         <v>173.12</v>
       </c>
       <c r="H147" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I147" t="n">
         <v>100.62</v>
@@ -9284,6 +9724,9 @@
       <c r="R147" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S147" t="n">
+        <v>4.030255126831832</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -9312,7 +9755,7 @@
         <v>170.24</v>
       </c>
       <c r="H148" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I148" t="n">
         <v>100.62</v>
@@ -9344,6 +9787,9 @@
       <c r="R148" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S148" t="n">
+        <v>4.367685941948634</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -9372,7 +9818,7 @@
         <v>171.68</v>
       </c>
       <c r="H149" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I149" t="n">
         <v>100.49</v>
@@ -9404,6 +9850,9 @@
       <c r="R149" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S149" t="n">
+        <v>4.124136778057741</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9432,7 +9881,7 @@
         <v>166.46</v>
       </c>
       <c r="H150" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I150" t="n">
         <v>100.42</v>
@@ -9464,6 +9913,9 @@
       <c r="R150" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S150" t="n">
+        <v>4.54751215760743</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -9492,7 +9944,7 @@
         <v>170.6</v>
       </c>
       <c r="H151" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I151" t="n">
         <v>100.33</v>
@@ -9524,6 +9976,9 @@
       <c r="R151" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S151" t="n">
+        <v>4.573505777567879</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -9552,7 +10007,7 @@
         <v>162.5</v>
       </c>
       <c r="H152" t="n">
-        <v>157.46</v>
+        <v>69.7</v>
       </c>
       <c r="I152" t="n">
         <v>100.11</v>
@@ -9584,6 +10039,9 @@
       <c r="R152" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S152" t="n">
+        <v>4.32809026923199</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9612,7 +10070,7 @@
         <v>187.7</v>
       </c>
       <c r="H153" t="n">
-        <v>155.12</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="I153" t="n">
         <v>100.56</v>
@@ -9644,6 +10102,9 @@
       <c r="R153" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S153" t="n">
+        <v>2.200147959424336</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9672,7 +10133,7 @@
         <v>178.88</v>
       </c>
       <c r="H154" t="n">
-        <v>154.94</v>
+        <v>68.3</v>
       </c>
       <c r="I154" t="n">
         <v>100.6</v>
@@ -9704,6 +10165,9 @@
       <c r="R154" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S154" t="n">
+        <v>2.697873822780043</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9732,7 +10196,7 @@
         <v>161.42</v>
       </c>
       <c r="H155" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I155" t="n">
         <v>100.74</v>
@@ -9764,6 +10228,9 @@
       <c r="R155" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S155" t="n">
+        <v>3.811943490045929</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9792,7 +10259,7 @@
         <v>164.66</v>
       </c>
       <c r="H156" t="n">
-        <v>151.52</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I156" t="n">
         <v>100.87</v>
@@ -9824,6 +10291,9 @@
       <c r="R156" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S156" t="n">
+        <v>3.535151182275948</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9852,7 +10322,7 @@
         <v>168.26</v>
       </c>
       <c r="H157" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I157" t="n">
         <v>100.57</v>
@@ -9884,6 +10354,9 @@
       <c r="R157" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S157" t="n">
+        <v>3.864681371510405</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9912,7 +10385,7 @@
         <v>171.5</v>
       </c>
       <c r="H158" t="n">
-        <v>158.72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I158" t="n">
         <v>100.73</v>
@@ -9944,6 +10417,9 @@
       <c r="R158" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S158" t="n">
+        <v>3.546400252728181</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9972,7 +10448,7 @@
         <v>176.72</v>
       </c>
       <c r="H159" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I159" t="n">
         <v>100.81</v>
@@ -10004,6 +10480,9 @@
       <c r="R159" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S159" t="n">
+        <v>3.534664202235594</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -10032,7 +10511,7 @@
         <v>175.46</v>
       </c>
       <c r="H160" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I160" t="n">
         <v>100.71</v>
@@ -10064,6 +10543,9 @@
       <c r="R160" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S160" t="n">
+        <v>3.645201486299284</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -10092,7 +10574,7 @@
         <v>178.16</v>
       </c>
       <c r="H161" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I161" t="n">
         <v>100.48</v>
@@ -10124,6 +10606,9 @@
       <c r="R161" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S161" t="n">
+        <v>3.413203391822172</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -10152,7 +10637,7 @@
         <v>166.82</v>
       </c>
       <c r="H162" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I162" t="n">
         <v>100.45</v>
@@ -10184,6 +10669,9 @@
       <c r="R162" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S162" t="n">
+        <v>4.50583004549689</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -10212,7 +10700,7 @@
         <v>161.6</v>
       </c>
       <c r="H163" t="n">
-        <v>161.42</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I163" t="n">
         <v>100.3</v>
@@ -10244,6 +10732,9 @@
       <c r="R163" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S163" t="n">
+        <v>4.876828028203088</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -10272,7 +10763,7 @@
         <v>167.9</v>
       </c>
       <c r="H164" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I164" t="n">
         <v>100.18</v>
@@ -10304,6 +10795,9 @@
       <c r="R164" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S164" t="n">
+        <v>4.673406674853768</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -10332,7 +10826,7 @@
         <v>172.22</v>
       </c>
       <c r="H165" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I165" t="n">
         <v>100.36</v>
@@ -10364,6 +10858,9 @@
       <c r="R165" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S165" t="n">
+        <v>4.466701494526799</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10392,7 +10889,7 @@
         <v>169.34</v>
       </c>
       <c r="H166" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I166" t="n">
         <v>100.68</v>
@@ -10424,6 +10921,9 @@
       <c r="R166" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S166" t="n">
+        <v>4.622138075999623</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -10452,7 +10952,7 @@
         <v>187.7</v>
       </c>
       <c r="H167" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I167" t="n">
         <v>100.55</v>
@@ -10484,6 +10984,9 @@
       <c r="R167" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S167" t="n">
+        <v>2.866651799314169</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -10512,7 +11015,7 @@
         <v>180.32</v>
       </c>
       <c r="H168" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I168" t="n">
         <v>100.43</v>
@@ -10544,6 +11047,9 @@
       <c r="R168" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S168" t="n">
+        <v>3.498653997384618</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -10572,7 +11078,7 @@
         <v>186.08</v>
       </c>
       <c r="H169" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I169" t="n">
         <v>100.44</v>
@@ -10604,6 +11110,9 @@
       <c r="R169" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S169" t="n">
+        <v>3.363724644797349</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10632,7 +11141,7 @@
         <v>194.54</v>
       </c>
       <c r="H170" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I170" t="n">
         <v>100.5</v>
@@ -10664,6 +11173,9 @@
       <c r="R170" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S170" t="n">
+        <v>2.442634616589611</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10692,7 +11204,7 @@
         <v>194.18</v>
       </c>
       <c r="H171" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I171" t="n">
         <v>100.33</v>
@@ -10724,6 +11236,9 @@
       <c r="R171" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S171" t="n">
+        <v>2.410502851995439</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10752,7 +11267,7 @@
         <v>181.22</v>
       </c>
       <c r="H172" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I172" t="n">
         <v>100.15</v>
@@ -10784,6 +11299,9 @@
       <c r="R172" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S172" t="n">
+        <v>3.740793681342404</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10812,7 +11330,7 @@
         <v>168.44</v>
       </c>
       <c r="H173" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I173" t="n">
         <v>100.41</v>
@@ -10844,6 +11362,9 @@
       <c r="R173" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S173" t="n">
+        <v>4.629397029047764</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10872,7 +11393,7 @@
         <v>173.84</v>
       </c>
       <c r="H174" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I174" t="n">
         <v>100.67</v>
@@ -10904,6 +11425,9 @@
       <c r="R174" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S174" t="n">
+        <v>4.201297664056715</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10932,7 +11456,7 @@
         <v>183.02</v>
       </c>
       <c r="H175" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I175" t="n">
         <v>100.61</v>
@@ -10964,6 +11488,9 @@
       <c r="R175" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S175" t="n">
+        <v>3.495222189881127</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10992,7 +11519,7 @@
         <v>189.32</v>
       </c>
       <c r="H176" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I176" t="n">
         <v>100.47</v>
@@ -11024,6 +11551,9 @@
       <c r="R176" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S176" t="n">
+        <v>2.86905381087983</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -11052,7 +11582,7 @@
         <v>188.42</v>
       </c>
       <c r="H177" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I177" t="n">
         <v>100.24</v>
@@ -11084,6 +11614,9 @@
       <c r="R177" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S177" t="n">
+        <v>3.15953263531687</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -11112,7 +11645,7 @@
         <v>184.1</v>
       </c>
       <c r="H178" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I178" t="n">
         <v>100.07</v>
@@ -11144,6 +11677,9 @@
       <c r="R178" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S178" t="n">
+        <v>3.658037674538883</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -11172,7 +11708,7 @@
         <v>184.46</v>
       </c>
       <c r="H179" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I179" t="n">
         <v>100</v>
@@ -11204,6 +11740,9 @@
       <c r="R179" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S179" t="n">
+        <v>3.336239226305616</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -11232,7 +11771,7 @@
         <v>181.22</v>
       </c>
       <c r="H180" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I180" t="n">
         <v>100.3</v>
@@ -11264,6 +11803,9 @@
       <c r="R180" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S180" t="n">
+        <v>3.998427574601657</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -11292,7 +11834,7 @@
         <v>188.42</v>
       </c>
       <c r="H181" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I181" t="n">
         <v>100.65</v>
@@ -11324,6 +11866,9 @@
       <c r="R181" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S181" t="n">
+        <v>3.172774023131346</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -11352,7 +11897,7 @@
         <v>187.52</v>
       </c>
       <c r="H182" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I182" t="n">
         <v>100.54</v>
@@ -11384,6 +11929,9 @@
       <c r="R182" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S182" t="n">
+        <v>3.349364841753734</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11412,7 +11960,7 @@
         <v>192.74</v>
       </c>
       <c r="H183" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I183" t="n">
         <v>100.37</v>
@@ -11444,6 +11992,9 @@
       <c r="R183" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S183" t="n">
+        <v>3.123821669556781</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -11472,7 +12023,7 @@
         <v>188.78</v>
       </c>
       <c r="H184" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="I184" t="n">
         <v>100.43</v>
@@ -11504,6 +12055,9 @@
       <c r="R184" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S184" t="n">
+        <v>3.519263202259654</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -11532,7 +12086,7 @@
         <v>199.04</v>
       </c>
       <c r="H185" t="n">
-        <v>175.28</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I185" t="n">
         <v>100.49</v>
@@ -11564,6 +12118,9 @@
       <c r="R185" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S185" t="n">
+        <v>2.748412065009358</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -11592,7 +12149,7 @@
         <v>199.94</v>
       </c>
       <c r="H186" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I186" t="n">
         <v>100.39</v>
@@ -11624,6 +12181,9 @@
       <c r="R186" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S186" t="n">
+        <v>2.428922996976815</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -11652,7 +12212,7 @@
         <v>190.04</v>
       </c>
       <c r="H187" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I187" t="n">
         <v>100.34</v>
@@ -11684,6 +12244,9 @@
       <c r="R187" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S187" t="n">
+        <v>2.931291975453114</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -11712,7 +12275,7 @@
         <v>197.78</v>
       </c>
       <c r="H188" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I188" t="n">
         <v>100.32</v>
@@ -11744,6 +12307,9 @@
       <c r="R188" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S188" t="n">
+        <v>2.579224130901026</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11772,7 +12338,7 @@
         <v>192.74</v>
       </c>
       <c r="H189" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I189" t="n">
         <v>100.19</v>
@@ -11804,6 +12370,9 @@
       <c r="R189" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S189" t="n">
+        <v>3.059890086983141</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11832,7 +12401,7 @@
         <v>195.98</v>
       </c>
       <c r="H190" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I190" t="n">
         <v>100.13</v>
@@ -11864,6 +12433,9 @@
       <c r="R190" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S190" t="n">
+        <v>2.868944820523498</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11892,7 +12464,7 @@
         <v>179.78</v>
       </c>
       <c r="H191" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I191" t="n">
         <v>100.01</v>
@@ -11924,6 +12496,9 @@
       <c r="R191" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S191" t="n">
+        <v>4.053671109693351</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11952,7 +12527,7 @@
         <v>180.5</v>
       </c>
       <c r="H192" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I192" t="n">
         <v>100.29</v>
@@ -11984,6 +12559,9 @@
       <c r="R192" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S192" t="n">
+        <v>4.067806820441936</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -12012,7 +12590,7 @@
         <v>183.38</v>
       </c>
       <c r="H193" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="I193" t="n">
         <v>100.5</v>
@@ -12044,6 +12622,9 @@
       <c r="R193" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S193" t="n">
+        <v>3.991476048221396</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -12072,7 +12653,7 @@
         <v>189.5</v>
       </c>
       <c r="H194" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I194" t="n">
         <v>100.74</v>
@@ -12104,6 +12685,9 @@
       <c r="R194" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S194" t="n">
+        <v>3.133938512814207</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -12132,7 +12716,7 @@
         <v>194.9</v>
       </c>
       <c r="H195" t="n">
-        <v>175.64</v>
+        <v>79.8</v>
       </c>
       <c r="I195" t="n">
         <v>100.96</v>
@@ -12164,6 +12748,9 @@
       <c r="R195" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S195" t="n">
+        <v>3.037625584277738</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -12192,7 +12779,7 @@
         <v>194.72</v>
       </c>
       <c r="H196" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I196" t="n">
         <v>100.68</v>
@@ -12224,6 +12811,9 @@
       <c r="R196" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S196" t="n">
+        <v>2.890349410770576</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -12252,7 +12842,7 @@
         <v>200.66</v>
       </c>
       <c r="H197" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I197" t="n">
         <v>100.52</v>
@@ -12284,6 +12874,9 @@
       <c r="R197" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S197" t="n">
+        <v>2.411107475226947</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -12312,7 +12905,7 @@
         <v>197.6</v>
       </c>
       <c r="H198" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I198" t="n">
         <v>100.52</v>
@@ -12344,6 +12937,9 @@
       <c r="R198" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S198" t="n">
+        <v>2.779090412513331</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -12372,7 +12968,7 @@
         <v>186.26</v>
       </c>
       <c r="H199" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I199" t="n">
         <v>100.5</v>
@@ -12404,6 +13000,9 @@
       <c r="R199" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S199" t="n">
+        <v>3.321751100668236</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -12432,7 +13031,7 @@
         <v>190.04</v>
       </c>
       <c r="H200" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I200" t="n">
         <v>100.5</v>
@@ -12464,6 +13063,9 @@
       <c r="R200" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S200" t="n">
+        <v>2.968487670428638</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -12492,7 +13094,7 @@
         <v>191.84</v>
       </c>
       <c r="H201" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I201" t="n">
         <v>100.53</v>
@@ -12524,6 +13126,9 @@
       <c r="R201" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S201" t="n">
+        <v>2.825299595094324</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12552,7 +13157,7 @@
         <v>194.9</v>
       </c>
       <c r="H202" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I202" t="n">
         <v>100.62</v>
@@ -12584,6 +13189,9 @@
       <c r="R202" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S202" t="n">
+        <v>2.963382812893187</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -12612,7 +13220,7 @@
         <v>200.48</v>
       </c>
       <c r="H203" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I203" t="n">
         <v>100.67</v>
@@ -12644,6 +13252,9 @@
       <c r="R203" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S203" t="n">
+        <v>2.123661897001361</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -12672,7 +13283,7 @@
         <v>193.82</v>
       </c>
       <c r="H204" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I204" t="n">
         <v>100.6</v>
@@ -12704,6 +13315,9 @@
       <c r="R204" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S204" t="n">
+        <v>2.679023541170599</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -12732,7 +13346,7 @@
         <v>199.04</v>
       </c>
       <c r="H205" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I205" t="n">
         <v>100.59</v>
@@ -12764,6 +13378,9 @@
       <c r="R205" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S205" t="n">
+        <v>2.456661785005866</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -12792,7 +13409,7 @@
         <v>195.98</v>
       </c>
       <c r="H206" t="n">
-        <v>171.68</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I206" t="n">
         <v>100.48</v>
@@ -12824,6 +13441,9 @@
       <c r="R206" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S206" t="n">
+        <v>2.706821438340439</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12852,7 +13472,7 @@
         <v>194.72</v>
       </c>
       <c r="H207" t="n">
-        <v>172.22</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="I207" t="n">
         <v>100.44</v>
@@ -12884,6 +13504,9 @@
       <c r="R207" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S207" t="n">
+        <v>2.819141233066141</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12912,7 +13535,7 @@
         <v>194.72</v>
       </c>
       <c r="H208" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I208" t="n">
         <v>100.37</v>
@@ -12944,6 +13567,9 @@
       <c r="R208" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S208" t="n">
+        <v>2.737956224597355</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12972,7 +13598,7 @@
         <v>206.42</v>
       </c>
       <c r="H209" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I209" t="n">
         <v>100.36</v>
@@ -13004,6 +13630,9 @@
       <c r="R209" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S209" t="n">
+        <v>2.202146052442393</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -13032,7 +13661,7 @@
         <v>200.3</v>
       </c>
       <c r="H210" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I210" t="n">
         <v>100.42</v>
@@ -13064,6 +13693,9 @@
       <c r="R210" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S210" t="n">
+        <v>2.565301781933738</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -13092,7 +13724,7 @@
         <v>200.3</v>
       </c>
       <c r="H211" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I211" t="n">
         <v>100.48</v>
@@ -13124,6 +13756,9 @@
       <c r="R211" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S211" t="n">
+        <v>2.104908138798133</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -13152,7 +13787,7 @@
         <v>195.8</v>
       </c>
       <c r="H212" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I212" t="n">
         <v>100.4</v>
@@ -13184,6 +13819,9 @@
       <c r="R212" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S212" t="n">
+        <v>2.395073670348176</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -13212,7 +13850,7 @@
         <v>210.74</v>
       </c>
       <c r="H213" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I213" t="n">
         <v>100.51</v>
@@ -13244,6 +13882,9 @@
       <c r="R213" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S213" t="n">
+        <v>1.872708453063505</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -13272,7 +13913,7 @@
         <v>193.1</v>
       </c>
       <c r="H214" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I214" t="n">
         <v>100.74</v>
@@ -13304,6 +13945,9 @@
       <c r="R214" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S214" t="n">
+        <v>2.863385816474215</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -13332,7 +13976,7 @@
         <v>187.88</v>
       </c>
       <c r="H215" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I215" t="n">
         <v>100.87</v>
@@ -13364,6 +14008,9 @@
       <c r="R215" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S215" t="n">
+        <v>2.891379019308977</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -13392,7 +14039,7 @@
         <v>188.96</v>
       </c>
       <c r="H216" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I216" t="n">
         <v>100.72</v>
@@ -13424,6 +14071,9 @@
       <c r="R216" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S216" t="n">
+        <v>3.081520315656322</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -13452,7 +14102,7 @@
         <v>193.82</v>
       </c>
       <c r="H217" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I217" t="n">
         <v>100.92</v>
@@ -13484,6 +14134,9 @@
       <c r="R217" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S217" t="n">
+        <v>2.888688455075276</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -13512,7 +14165,7 @@
         <v>183.38</v>
       </c>
       <c r="H218" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I218" t="n">
         <v>100.97</v>
@@ -13544,6 +14197,9 @@
       <c r="R218" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S218" t="n">
+        <v>3.308647190096039</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -13572,7 +14228,7 @@
         <v>171.32</v>
       </c>
       <c r="H219" t="n">
-        <v>156.56</v>
+        <v>69.2</v>
       </c>
       <c r="I219" t="n">
         <v>101.11</v>
@@ -13604,6 +14260,9 @@
       <c r="R219" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S219" t="n">
+        <v>3.379847130714837</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -13632,7 +14291,7 @@
         <v>177.44</v>
       </c>
       <c r="H220" t="n">
-        <v>144.5</v>
+        <v>62.5</v>
       </c>
       <c r="I220" t="n">
         <v>100.95</v>
@@ -13664,6 +14323,9 @@
       <c r="R220" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S220" t="n">
+        <v>2.150617357626537</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13692,7 +14354,7 @@
         <v>176.36</v>
       </c>
       <c r="H221" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I221" t="n">
         <v>100.77</v>
@@ -13724,6 +14386,9 @@
       <c r="R221" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S221" t="n">
+        <v>2.197787184784623</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -13752,7 +14417,7 @@
         <v>184.82</v>
       </c>
       <c r="H222" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I222" t="n">
         <v>101.56</v>
@@ -13784,6 +14449,9 @@
       <c r="R222" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S222" t="n">
+        <v>1.674859797400102</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -13812,7 +14480,7 @@
         <v>179.6</v>
       </c>
       <c r="H223" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I223" t="n">
         <v>101.34</v>
@@ -13844,6 +14512,9 @@
       <c r="R223" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S223" t="n">
+        <v>2.458323199082245</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -13872,7 +14543,7 @@
         <v>191.48</v>
       </c>
       <c r="H224" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I224" t="n">
         <v>100.9</v>
@@ -13904,6 +14575,9 @@
       <c r="R224" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S224" t="n">
+        <v>1.539157136423837</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13932,7 +14606,7 @@
         <v>172.22</v>
       </c>
       <c r="H225" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I225" t="n">
         <v>100.83</v>
@@ -13964,6 +14638,9 @@
       <c r="R225" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S225" t="n">
+        <v>3.011218244685284</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13992,7 +14669,7 @@
         <v>186.62</v>
       </c>
       <c r="H226" t="n">
-        <v>140.9</v>
+        <v>60.5</v>
       </c>
       <c r="I226" t="n">
         <v>100.9</v>
@@ -14024,6 +14701,9 @@
       <c r="R226" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S226" t="n">
+        <v>1.576318734297218</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -14052,7 +14732,7 @@
         <v>171.32</v>
       </c>
       <c r="H227" t="n">
-        <v>130.64</v>
+        <v>54.8</v>
       </c>
       <c r="I227" t="n">
         <v>101.31</v>
@@ -14084,6 +14764,9 @@
       <c r="R227" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S227" t="n">
+        <v>1.73950910446329</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -14112,7 +14795,7 @@
         <v>167.9</v>
       </c>
       <c r="H228" t="n">
-        <v>138.92</v>
+        <v>59.4</v>
       </c>
       <c r="I228" t="n">
         <v>101.28</v>
@@ -14144,6 +14827,9 @@
       <c r="R228" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S228" t="n">
+        <v>2.360509775713371</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -14172,7 +14858,7 @@
         <v>174.02</v>
       </c>
       <c r="H229" t="n">
-        <v>138.92</v>
+        <v>59.4</v>
       </c>
       <c r="I229" t="n">
         <v>101.47</v>
@@ -14204,6 +14890,9 @@
       <c r="R229" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S229" t="n">
+        <v>2.025013705889655</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -14232,7 +14921,7 @@
         <v>173.3</v>
       </c>
       <c r="H230" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I230" t="n">
         <v>101.49</v>
@@ -14264,6 +14953,9 @@
       <c r="R230" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S230" t="n">
+        <v>2.12009369026809</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -14292,7 +14984,7 @@
         <v>167.72</v>
       </c>
       <c r="H231" t="n">
-        <v>132.98</v>
+        <v>56.1</v>
       </c>
       <c r="I231" t="n">
         <v>101.39</v>
@@ -14324,6 +15016,9 @@
       <c r="R231" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S231" t="n">
+        <v>2.027885689450214</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -14352,7 +15047,7 @@
         <v>174.56</v>
       </c>
       <c r="H232" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I232" t="n">
         <v>101.11</v>
@@ -14384,6 +15079,9 @@
       <c r="R232" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S232" t="n">
+        <v>2.79142078698993</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -14412,7 +15110,7 @@
         <v>186.62</v>
       </c>
       <c r="H233" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I233" t="n">
         <v>101.09</v>
@@ -14444,6 +15142,9 @@
       <c r="R233" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S233" t="n">
+        <v>2.119923398202337</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -14472,7 +15173,7 @@
         <v>190.22</v>
       </c>
       <c r="H234" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I234" t="n">
         <v>101.14</v>
@@ -14504,6 +15205,9 @@
       <c r="R234" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S234" t="n">
+        <v>2.276884102854793</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -14532,7 +15236,7 @@
         <v>195.26</v>
       </c>
       <c r="H235" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I235" t="n">
         <v>101.15</v>
@@ -14564,6 +15268,9 @@
       <c r="R235" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S235" t="n">
+        <v>1.979056612034985</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -14592,7 +15299,7 @@
         <v>166.82</v>
       </c>
       <c r="H236" t="n">
-        <v>146.48</v>
+        <v>63.6</v>
       </c>
       <c r="I236" t="n">
         <v>101.7</v>
@@ -14624,6 +15331,9 @@
       <c r="R236" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S236" t="n">
+        <v>2.946669182188128</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -14652,7 +15362,7 @@
         <v>150.44</v>
       </c>
       <c r="H237" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I237" t="n">
         <v>101.94</v>
@@ -14684,6 +15394,9 @@
       <c r="R237" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S237" t="n">
+        <v>3.717421292452801</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14712,7 +15425,7 @@
         <v>140.9</v>
       </c>
       <c r="H238" t="n">
-        <v>138.38</v>
+        <v>59.1</v>
       </c>
       <c r="I238" t="n">
         <v>102.15</v>
@@ -14744,6 +15457,9 @@
       <c r="R238" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S238" t="n">
+        <v>4.852024214925181</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -14772,7 +15488,7 @@
         <v>136.58</v>
       </c>
       <c r="H239" t="n">
-        <v>135.68</v>
+        <v>57.6</v>
       </c>
       <c r="I239" t="n">
         <v>102.28</v>
@@ -14804,6 +15520,9 @@
       <c r="R239" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S239" t="n">
+        <v>5.133474479634181</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -14832,7 +15551,7 @@
         <v>142.16</v>
       </c>
       <c r="H240" t="n">
-        <v>138.56</v>
+        <v>59.2</v>
       </c>
       <c r="I240" t="n">
         <v>102.14</v>
@@ -14864,6 +15583,9 @@
       <c r="R240" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S240" t="n">
+        <v>4.699818656721205</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -14892,7 +15614,7 @@
         <v>141.26</v>
       </c>
       <c r="H241" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I241" t="n">
         <v>102.57</v>
@@ -14924,6 +15646,9 @@
       <c r="R241" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S241" t="n">
+        <v>3.231284917248721</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -14952,7 +15677,7 @@
         <v>144.68</v>
       </c>
       <c r="H242" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I242" t="n">
         <v>102.26</v>
@@ -14984,6 +15709,9 @@
       <c r="R242" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S242" t="n">
+        <v>1.5650646860033</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -15012,7 +15740,7 @@
         <v>146.48</v>
       </c>
       <c r="H243" t="n">
-        <v>118.22</v>
+        <v>47.9</v>
       </c>
       <c r="I243" t="n">
         <v>102.1</v>
@@ -15044,6 +15772,9 @@
       <c r="R243" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S243" t="n">
+        <v>2.393444460546626</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -15072,7 +15803,7 @@
         <v>149.36</v>
       </c>
       <c r="H244" t="n">
-        <v>125.6</v>
+        <v>52</v>
       </c>
       <c r="I244" t="n">
         <v>101.88</v>
@@ -15104,6 +15835,9 @@
       <c r="R244" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S244" t="n">
+        <v>2.709378929686544</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -15132,7 +15866,7 @@
         <v>157.82</v>
       </c>
       <c r="H245" t="n">
-        <v>128.66</v>
+        <v>53.7</v>
       </c>
       <c r="I245" t="n">
         <v>101.71</v>
@@ -15164,6 +15898,9 @@
       <c r="R245" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S245" t="n">
+        <v>2.337615566360297</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -15192,7 +15929,7 @@
         <v>151.34</v>
       </c>
       <c r="H246" t="n">
-        <v>132.26</v>
+        <v>55.7</v>
       </c>
       <c r="I246" t="n">
         <v>101.81</v>
@@ -15224,6 +15961,9 @@
       <c r="R246" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S246" t="n">
+        <v>3.070555203647046</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -15252,7 +15992,7 @@
         <v>147.02</v>
       </c>
       <c r="H247" t="n">
-        <v>95.36000000000001</v>
+        <v>35.2</v>
       </c>
       <c r="I247" t="n">
         <v>102.36</v>
@@ -15284,6 +16024,9 @@
       <c r="R247" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S247" t="n">
+        <v>1.202780546923903</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -15312,7 +16055,7 @@
         <v>145.22</v>
       </c>
       <c r="H248" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I248" t="n">
         <v>102.33</v>
@@ -15344,6 +16087,9 @@
       <c r="R248" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S248" t="n">
+        <v>1.541150686188973</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -15372,7 +16118,7 @@
         <v>154.94</v>
       </c>
       <c r="H249" t="n">
-        <v>115.88</v>
+        <v>46.6</v>
       </c>
       <c r="I249" t="n">
         <v>102.19</v>
@@ -15404,6 +16150,9 @@
       <c r="R249" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S249" t="n">
+        <v>1.772347907712463</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -15432,7 +16181,7 @@
         <v>163.94</v>
       </c>
       <c r="H250" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I250" t="n">
         <v>101.96</v>
@@ -15464,6 +16213,9 @@
       <c r="R250" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S250" t="n">
+        <v>1.657954415892032</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -15492,7 +16244,7 @@
         <v>167.72</v>
       </c>
       <c r="H251" t="n">
-        <v>123.08</v>
+        <v>50.6</v>
       </c>
       <c r="I251" t="n">
         <v>102.02</v>
@@ -15524,6 +16276,9 @@
       <c r="R251" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S251" t="n">
+        <v>1.550257930107013</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -15552,7 +16307,7 @@
         <v>156.74</v>
       </c>
       <c r="H252" t="n">
-        <v>111.74</v>
+        <v>44.3</v>
       </c>
       <c r="I252" t="n">
         <v>102.03</v>
@@ -15584,6 +16339,9 @@
       <c r="R252" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S252" t="n">
+        <v>1.499618850744635</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -15612,7 +16370,7 @@
         <v>155.84</v>
       </c>
       <c r="H253" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I253" t="n">
         <v>101.85</v>
@@ -15644,6 +16402,9 @@
       <c r="R253" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S253" t="n">
+        <v>2.23491844805457</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15672,7 +16433,7 @@
         <v>153.32</v>
       </c>
       <c r="H254" t="n">
-        <v>131.36</v>
+        <v>55.2</v>
       </c>
       <c r="I254" t="n">
         <v>102.12</v>
@@ -15704,6 +16465,9 @@
       <c r="R254" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S254" t="n">
+        <v>2.838890326650556</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -15732,7 +16496,7 @@
         <v>159.26</v>
       </c>
       <c r="H255" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I255" t="n">
         <v>101.86</v>
@@ -15764,6 +16528,9 @@
       <c r="R255" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S255" t="n">
+        <v>2.282790056241376</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -15792,7 +16559,7 @@
         <v>152.96</v>
       </c>
       <c r="H256" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I256" t="n">
         <v>102.04</v>
@@ -15824,6 +16591,9 @@
       <c r="R256" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S256" t="n">
+        <v>2.513976785717436</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -15852,7 +16622,7 @@
         <v>155.48</v>
       </c>
       <c r="H257" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I257" t="n">
         <v>101.92</v>
@@ -15884,6 +16654,9 @@
       <c r="R257" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S257" t="n">
+        <v>2.126410257350773</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -15912,7 +16685,7 @@
         <v>152.06</v>
       </c>
       <c r="H258" t="n">
-        <v>129.38</v>
+        <v>54.1</v>
       </c>
       <c r="I258" t="n">
         <v>101.9</v>
@@ -15944,6 +16717,9 @@
       <c r="R258" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S258" t="n">
+        <v>2.786283929623396</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15972,7 +16748,7 @@
         <v>139.82</v>
       </c>
       <c r="H259" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I259" t="n">
         <v>102.42</v>
@@ -16004,6 +16780,9 @@
       <c r="R259" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S259" t="n">
+        <v>2.631411272628557</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -16032,7 +16811,7 @@
         <v>149</v>
       </c>
       <c r="H260" t="n">
-        <v>119.66</v>
+        <v>48.7</v>
       </c>
       <c r="I260" t="n">
         <v>102.14</v>
@@ -16064,6 +16843,9 @@
       <c r="R260" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S260" t="n">
+        <v>2.321754273315169</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -16092,7 +16874,7 @@
         <v>151.88</v>
       </c>
       <c r="H261" t="n">
-        <v>128.66</v>
+        <v>53.7</v>
       </c>
       <c r="I261" t="n">
         <v>102.02</v>
@@ -16124,6 +16906,9 @@
       <c r="R261" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S261" t="n">
+        <v>2.746155926728316</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -16152,7 +16937,7 @@
         <v>159.26</v>
       </c>
       <c r="H262" t="n">
-        <v>130.82</v>
+        <v>54.9</v>
       </c>
       <c r="I262" t="n">
         <v>102.02</v>
@@ -16184,6 +16969,9 @@
       <c r="R262" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S262" t="n">
+        <v>2.384570594870985</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -16212,7 +17000,7 @@
         <v>165.56</v>
       </c>
       <c r="H263" t="n">
-        <v>139.82</v>
+        <v>59.9</v>
       </c>
       <c r="I263" t="n">
         <v>101.84</v>
@@ -16244,6 +17032,9 @@
       <c r="R263" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S263" t="n">
+        <v>2.565400008462552</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -16272,7 +17063,7 @@
         <v>176</v>
       </c>
       <c r="H264" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I264" t="n">
         <v>101.5</v>
@@ -16304,6 +17095,9 @@
       <c r="R264" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S264" t="n">
+        <v>2.217200434662845</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -16332,7 +17126,7 @@
         <v>158.72</v>
       </c>
       <c r="H265" t="n">
-        <v>138.74</v>
+        <v>59.3</v>
       </c>
       <c r="I265" t="n">
         <v>101.71</v>
@@ -16364,6 +17158,9 @@
       <c r="R265" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S265" t="n">
+        <v>2.982867980766605</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -16392,7 +17189,7 @@
         <v>125.42</v>
       </c>
       <c r="H266" t="n">
-        <v>124.52</v>
+        <v>51.4</v>
       </c>
       <c r="I266" t="n">
         <v>102.17</v>
@@ -16424,6 +17221,9 @@
       <c r="R266" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S266" t="n">
+        <v>5.353765521221814</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -16452,7 +17252,7 @@
         <v>144.5</v>
       </c>
       <c r="H267" t="n">
-        <v>139.46</v>
+        <v>59.7</v>
       </c>
       <c r="I267" t="n">
         <v>101.92</v>
@@ -16484,6 +17284,9 @@
       <c r="R267" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S267" t="n">
+        <v>4.498210993962533</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -16512,7 +17315,7 @@
         <v>139.82</v>
       </c>
       <c r="H268" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I268" t="n">
         <v>101.95</v>
@@ -16544,6 +17347,9 @@
       <c r="R268" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S268" t="n">
+        <v>4.822254590561483</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -16572,7 +17378,7 @@
         <v>146.66</v>
       </c>
       <c r="H269" t="n">
-        <v>136.22</v>
+        <v>57.9</v>
       </c>
       <c r="I269" t="n">
         <v>101.83</v>
@@ -16604,6 +17410,9 @@
       <c r="R269" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S269" t="n">
+        <v>3.886613219431989</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16632,7 +17441,7 @@
         <v>153.14</v>
       </c>
       <c r="H270" t="n">
-        <v>139.1</v>
+        <v>59.5</v>
       </c>
       <c r="I270" t="n">
         <v>101.66</v>
@@ -16664,6 +17473,9 @@
       <c r="R270" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S270" t="n">
+        <v>3.499972573107344</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -16692,7 +17504,7 @@
         <v>145.04</v>
       </c>
       <c r="H271" t="n">
-        <v>135.32</v>
+        <v>57.4</v>
       </c>
       <c r="I271" t="n">
         <v>101.76</v>
@@ -16724,6 +17536,9 @@
       <c r="R271" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S271" t="n">
+        <v>3.974095122291511</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -16752,7 +17567,7 @@
         <v>145.58</v>
       </c>
       <c r="H272" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I272" t="n">
         <v>101.95</v>
@@ -16784,6 +17599,9 @@
       <c r="R272" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S272" t="n">
+        <v>3.372240129866511</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -16812,7 +17630,7 @@
         <v>149.72</v>
       </c>
       <c r="H273" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I273" t="n">
         <v>101.84</v>
@@ -16844,6 +17662,9 @@
       <c r="R273" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S273" t="n">
+        <v>3.385253447270419</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -16872,7 +17693,7 @@
         <v>148.28</v>
       </c>
       <c r="H274" t="n">
-        <v>138.38</v>
+        <v>59.1</v>
       </c>
       <c r="I274" t="n">
         <v>101.71</v>
@@ -16904,6 +17725,9 @@
       <c r="R274" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S274" t="n">
+        <v>3.929646841294746</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -16932,7 +17756,7 @@
         <v>150.44</v>
       </c>
       <c r="H275" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I275" t="n">
         <v>101.51</v>
@@ -16964,6 +17788,9 @@
       <c r="R275" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S275" t="n">
+        <v>3.193631721085203</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -16992,7 +17819,7 @@
         <v>143.78</v>
       </c>
       <c r="H276" t="n">
-        <v>139.82</v>
+        <v>59.9</v>
       </c>
       <c r="I276" t="n">
         <v>101.15</v>
@@ -17024,6 +17851,9 @@
       <c r="R276" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S276" t="n">
+        <v>4.635066691295433</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -17052,7 +17882,7 @@
         <v>146.84</v>
       </c>
       <c r="H277" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I277" t="n">
         <v>101.02</v>
@@ -17084,6 +17914,9 @@
       <c r="R277" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S277" t="n">
+        <v>4.926204227230832</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -17112,7 +17945,7 @@
         <v>126.14</v>
       </c>
       <c r="H278" t="n">
-        <v>121.64</v>
+        <v>49.8</v>
       </c>
       <c r="I278" t="n">
         <v>101.98</v>
@@ -17144,6 +17977,9 @@
       <c r="R278" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S278" t="n">
+        <v>4.83311399998531</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -17172,7 +18008,7 @@
         <v>95.72</v>
       </c>
       <c r="H279" t="n">
-        <v>88.88</v>
+        <v>31.6</v>
       </c>
       <c r="I279" t="n">
         <v>103.29</v>
@@ -17204,6 +18040,9 @@
       <c r="R279" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S279" t="n">
+        <v>5.200799822943047</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -17232,7 +18071,7 @@
         <v>100.76</v>
       </c>
       <c r="H280" t="n">
-        <v>96.8</v>
+        <v>36</v>
       </c>
       <c r="I280" t="n">
         <v>102.76</v>
@@ -17264,6 +18103,9 @@
       <c r="R280" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S280" t="n">
+        <v>5.525280864603318</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -17292,7 +18134,7 @@
         <v>109.58</v>
       </c>
       <c r="H281" t="n">
-        <v>107.6</v>
+        <v>42</v>
       </c>
       <c r="I281" t="n">
         <v>102.51</v>
@@ -17324,6 +18166,9 @@
       <c r="R281" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S281" t="n">
+        <v>5.588126573971927</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -17352,7 +18197,7 @@
         <v>111.56</v>
       </c>
       <c r="H282" t="n">
-        <v>104.72</v>
+        <v>40.4</v>
       </c>
       <c r="I282" t="n">
         <v>102.83</v>
@@ -17384,6 +18229,9 @@
       <c r="R282" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S282" t="n">
+        <v>4.795864231247888</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -17412,7 +18260,7 @@
         <v>115.34</v>
       </c>
       <c r="H283" t="n">
-        <v>105.44</v>
+        <v>40.8</v>
       </c>
       <c r="I283" t="n">
         <v>102.45</v>
@@ -17444,6 +18292,9 @@
       <c r="R283" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S283" t="n">
+        <v>4.312104314103547</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -17472,7 +18323,7 @@
         <v>118.76</v>
       </c>
       <c r="H284" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I284" t="n">
         <v>102.47</v>
@@ -17504,6 +18355,9 @@
       <c r="R284" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S284" t="n">
+        <v>5.105549778517947</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -17532,7 +18386,7 @@
         <v>122.18</v>
       </c>
       <c r="H285" t="n">
-        <v>120.02</v>
+        <v>48.9</v>
       </c>
       <c r="I285" t="n">
         <v>102.25</v>
@@ -17564,6 +18418,9 @@
       <c r="R285" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S285" t="n">
+        <v>5.240358980227294</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -17592,7 +18449,7 @@
         <v>120.02</v>
       </c>
       <c r="H286" t="n">
-        <v>116.42</v>
+        <v>46.9</v>
       </c>
       <c r="I286" t="n">
         <v>102.06</v>
@@ -17624,6 +18481,9 @@
       <c r="R286" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S286" t="n">
+        <v>5.078220040404125</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -17652,7 +18512,7 @@
         <v>130.46</v>
       </c>
       <c r="H287" t="n">
-        <v>112.46</v>
+        <v>44.7</v>
       </c>
       <c r="I287" t="n">
         <v>102.12</v>
@@ -17684,6 +18544,9 @@
       <c r="R287" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S287" t="n">
+        <v>3.25902205206823</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -17712,7 +18575,7 @@
         <v>114.62</v>
       </c>
       <c r="H288" t="n">
-        <v>99.31999999999999</v>
+        <v>37.4</v>
       </c>
       <c r="I288" t="n">
         <v>102.51</v>
@@ -17744,6 +18607,9 @@
       <c r="R288" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S288" t="n">
+        <v>3.677927777884777</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -17772,7 +18638,7 @@
         <v>116.96</v>
       </c>
       <c r="H289" t="n">
-        <v>82.58000000000001</v>
+        <v>28.1</v>
       </c>
       <c r="I289" t="n">
         <v>102.76</v>
@@ -17804,6 +18670,9 @@
       <c r="R289" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S289" t="n">
+        <v>2.013480835761015</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -17832,7 +18701,7 @@
         <v>122.72</v>
       </c>
       <c r="H290" t="n">
-        <v>94.09999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="I290" t="n">
         <v>102.19</v>
@@ -17864,6 +18733,9 @@
       <c r="R290" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S290" t="n">
+        <v>2.403265492969733</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -17892,7 +18764,7 @@
         <v>108.14</v>
       </c>
       <c r="H291" t="n">
-        <v>99.5</v>
+        <v>37.5</v>
       </c>
       <c r="I291" t="n">
         <v>103.09</v>
@@ -17924,6 +18796,9 @@
       <c r="R291" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S291" t="n">
+        <v>4.61450034117424</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -17952,7 +18827,7 @@
         <v>93.2</v>
       </c>
       <c r="H292" t="n">
-        <v>69.08000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="I292" t="n">
         <v>103.83</v>
@@ -17984,6 +18859,9 @@
       <c r="R292" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S292" t="n">
+        <v>2.981158538134599</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -18012,7 +18890,7 @@
         <v>100.94</v>
       </c>
       <c r="H293" t="n">
-        <v>54.5</v>
+        <v>12.5</v>
       </c>
       <c r="I293" t="n">
         <v>102.99</v>
@@ -18044,6 +18922,9 @@
       <c r="R293" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S293" t="n">
+        <v>1.335992335381629</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -18072,7 +18953,7 @@
         <v>113.36</v>
       </c>
       <c r="H294" t="n">
-        <v>82.40000000000001</v>
+        <v>28</v>
       </c>
       <c r="I294" t="n">
         <v>102.27</v>
@@ -18104,6 +18985,9 @@
       <c r="R294" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S294" t="n">
+        <v>2.257923840514759</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -18132,7 +19016,7 @@
         <v>96.62</v>
       </c>
       <c r="H295" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I295" t="n">
         <v>102.5</v>
@@ -18164,6 +19048,9 @@
       <c r="R295" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S295" t="n">
+        <v>2.373854516233439</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -18192,7 +19079,7 @@
         <v>94.63999999999999</v>
       </c>
       <c r="H296" t="n">
-        <v>69.62</v>
+        <v>20.9</v>
       </c>
       <c r="I296" t="n">
         <v>102.73</v>
@@ -18224,6 +19111,9 @@
       <c r="R296" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S296" t="n">
+        <v>2.875933560490068</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -18252,7 +19142,7 @@
         <v>110.66</v>
       </c>
       <c r="H297" t="n">
-        <v>71.78</v>
+        <v>22.1</v>
       </c>
       <c r="I297" t="n">
         <v>102.8</v>
@@ -18284,6 +19174,9 @@
       <c r="R297" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S297" t="n">
+        <v>1.74076723564028</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -18312,7 +19205,7 @@
         <v>113.54</v>
       </c>
       <c r="H298" t="n">
-        <v>67.81999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="I298" t="n">
         <v>102.7</v>
@@ -18344,6 +19237,9 @@
       <c r="R298" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S298" t="n">
+        <v>1.378538747338475</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -18372,7 +19268,7 @@
         <v>110.84</v>
       </c>
       <c r="H299" t="n">
-        <v>74.84</v>
+        <v>23.8</v>
       </c>
       <c r="I299" t="n">
         <v>102.87</v>
@@ -18404,6 +19300,9 @@
       <c r="R299" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S299" t="n">
+        <v>1.917808249626134</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -18432,7 +19331,7 @@
         <v>108.5</v>
       </c>
       <c r="H300" t="n">
-        <v>86.90000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="I300" t="n">
         <v>103.03</v>
@@ -18464,6 +19363,9 @@
       <c r="R300" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S300" t="n">
+        <v>3.081786742036104</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -18492,7 +19394,7 @@
         <v>99.14</v>
       </c>
       <c r="H301" t="n">
-        <v>97.52</v>
+        <v>36.4</v>
       </c>
       <c r="I301" t="n">
         <v>103.26</v>
@@ -18524,6 +19426,9 @@
       <c r="R301" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S301" t="n">
+        <v>5.991999125629819</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -18552,7 +19457,7 @@
         <v>101.3</v>
       </c>
       <c r="H302" t="n">
-        <v>99.5</v>
+        <v>37.5</v>
       </c>
       <c r="I302" t="n">
         <v>103.37</v>
@@ -18584,6 +19489,9 @@
       <c r="R302" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S302" t="n">
+        <v>5.882224842388628</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -18612,7 +19520,7 @@
         <v>109.04</v>
       </c>
       <c r="H303" t="n">
-        <v>101.84</v>
+        <v>38.8</v>
       </c>
       <c r="I303" t="n">
         <v>103.33</v>
@@ -18644,6 +19552,9 @@
       <c r="R303" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S303" t="n">
+        <v>4.799339123493257</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -18672,7 +19583,7 @@
         <v>113</v>
       </c>
       <c r="H304" t="n">
-        <v>102.38</v>
+        <v>39.1</v>
       </c>
       <c r="I304" t="n">
         <v>103.2</v>
@@ -18704,6 +19615,9 @@
       <c r="R304" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S304" t="n">
+        <v>4.259229632750201</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -18732,7 +19646,7 @@
         <v>118.94</v>
       </c>
       <c r="H305" t="n">
-        <v>106.34</v>
+        <v>41.3</v>
       </c>
       <c r="I305" t="n">
         <v>103.01</v>
@@ -18764,6 +19678,9 @@
       <c r="R305" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S305" t="n">
+        <v>3.931019422375422</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -18792,7 +19709,7 @@
         <v>110.12</v>
       </c>
       <c r="H306" t="n">
-        <v>102.56</v>
+        <v>39.2</v>
       </c>
       <c r="I306" t="n">
         <v>103.23</v>
@@ -18824,6 +19741,9 @@
       <c r="R306" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S306" t="n">
+        <v>4.724534320538376</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -18852,7 +19772,7 @@
         <v>113.54</v>
       </c>
       <c r="H307" t="n">
-        <v>103.82</v>
+        <v>39.9</v>
       </c>
       <c r="I307" t="n">
         <v>103.14</v>
@@ -18884,6 +19804,9 @@
       <c r="R307" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S307" t="n">
+        <v>4.365851507182303</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -18912,7 +19835,7 @@
         <v>118.22</v>
       </c>
       <c r="H308" t="n">
-        <v>102.02</v>
+        <v>38.9</v>
       </c>
       <c r="I308" t="n">
         <v>102.88</v>
@@ -18944,6 +19867,9 @@
       <c r="R308" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S308" t="n">
+        <v>3.540030467324685</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -18972,7 +19898,7 @@
         <v>120.38</v>
       </c>
       <c r="H309" t="n">
-        <v>107.96</v>
+        <v>42.2</v>
       </c>
       <c r="I309" t="n">
         <v>102.9</v>
@@ -19004,6 +19930,9 @@
       <c r="R309" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S309" t="n">
+        <v>3.933427251435011</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -19032,7 +19961,7 @@
         <v>121.46</v>
       </c>
       <c r="H310" t="n">
-        <v>103.82</v>
+        <v>39.9</v>
       </c>
       <c r="I310" t="n">
         <v>102.8</v>
@@ -19064,6 +19993,9 @@
       <c r="R310" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S310" t="n">
+        <v>3.361196701591439</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -19092,7 +20024,7 @@
         <v>120.74</v>
       </c>
       <c r="H311" t="n">
-        <v>104.72</v>
+        <v>40.4</v>
       </c>
       <c r="I311" t="n">
         <v>102.4</v>
@@ -19124,6 +20056,9 @@
       <c r="R311" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S311" t="n">
+        <v>3.53368070366012</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -19152,7 +20087,7 @@
         <v>127.58</v>
       </c>
       <c r="H312" t="n">
-        <v>104.18</v>
+        <v>40.1</v>
       </c>
       <c r="I312" t="n">
         <v>102.24</v>
@@ -19184,6 +20119,9 @@
       <c r="R312" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S312" t="n">
+        <v>2.797060404574936</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -19212,7 +20150,7 @@
         <v>125.6</v>
       </c>
       <c r="H313" t="n">
-        <v>112.28</v>
+        <v>44.6</v>
       </c>
       <c r="I313" t="n">
         <v>102.43</v>
@@ -19244,6 +20182,9 @@
       <c r="R313" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S313" t="n">
+        <v>3.772514110209456</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -19272,7 +20213,7 @@
         <v>124.34</v>
       </c>
       <c r="H314" t="n">
-        <v>107.78</v>
+        <v>42.1</v>
       </c>
       <c r="I314" t="n">
         <v>102.38</v>
@@ -19304,6 +20245,9 @@
       <c r="R314" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S314" t="n">
+        <v>3.445063571864197</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -19332,7 +20276,7 @@
         <v>133.88</v>
       </c>
       <c r="H315" t="n">
-        <v>118.04</v>
+        <v>47.8</v>
       </c>
       <c r="I315" t="n">
         <v>101.9</v>
@@ -19364,6 +20308,9 @@
       <c r="R315" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S315" t="n">
+        <v>3.441939851500363</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -19392,7 +20339,7 @@
         <v>141.62</v>
       </c>
       <c r="H316" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I316" t="n">
         <v>101.24</v>
@@ -19424,6 +20371,9 @@
       <c r="R316" t="n">
         <v>0.01016</v>
       </c>
+      <c r="S316" t="n">
+        <v>4.575787873210347</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -19452,7 +20402,7 @@
         <v>145.94</v>
       </c>
       <c r="H317" t="n">
-        <v>145.76</v>
+        <v>63.2</v>
       </c>
       <c r="I317" t="n">
         <v>100.94</v>
@@ -19484,6 +20434,9 @@
       <c r="R317" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S317" t="n">
+        <v>5.076480536391505</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -19512,7 +20465,7 @@
         <v>114.8</v>
       </c>
       <c r="H318" t="n">
-        <v>108.68</v>
+        <v>42.6</v>
       </c>
       <c r="I318" t="n">
         <v>101.78</v>
@@ -19544,6 +20497,9 @@
       <c r="R318" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S318" t="n">
+        <v>4.829358968363532</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -19572,7 +20528,7 @@
         <v>90.5</v>
       </c>
       <c r="H319" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I319" t="n">
         <v>102.98</v>
@@ -19604,6 +20560,9 @@
       <c r="R319" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S319" t="n">
+        <v>4.18997732524207</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -19632,7 +20591,7 @@
         <v>97.88000000000001</v>
       </c>
       <c r="H320" t="n">
-        <v>72.86</v>
+        <v>22.7</v>
       </c>
       <c r="I320" t="n">
         <v>103.02</v>
@@ -19664,6 +20623,9 @@
       <c r="R320" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S320" t="n">
+        <v>2.845241478363509</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -19692,7 +20654,7 @@
         <v>94.09999999999999</v>
       </c>
       <c r="H321" t="n">
-        <v>82.40000000000001</v>
+        <v>28</v>
       </c>
       <c r="I321" t="n">
         <v>103.1</v>
@@ -19724,6 +20686,9 @@
       <c r="R321" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S321" t="n">
+        <v>4.491973638259696</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -19752,7 +20717,7 @@
         <v>103.1</v>
       </c>
       <c r="H322" t="n">
-        <v>83.12</v>
+        <v>28.4</v>
       </c>
       <c r="I322" t="n">
         <v>102.96</v>
@@ -19784,6 +20749,9 @@
       <c r="R322" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S322" t="n">
+        <v>3.302460687029025</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -19812,7 +20780,7 @@
         <v>106.34</v>
       </c>
       <c r="H323" t="n">
-        <v>91.40000000000001</v>
+        <v>33</v>
       </c>
       <c r="I323" t="n">
         <v>102.79</v>
@@ -19844,6 +20812,9 @@
       <c r="R323" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S323" t="n">
+        <v>3.830368037281061</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -19872,7 +20843,7 @@
         <v>119.12</v>
       </c>
       <c r="H324" t="n">
-        <v>82.22</v>
+        <v>27.9</v>
       </c>
       <c r="I324" t="n">
         <v>102.74</v>
@@ -19904,6 +20875,9 @@
       <c r="R324" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S324" t="n">
+        <v>1.853524650146785</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -19932,7 +20906,7 @@
         <v>122</v>
       </c>
       <c r="H325" t="n">
-        <v>95.90000000000001</v>
+        <v>35.5</v>
       </c>
       <c r="I325" t="n">
         <v>102.06</v>
@@ -19964,6 +20938,9 @@
       <c r="R325" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S325" t="n">
+        <v>2.599830014316443</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -19992,7 +20969,7 @@
         <v>93.02</v>
       </c>
       <c r="H326" t="n">
-        <v>60.26</v>
+        <v>15.7</v>
       </c>
       <c r="I326" t="n">
         <v>103.67</v>
@@ -20024,6 +21001,9 @@
       <c r="R326" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S326" t="n">
+        <v>2.205960931856153</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -20052,7 +21032,7 @@
         <v>96.98</v>
       </c>
       <c r="H327" t="n">
-        <v>72.68000000000001</v>
+        <v>22.6</v>
       </c>
       <c r="I327" t="n">
         <v>102.6</v>
@@ -20084,6 +21064,9 @@
       <c r="R327" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S327" t="n">
+        <v>2.923815633623872</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -20112,7 +21095,7 @@
         <v>100.04</v>
       </c>
       <c r="H328" t="n">
-        <v>79.16</v>
+        <v>26.2</v>
       </c>
       <c r="I328" t="n">
         <v>102.8</v>
@@ -20144,6 +21127,9 @@
       <c r="R328" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S328" t="n">
+        <v>3.241897015048429</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -20172,7 +21158,7 @@
         <v>96.26000000000001</v>
       </c>
       <c r="H329" t="n">
-        <v>59.36</v>
+        <v>15.2</v>
       </c>
       <c r="I329" t="n">
         <v>103.33</v>
@@ -20204,6 +21190,9 @@
       <c r="R329" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S329" t="n">
+        <v>1.89109112054736</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -20232,7 +21221,7 @@
         <v>92.30000000000001</v>
       </c>
       <c r="H330" t="n">
-        <v>62.78</v>
+        <v>17.1</v>
       </c>
       <c r="I330" t="n">
         <v>103.06</v>
@@ -20264,6 +21253,9 @@
       <c r="R330" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S330" t="n">
+        <v>2.478750812972153</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -20292,7 +21284,7 @@
         <v>103.82</v>
       </c>
       <c r="H331" t="n">
-        <v>71.78</v>
+        <v>22.1</v>
       </c>
       <c r="I331" t="n">
         <v>102.79</v>
@@ -20324,6 +21316,9 @@
       <c r="R331" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S331" t="n">
+        <v>2.211302411356712</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -20352,7 +21347,7 @@
         <v>116.6</v>
       </c>
       <c r="H332" t="n">
-        <v>81.31999999999999</v>
+        <v>27.4</v>
       </c>
       <c r="I332" t="n">
         <v>102.22</v>
@@ -20384,6 +21379,9 @@
       <c r="R332" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S332" t="n">
+        <v>1.955924964164851</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -20412,7 +21410,7 @@
         <v>119.66</v>
       </c>
       <c r="H333" t="n">
-        <v>94.28</v>
+        <v>34.6</v>
       </c>
       <c r="I333" t="n">
         <v>101.48</v>
@@ -20444,6 +21442,9 @@
       <c r="R333" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S333" t="n">
+        <v>2.668161273510322</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -20472,7 +21473,7 @@
         <v>130.1</v>
       </c>
       <c r="H334" t="n">
-        <v>95.36000000000001</v>
+        <v>35.2</v>
       </c>
       <c r="I334" t="n">
         <v>101.92</v>
@@ -20504,6 +21505,9 @@
       <c r="R334" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S334" t="n">
+        <v>1.981034080062212</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -20532,7 +21536,7 @@
         <v>110.48</v>
       </c>
       <c r="H335" t="n">
-        <v>99.14</v>
+        <v>37.3</v>
       </c>
       <c r="I335" t="n">
         <v>102.47</v>
@@ -20564,6 +21568,9 @@
       <c r="R335" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S335" t="n">
+        <v>4.209784630608241</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -20592,7 +21599,7 @@
         <v>114.08</v>
       </c>
       <c r="H336" t="n">
-        <v>109.4</v>
+        <v>43</v>
       </c>
       <c r="I336" t="n">
         <v>102.29</v>
@@ -20624,6 +21631,9 @@
       <c r="R336" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S336" t="n">
+        <v>5.052534875681704</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -20652,7 +21662,7 @@
         <v>115.52</v>
       </c>
       <c r="H337" t="n">
-        <v>114.08</v>
+        <v>45.6</v>
       </c>
       <c r="I337" t="n">
         <v>101.95</v>
@@ -20684,6 +21694,9 @@
       <c r="R337" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S337" t="n">
+        <v>5.510695851282992</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -20712,7 +21725,7 @@
         <v>119.66</v>
       </c>
       <c r="H338" t="n">
-        <v>118.94</v>
+        <v>48.3</v>
       </c>
       <c r="I338" t="n">
         <v>101.76</v>
@@ -20744,6 +21757,9 @@
       <c r="R338" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S338" t="n">
+        <v>5.516697974867418</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -20772,7 +21788,7 @@
         <v>124.52</v>
       </c>
       <c r="H339" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="I339" t="n">
         <v>102.07</v>
@@ -20804,6 +21820,9 @@
       <c r="R339" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S339" t="n">
+        <v>5.138320942076844</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -20832,7 +21851,7 @@
         <v>116.24</v>
       </c>
       <c r="H340" t="n">
-        <v>114.62</v>
+        <v>45.9</v>
       </c>
       <c r="I340" t="n">
         <v>102.07</v>
@@ -20864,6 +21883,9 @@
       <c r="R340" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S340" t="n">
+        <v>5.463735795106036</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -20892,7 +21914,7 @@
         <v>116.42</v>
       </c>
       <c r="H341" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I341" t="n">
         <v>101.96</v>
@@ -20924,6 +21946,9 @@
       <c r="R341" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S341" t="n">
+        <v>5.459115555611863</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -20952,7 +21977,7 @@
         <v>126.68</v>
       </c>
       <c r="H342" t="n">
-        <v>126.5</v>
+        <v>52.5</v>
       </c>
       <c r="I342" t="n">
         <v>101.42</v>
@@ -20984,6 +22009,9 @@
       <c r="R342" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S342" t="n">
+        <v>5.432085497123813</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -21012,7 +22040,7 @@
         <v>109.04</v>
       </c>
       <c r="H343" t="n">
-        <v>104.9</v>
+        <v>40.5</v>
       </c>
       <c r="I343" t="n">
         <v>102.51</v>
@@ -21044,6 +22072,9 @@
       <c r="R343" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S343" t="n">
+        <v>5.257795913863993</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -21072,7 +22103,7 @@
         <v>115.88</v>
       </c>
       <c r="H344" t="n">
-        <v>90.13999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I344" t="n">
         <v>103.12</v>
@@ -21104,6 +22135,9 @@
       <c r="R344" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S344" t="n">
+        <v>2.656429014228811</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -21132,7 +22166,7 @@
         <v>130.46</v>
       </c>
       <c r="H345" t="n">
-        <v>110.66</v>
+        <v>43.7</v>
       </c>
       <c r="I345" t="n">
         <v>102.1</v>
@@ -21164,6 +22198,9 @@
       <c r="R345" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S345" t="n">
+        <v>3.093937877078905</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -21192,7 +22229,7 @@
         <v>138.74</v>
       </c>
       <c r="H346" t="n">
-        <v>116.78</v>
+        <v>47.1</v>
       </c>
       <c r="I346" t="n">
         <v>102.27</v>
@@ -21224,6 +22261,9 @@
       <c r="R346" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S346" t="n">
+        <v>2.873391530562678</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -21252,7 +22292,7 @@
         <v>133.34</v>
       </c>
       <c r="H347" t="n">
-        <v>107.42</v>
+        <v>41.9</v>
       </c>
       <c r="I347" t="n">
         <v>102.6</v>
@@ -21284,6 +22324,9 @@
       <c r="R347" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S347" t="n">
+        <v>2.578032282844999</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -21312,7 +22355,7 @@
         <v>125.24</v>
       </c>
       <c r="H348" t="n">
-        <v>94.28</v>
+        <v>34.6</v>
       </c>
       <c r="I348" t="n">
         <v>102.77</v>
@@ -21344,6 +22387,9 @@
       <c r="R348" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S348" t="n">
+        <v>2.230222770423339</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -21372,7 +22418,7 @@
         <v>118.94</v>
       </c>
       <c r="H349" t="n">
-        <v>99.14</v>
+        <v>37.3</v>
       </c>
       <c r="I349" t="n">
         <v>102.52</v>
@@ -21404,6 +22450,9 @@
       <c r="R349" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S349" t="n">
+        <v>3.169870654416185</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -21432,7 +22481,7 @@
         <v>118.22</v>
       </c>
       <c r="H350" t="n">
-        <v>109.22</v>
+        <v>42.9</v>
       </c>
       <c r="I350" t="n">
         <v>102.28</v>
@@ -21464,6 +22513,9 @@
       <c r="R350" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S350" t="n">
+        <v>4.379473714000155</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -21492,7 +22544,7 @@
         <v>111.56</v>
       </c>
       <c r="H351" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I351" t="n">
         <v>103.07</v>
@@ -21524,6 +22576,9 @@
       <c r="R351" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S351" t="n">
+        <v>4.694400961132623</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -21552,7 +22607,7 @@
         <v>114.62</v>
       </c>
       <c r="H352" t="n">
-        <v>93.73999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="I352" t="n">
         <v>103.74</v>
@@ -21584,6 +22639,9 @@
       <c r="R352" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S352" t="n">
+        <v>3.100060052128848</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -21612,7 +22670,7 @@
         <v>122.18</v>
       </c>
       <c r="H353" t="n">
-        <v>84.38</v>
+        <v>29.1</v>
       </c>
       <c r="I353" t="n">
         <v>103.39</v>
@@ -21644,6 +22702,9 @@
       <c r="R353" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S353" t="n">
+        <v>1.79964143669998</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -21672,7 +22733,7 @@
         <v>124.52</v>
       </c>
       <c r="H354" t="n">
-        <v>88.88</v>
+        <v>31.6</v>
       </c>
       <c r="I354" t="n">
         <v>102.86</v>
@@ -21704,6 +22765,9 @@
       <c r="R354" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S354" t="n">
+        <v>1.92747423184264</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -21732,7 +22796,7 @@
         <v>118.76</v>
       </c>
       <c r="H355" t="n">
-        <v>109.94</v>
+        <v>43.3</v>
       </c>
       <c r="I355" t="n">
         <v>102.59</v>
@@ -21764,6 +22828,9 @@
       <c r="R355" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S355" t="n">
+        <v>4.393605963970486</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -21792,7 +22859,7 @@
         <v>131.72</v>
       </c>
       <c r="H356" t="n">
-        <v>110.48</v>
+        <v>43.6</v>
       </c>
       <c r="I356" t="n">
         <v>102.72</v>
@@ -21824,6 +22891,9 @@
       <c r="R356" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S356" t="n">
+        <v>2.961187175778782</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -21852,7 +22922,7 @@
         <v>130.28</v>
       </c>
       <c r="H357" t="n">
-        <v>97.34</v>
+        <v>36.3</v>
       </c>
       <c r="I357" t="n">
         <v>102.87</v>
@@ -21884,6 +22954,9 @@
       <c r="R357" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S357" t="n">
+        <v>2.093351963154821</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -21912,7 +22985,7 @@
         <v>123.8</v>
       </c>
       <c r="H358" t="n">
-        <v>105.44</v>
+        <v>40.8</v>
       </c>
       <c r="I358" t="n">
         <v>102.74</v>
@@ -21944,6 +23017,9 @@
       <c r="R358" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S358" t="n">
+        <v>3.271508491190716</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -21972,7 +23048,7 @@
         <v>134.06</v>
       </c>
       <c r="H359" t="n">
-        <v>102.74</v>
+        <v>39.3</v>
       </c>
       <c r="I359" t="n">
         <v>102.43</v>
@@ -22004,6 +23080,9 @@
       <c r="R359" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S359" t="n">
+        <v>2.196025587230627</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -22032,7 +23111,7 @@
         <v>143.06</v>
       </c>
       <c r="H360" t="n">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="I360" t="n">
         <v>102.09</v>
@@ -22064,6 +23143,9 @@
       <c r="R360" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S360" t="n">
+        <v>1.748734812275816</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -22092,7 +23174,7 @@
         <v>151.34</v>
       </c>
       <c r="H361" t="n">
-        <v>114.44</v>
+        <v>45.8</v>
       </c>
       <c r="I361" t="n">
         <v>101.82</v>
@@ -22124,6 +23206,9 @@
       <c r="R361" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S361" t="n">
+        <v>1.877141417272459</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -22152,7 +23237,7 @@
         <v>147.74</v>
       </c>
       <c r="H362" t="n">
-        <v>136.76</v>
+        <v>58.2</v>
       </c>
       <c r="I362" t="n">
         <v>102.05</v>
@@ -22184,6 +23269,9 @@
       <c r="R362" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S362" t="n">
+        <v>3.823977938653275</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -22212,7 +23300,7 @@
         <v>154.04</v>
       </c>
       <c r="H363" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I363" t="n">
         <v>101.56</v>
@@ -22244,6 +23332,9 @@
       <c r="R363" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S363" t="n">
+        <v>2.465013636040891</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -22272,7 +23363,7 @@
         <v>132.26</v>
       </c>
       <c r="H364" t="n">
-        <v>93.73999999999999</v>
+        <v>34.3</v>
       </c>
       <c r="I364" t="n">
         <v>102.34</v>
@@ -22304,6 +23395,9 @@
       <c r="R364" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S364" t="n">
+        <v>1.763677070721763</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -22332,7 +23426,7 @@
         <v>143.96</v>
       </c>
       <c r="H365" t="n">
-        <v>120.2</v>
+        <v>49</v>
       </c>
       <c r="I365" t="n">
         <v>101.89</v>
@@ -22364,6 +23458,9 @@
       <c r="R365" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S365" t="n">
+        <v>2.718333602659488</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -22392,7 +23489,7 @@
         <v>160.52</v>
       </c>
       <c r="H366" t="n">
-        <v>122.9</v>
+        <v>50.5</v>
       </c>
       <c r="I366" t="n">
         <v>101.64</v>
@@ -22424,6 +23521,9 @@
       <c r="R366" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S366" t="n">
+        <v>1.858755961804074</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -22452,7 +23552,7 @@
         <v>119.66</v>
       </c>
       <c r="H367" t="n">
-        <v>116.42</v>
+        <v>46.9</v>
       </c>
       <c r="I367" t="n">
         <v>102.08</v>
@@ -22484,6 +23584,9 @@
       <c r="R367" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S367" t="n">
+        <v>5.138154074261266</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -22512,7 +23615,7 @@
         <v>121.1</v>
       </c>
       <c r="H368" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I368" t="n">
         <v>102.11</v>
@@ -22544,6 +23647,9 @@
       <c r="R368" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S368" t="n">
+        <v>4.978809921659199</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -22572,7 +23678,7 @@
         <v>123.44</v>
       </c>
       <c r="H369" t="n">
-        <v>121.1</v>
+        <v>49.5</v>
       </c>
       <c r="I369" t="n">
         <v>101.64</v>
@@ -22604,6 +23710,9 @@
       <c r="R369" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S369" t="n">
+        <v>5.186817536166195</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -22632,7 +23741,7 @@
         <v>127.76</v>
       </c>
       <c r="H370" t="n">
-        <v>127.04</v>
+        <v>52.8</v>
       </c>
       <c r="I370" t="n">
         <v>101.04</v>
@@ -22664,6 +23773,9 @@
       <c r="R370" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S370" t="n">
+        <v>5.329347542345049</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -22692,7 +23804,7 @@
         <v>138.2</v>
       </c>
       <c r="H371" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I371" t="n">
         <v>100.64</v>
@@ -22724,6 +23836,9 @@
       <c r="R371" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S371" t="n">
+        <v>5.129655743777929</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -22752,7 +23867,7 @@
         <v>141.98</v>
       </c>
       <c r="H372" t="n">
-        <v>133.52</v>
+        <v>56.4</v>
       </c>
       <c r="I372" t="n">
         <v>101.15</v>
@@ -22784,6 +23899,9 @@
       <c r="R372" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S372" t="n">
+        <v>4.137216347462433</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -22812,7 +23930,7 @@
         <v>118.4</v>
       </c>
       <c r="H373" t="n">
-        <v>112.64</v>
+        <v>44.8</v>
       </c>
       <c r="I373" t="n">
         <v>102.07</v>
@@ -22844,6 +23962,9 @@
       <c r="R373" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S373" t="n">
+        <v>4.806747079031683</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -22872,7 +23993,7 @@
         <v>134.78</v>
       </c>
       <c r="H374" t="n">
-        <v>106.52</v>
+        <v>41.4</v>
       </c>
       <c r="I374" t="n">
         <v>102.02</v>
@@ -22904,6 +24025,9 @@
       <c r="R374" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S374" t="n">
+        <v>2.403929056894637</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -22932,7 +24056,7 @@
         <v>135.68</v>
       </c>
       <c r="H375" t="n">
-        <v>105.44</v>
+        <v>40.8</v>
       </c>
       <c r="I375" t="n">
         <v>102.13</v>
@@ -22964,6 +24088,9 @@
       <c r="R375" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S375" t="n">
+        <v>2.266495208783088</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -22992,7 +24119,7 @@
         <v>140.54</v>
       </c>
       <c r="H376" t="n">
-        <v>115.16</v>
+        <v>46.2</v>
       </c>
       <c r="I376" t="n">
         <v>102.05</v>
@@ -23024,6 +24151,9 @@
       <c r="R376" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S376" t="n">
+        <v>2.603187667043691</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -23052,7 +24182,7 @@
         <v>127.76</v>
       </c>
       <c r="H377" t="n">
-        <v>120.38</v>
+        <v>49.1</v>
       </c>
       <c r="I377" t="n">
         <v>101.79</v>
@@ -23084,6 +24214,9 @@
       <c r="R377" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S377" t="n">
+        <v>4.435338989620154</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -23112,7 +24245,7 @@
         <v>142.34</v>
       </c>
       <c r="H378" t="n">
-        <v>123.44</v>
+        <v>50.8</v>
       </c>
       <c r="I378" t="n">
         <v>101.59</v>
@@ -23144,6 +24277,9 @@
       <c r="R378" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S378" t="n">
+        <v>3.116194595180637</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -23172,7 +24308,7 @@
         <v>152.78</v>
       </c>
       <c r="H379" t="n">
-        <v>127.94</v>
+        <v>53.3</v>
       </c>
       <c r="I379" t="n">
         <v>101.23</v>
@@ -23204,6 +24340,9 @@
       <c r="R379" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S379" t="n">
+        <v>2.627350463371315</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -23232,7 +24371,7 @@
         <v>156.92</v>
       </c>
       <c r="H380" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I380" t="n">
         <v>101.02</v>
@@ -23264,6 +24403,9 @@
       <c r="R380" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S380" t="n">
+        <v>2.676223343395406</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -23292,7 +24434,7 @@
         <v>125.6</v>
       </c>
       <c r="H381" t="n">
-        <v>122.54</v>
+        <v>50.3</v>
       </c>
       <c r="I381" t="n">
         <v>101.77</v>
@@ -23324,6 +24466,9 @@
       <c r="R381" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S381" t="n">
+        <v>5.040403972285885</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -23352,7 +24497,7 @@
         <v>148.64</v>
       </c>
       <c r="H382" t="n">
-        <v>116.6</v>
+        <v>47</v>
       </c>
       <c r="I382" t="n">
         <v>101.87</v>
@@ -23384,6 +24529,9 @@
       <c r="R382" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S382" t="n">
+        <v>2.151609884502858</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -23412,7 +24560,7 @@
         <v>153.68</v>
       </c>
       <c r="H383" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I383" t="n">
         <v>101.04</v>
@@ -23444,6 +24592,9 @@
       <c r="R383" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S383" t="n">
+        <v>4.859839788783551</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -23472,7 +24623,7 @@
         <v>166.1</v>
       </c>
       <c r="H384" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I384" t="n">
         <v>100.72</v>
@@ -23504,6 +24655,9 @@
       <c r="R384" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S384" t="n">
+        <v>2.541920887262429</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -23532,7 +24686,7 @@
         <v>142.88</v>
       </c>
       <c r="H385" t="n">
-        <v>136.94</v>
+        <v>58.3</v>
       </c>
       <c r="I385" t="n">
         <v>101.27</v>
@@ -23564,6 +24718,9 @@
       <c r="R385" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S385" t="n">
+        <v>4.412078359551954</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -23592,7 +24749,7 @@
         <v>135.86</v>
       </c>
       <c r="H386" t="n">
-        <v>135.86</v>
+        <v>57.7</v>
       </c>
       <c r="I386" t="n">
         <v>101.65</v>
@@ -23624,6 +24781,9 @@
       <c r="R386" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S386" t="n">
+        <v>5.269904771507207</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -23652,7 +24812,7 @@
         <v>134.24</v>
       </c>
       <c r="H387" t="n">
-        <v>134.24</v>
+        <v>56.8</v>
       </c>
       <c r="I387" t="n">
         <v>101.98</v>
@@ -23684,6 +24844,9 @@
       <c r="R387" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S387" t="n">
+        <v>5.300713686256256</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -23712,7 +24875,7 @@
         <v>136.76</v>
       </c>
       <c r="H388" t="n">
-        <v>124.34</v>
+        <v>51.3</v>
       </c>
       <c r="I388" t="n">
         <v>101.63</v>
@@ -23744,6 +24907,9 @@
       <c r="R388" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S388" t="n">
+        <v>3.762358589658879</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -23772,7 +24938,7 @@
         <v>171.86</v>
       </c>
       <c r="H389" t="n">
-        <v>128.66</v>
+        <v>53.7</v>
       </c>
       <c r="I389" t="n">
         <v>101.26</v>
@@ -23804,6 +24970,9 @@
       <c r="R389" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S389" t="n">
+        <v>1.626990988295325</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -23832,7 +25001,7 @@
         <v>180.14</v>
       </c>
       <c r="H390" t="n">
-        <v>148.46</v>
+        <v>64.7</v>
       </c>
       <c r="I390" t="n">
         <v>100.63</v>
@@ -23864,6 +25033,9 @@
       <c r="R390" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S390" t="n">
+        <v>2.227722665715585</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -23892,7 +25064,7 @@
         <v>152.6</v>
       </c>
       <c r="H391" t="n">
-        <v>129.2</v>
+        <v>54</v>
       </c>
       <c r="I391" t="n">
         <v>101.39</v>
@@ -23924,6 +25096,9 @@
       <c r="R391" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S391" t="n">
+        <v>2.73196193190297</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -23952,7 +25127,7 @@
         <v>156.38</v>
       </c>
       <c r="H392" t="n">
-        <v>125.06</v>
+        <v>51.7</v>
       </c>
       <c r="I392" t="n">
         <v>101.62</v>
@@ -23984,6 +25159,9 @@
       <c r="R392" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S392" t="n">
+        <v>2.202636269010886</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -24012,7 +25190,7 @@
         <v>151.16</v>
       </c>
       <c r="H393" t="n">
-        <v>136.4</v>
+        <v>58</v>
       </c>
       <c r="I393" t="n">
         <v>101.58</v>
@@ -24044,6 +25222,9 @@
       <c r="R393" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S393" t="n">
+        <v>3.443644824633214</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -24072,7 +25253,7 @@
         <v>145.76</v>
       </c>
       <c r="H394" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I394" t="n">
         <v>101.82</v>
@@ -24104,6 +25285,9 @@
       <c r="R394" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S394" t="n">
+        <v>4.483803158516352</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -24132,7 +25316,7 @@
         <v>171.14</v>
       </c>
       <c r="H395" t="n">
-        <v>135.68</v>
+        <v>57.6</v>
       </c>
       <c r="I395" t="n">
         <v>100.81</v>
@@ -24164,6 +25348,9 @@
       <c r="R395" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S395" t="n">
+        <v>1.998180083729022</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -24192,7 +25379,7 @@
         <v>162.14</v>
       </c>
       <c r="H396" t="n">
-        <v>162.14</v>
+        <v>72.3</v>
       </c>
       <c r="I396" t="n">
         <v>100.46</v>
@@ -24224,6 +25411,9 @@
       <c r="R396" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S396" t="n">
+        <v>4.892164731458001</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -24252,7 +25442,7 @@
         <v>172.58</v>
       </c>
       <c r="H397" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I397" t="n">
         <v>100.83</v>
@@ -24284,6 +25474,9 @@
       <c r="R397" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S397" t="n">
+        <v>3.232341721163894</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -24312,7 +25505,7 @@
         <v>163.76</v>
       </c>
       <c r="H398" t="n">
-        <v>163.58</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="I398" t="n">
         <v>100.7</v>
@@ -24344,6 +25537,9 @@
       <c r="R398" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S398" t="n">
+        <v>4.854321723838777</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -24372,7 +25568,7 @@
         <v>159.44</v>
       </c>
       <c r="H399" t="n">
-        <v>140.36</v>
+        <v>60.2</v>
       </c>
       <c r="I399" t="n">
         <v>101.21</v>
@@ -24404,6 +25600,9 @@
       <c r="R399" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S399" t="n">
+        <v>3.052252791669471</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -24432,7 +25631,7 @@
         <v>171.32</v>
       </c>
       <c r="H400" t="n">
-        <v>155.12</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="I400" t="n">
         <v>101.11</v>
@@ -24464,6 +25663,9 @@
       <c r="R400" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S400" t="n">
+        <v>3.262644279537516</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -24492,7 +25694,7 @@
         <v>175.82</v>
       </c>
       <c r="H401" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I401" t="n">
         <v>100.96</v>
@@ -24524,6 +25726,9 @@
       <c r="R401" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S401" t="n">
+        <v>3.62872164904702</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -24552,7 +25757,7 @@
         <v>183.2</v>
       </c>
       <c r="H402" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I402" t="n">
         <v>100.84</v>
@@ -24584,6 +25789,9 @@
       <c r="R402" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S402" t="n">
+        <v>3.171232395216083</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -24612,7 +25820,7 @@
         <v>189.86</v>
       </c>
       <c r="H403" t="n">
-        <v>165.74</v>
+        <v>74.3</v>
       </c>
       <c r="I403" t="n">
         <v>100.8</v>
@@ -24644,6 +25852,9 @@
       <c r="R403" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S403" t="n">
+        <v>2.704439766935456</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -24672,7 +25883,7 @@
         <v>185</v>
       </c>
       <c r="H404" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I404" t="n">
         <v>100.64</v>
@@ -24704,6 +25915,9 @@
       <c r="R404" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S404" t="n">
+        <v>2.201632118346455</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -24732,7 +25946,7 @@
         <v>180.32</v>
       </c>
       <c r="H405" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I405" t="n">
         <v>100.79</v>
@@ -24764,6 +25978,9 @@
       <c r="R405" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S405" t="n">
+        <v>3.425169493970704</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -24792,7 +26009,7 @@
         <v>164.48</v>
       </c>
       <c r="H406" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I406" t="n">
         <v>101.04</v>
@@ -24824,6 +26041,9 @@
       <c r="R406" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S406" t="n">
+        <v>3.648207416882592</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -24852,7 +26072,7 @@
         <v>182.3</v>
       </c>
       <c r="H407" t="n">
-        <v>159.8</v>
+        <v>71</v>
       </c>
       <c r="I407" t="n">
         <v>100.3</v>
@@ -24884,6 +26104,9 @@
       <c r="R407" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S407" t="n">
+        <v>2.798584294924937</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -24912,7 +26135,7 @@
         <v>185.72</v>
       </c>
       <c r="H408" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I408" t="n">
         <v>100.3</v>
@@ -24944,6 +26167,9 @@
       <c r="R408" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S408" t="n">
+        <v>2.493555690586591</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -24972,7 +26198,7 @@
         <v>184.46</v>
       </c>
       <c r="H409" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I409" t="n">
         <v>100.28</v>
@@ -25004,6 +26230,9 @@
       <c r="R409" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S409" t="n">
+        <v>2.320815154868698</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -25032,7 +26261,7 @@
         <v>174.92</v>
       </c>
       <c r="H410" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I410" t="n">
         <v>100.44</v>
@@ -25064,6 +26293,9 @@
       <c r="R410" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S410" t="n">
+        <v>2.754463847652763</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -25092,7 +26324,7 @@
         <v>158</v>
       </c>
       <c r="H411" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I411" t="n">
         <v>100.7</v>
@@ -25124,6 +26356,9 @@
       <c r="R411" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S411" t="n">
+        <v>4.938445641937554</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -25152,7 +26387,7 @@
         <v>164.12</v>
       </c>
       <c r="H412" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I412" t="n">
         <v>100.69</v>
@@ -25184,6 +26419,9 @@
       <c r="R412" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S412" t="n">
+        <v>4.871511064224688</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -25212,7 +26450,7 @@
         <v>169.7</v>
       </c>
       <c r="H413" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I413" t="n">
         <v>100.78</v>
@@ -25244,6 +26482,9 @@
       <c r="R413" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S413" t="n">
+        <v>4.658483320135423</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -25272,7 +26513,7 @@
         <v>176.54</v>
       </c>
       <c r="H414" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I414" t="n">
         <v>100.87</v>
@@ -25304,6 +26545,9 @@
       <c r="R414" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S414" t="n">
+        <v>4.015671658273241</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -25332,7 +26576,7 @@
         <v>193.64</v>
       </c>
       <c r="H415" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I415" t="n">
         <v>100.71</v>
@@ -25364,6 +26608,9 @@
       <c r="R415" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S415" t="n">
+        <v>2.589615578370084</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -25392,7 +26639,7 @@
         <v>177.98</v>
       </c>
       <c r="H416" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I416" t="n">
         <v>100.26</v>
@@ -25424,6 +26671,9 @@
       <c r="R416" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S416" t="n">
+        <v>4.394370644624463</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -25452,7 +26702,7 @@
         <v>186.98</v>
       </c>
       <c r="H417" t="n">
-        <v>178.52</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="I417" t="n">
         <v>100.46</v>
@@ -25484,6 +26734,9 @@
       <c r="R417" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S417" t="n">
+        <v>3.885228080509362</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -25512,7 +26765,7 @@
         <v>193.64</v>
       </c>
       <c r="H418" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I418" t="n">
         <v>100.55</v>
@@ -25544,6 +26797,9 @@
       <c r="R418" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S418" t="n">
+        <v>3.086396179474147</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -25572,7 +26828,7 @@
         <v>189.14</v>
       </c>
       <c r="H419" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I419" t="n">
         <v>100.55</v>
@@ -25604,6 +26860,9 @@
       <c r="R419" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S419" t="n">
+        <v>2.954872764258212</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -25632,7 +26891,7 @@
         <v>189.5</v>
       </c>
       <c r="H420" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I420" t="n">
         <v>100.26</v>
@@ -25664,6 +26923,9 @@
       <c r="R420" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S420" t="n">
+        <v>3.018099702954823</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -25692,7 +26954,7 @@
         <v>193.64</v>
       </c>
       <c r="H421" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I421" t="n">
         <v>100.25</v>
@@ -25724,6 +26986,9 @@
       <c r="R421" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S421" t="n">
+        <v>2.840579195844621</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -25752,7 +27017,7 @@
         <v>193.82</v>
       </c>
       <c r="H422" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I422" t="n">
         <v>100.25</v>
@@ -25784,6 +27049,9 @@
       <c r="R422" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S422" t="n">
+        <v>2.612079736263896</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -25812,7 +27080,7 @@
         <v>179.06</v>
       </c>
       <c r="H423" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I423" t="n">
         <v>100.58</v>
@@ -25844,6 +27112,9 @@
       <c r="R423" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S423" t="n">
+        <v>3.890430896987922</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -25872,7 +27143,7 @@
         <v>188.78</v>
       </c>
       <c r="H424" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I424" t="n">
         <v>100.47</v>
@@ -25904,6 +27175,9 @@
       <c r="R424" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S424" t="n">
+        <v>3.146561520431691</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -25932,7 +27206,7 @@
         <v>187.7</v>
       </c>
       <c r="H425" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I425" t="n">
         <v>100.49</v>
@@ -25964,6 +27238,9 @@
       <c r="R425" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S425" t="n">
+        <v>3.321585594295205</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -25992,7 +27269,7 @@
         <v>195.08</v>
       </c>
       <c r="H426" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I426" t="n">
         <v>100.39</v>
@@ -26024,6 +27301,9 @@
       <c r="R426" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S426" t="n">
+        <v>2.637427557325758</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -26052,7 +27332,7 @@
         <v>181.22</v>
       </c>
       <c r="H427" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I427" t="n">
         <v>100.21</v>
@@ -26084,6 +27364,9 @@
       <c r="R427" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S427" t="n">
+        <v>3.772204379128601</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -26112,7 +27395,7 @@
         <v>182.12</v>
       </c>
       <c r="H428" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I428" t="n">
         <v>100.34</v>
@@ -26144,6 +27427,9 @@
       <c r="R428" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S428" t="n">
+        <v>3.26729739611585</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -26172,7 +27458,7 @@
         <v>188.06</v>
       </c>
       <c r="H429" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I429" t="n">
         <v>100.79</v>
@@ -26204,6 +27490,9 @@
       <c r="R429" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S429" t="n">
+        <v>3.363222636626451</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -26232,7 +27521,7 @@
         <v>184.46</v>
       </c>
       <c r="H430" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I430" t="n">
         <v>100.75</v>
@@ -26264,6 +27553,9 @@
       <c r="R430" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S430" t="n">
+        <v>3.642302610653202</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -26292,7 +27584,7 @@
         <v>186.08</v>
       </c>
       <c r="H431" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I431" t="n">
         <v>100.68</v>
@@ -26324,6 +27616,9 @@
       <c r="R431" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S431" t="n">
+        <v>3.639945345316985</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -26352,7 +27647,7 @@
         <v>187.52</v>
       </c>
       <c r="H432" t="n">
-        <v>175.64</v>
+        <v>79.8</v>
       </c>
       <c r="I432" t="n">
         <v>100.7</v>
@@ -26384,6 +27679,9 @@
       <c r="R432" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S432" t="n">
+        <v>3.593477871485692</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -26412,7 +27710,7 @@
         <v>181.76</v>
       </c>
       <c r="H433" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I433" t="n">
         <v>100.68</v>
@@ -26444,6 +27742,9 @@
       <c r="R433" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S433" t="n">
+        <v>3.482005481791229</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -26472,7 +27773,7 @@
         <v>188.6</v>
       </c>
       <c r="H434" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I434" t="n">
         <v>100.6</v>
@@ -26504,6 +27805,9 @@
       <c r="R434" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S434" t="n">
+        <v>3.068308575535794</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -26532,7 +27836,7 @@
         <v>190.04</v>
       </c>
       <c r="H435" t="n">
-        <v>162.68</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I435" t="n">
         <v>100.23</v>
@@ -26564,6 +27868,9 @@
       <c r="R435" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S435" t="n">
+        <v>2.504176790268647</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -26592,7 +27899,7 @@
         <v>171.14</v>
       </c>
       <c r="H436" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I436" t="n">
         <v>99.92</v>
@@ -26624,6 +27931,9 @@
       <c r="R436" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S436" t="n">
+        <v>4.627525622251459</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -26652,7 +27962,7 @@
         <v>175.28</v>
       </c>
       <c r="H437" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I437" t="n">
         <v>100.19</v>
@@ -26684,6 +27994,9 @@
       <c r="R437" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S437" t="n">
+        <v>4.502779129764537</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -26712,7 +28025,7 @@
         <v>182.12</v>
       </c>
       <c r="H438" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I438" t="n">
         <v>100.52</v>
@@ -26744,6 +28057,9 @@
       <c r="R438" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S438" t="n">
+        <v>3.801600182822021</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -26772,7 +28088,7 @@
         <v>188.78</v>
       </c>
       <c r="H439" t="n">
-        <v>175.46</v>
+        <v>79.7</v>
       </c>
       <c r="I439" t="n">
         <v>100.37</v>
@@ -26804,6 +28120,9 @@
       <c r="R439" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S439" t="n">
+        <v>3.476082984039179</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -26832,7 +28151,7 @@
         <v>194.72</v>
       </c>
       <c r="H440" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I440" t="n">
         <v>100.13</v>
@@ -26864,6 +28183,9 @@
       <c r="R440" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S440" t="n">
+        <v>2.902364870937729</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -26892,7 +28214,7 @@
         <v>192.38</v>
       </c>
       <c r="H441" t="n">
-        <v>176.72</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I441" t="n">
         <v>100.09</v>
@@ -26924,6 +28246,9 @@
       <c r="R441" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S441" t="n">
+        <v>3.295211580009864</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -26952,7 +28277,7 @@
         <v>183.92</v>
       </c>
       <c r="H442" t="n">
-        <v>175.64</v>
+        <v>79.8</v>
       </c>
       <c r="I442" t="n">
         <v>100.23</v>
@@ -26984,6 +28309,9 @@
       <c r="R442" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S442" t="n">
+        <v>3.908677785419622</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -27012,7 +28340,7 @@
         <v>188.24</v>
       </c>
       <c r="H443" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I443" t="n">
         <v>100.4</v>
@@ -27044,6 +28372,9 @@
       <c r="R443" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S443" t="n">
+        <v>3.119967229762731</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -27072,7 +28403,7 @@
         <v>186.44</v>
       </c>
       <c r="H444" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I444" t="n">
         <v>100.25</v>
@@ -27104,6 +28435,9 @@
       <c r="R444" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S444" t="n">
+        <v>3.463090867641085</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -27132,7 +28466,7 @@
         <v>192.2</v>
       </c>
       <c r="H445" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I445" t="n">
         <v>100.15</v>
@@ -27164,6 +28498,9 @@
       <c r="R445" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S445" t="n">
+        <v>3.123274690445512</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -27192,7 +28529,7 @@
         <v>178.52</v>
       </c>
       <c r="H446" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I446" t="n">
         <v>100.18</v>
@@ -27224,6 +28561,9 @@
       <c r="R446" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S446" t="n">
+        <v>4.008003305408438</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -27252,7 +28592,7 @@
         <v>184.1</v>
       </c>
       <c r="H447" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I447" t="n">
         <v>100.44</v>
@@ -27284,6 +28624,9 @@
       <c r="R447" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S447" t="n">
+        <v>3.23923834105765</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -27312,7 +28655,7 @@
         <v>174.38</v>
       </c>
       <c r="H448" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I448" t="n">
         <v>100.53</v>
@@ -27344,6 +28687,9 @@
       <c r="R448" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S448" t="n">
+        <v>3.923361544708726</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -27372,7 +28718,7 @@
         <v>183.38</v>
       </c>
       <c r="H449" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I449" t="n">
         <v>100.6</v>
@@ -27404,6 +28750,9 @@
       <c r="R449" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S449" t="n">
+        <v>3.225611278532821</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -27432,7 +28781,7 @@
         <v>173.84</v>
       </c>
       <c r="H450" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I450" t="n">
         <v>100.35</v>
@@ -27464,6 +28813,9 @@
       <c r="R450" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S450" t="n">
+        <v>4.512278614342772</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -27492,7 +28844,7 @@
         <v>180.86</v>
       </c>
       <c r="H451" t="n">
-        <v>168.44</v>
+        <v>75.8</v>
       </c>
       <c r="I451" t="n">
         <v>100.56</v>
@@ -27524,6 +28876,9 @@
       <c r="R451" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S451" t="n">
+        <v>3.557529723736161</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -27552,7 +28907,7 @@
         <v>161.06</v>
       </c>
       <c r="H452" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I452" t="n">
         <v>100.37</v>
@@ -27584,6 +28939,9 @@
       <c r="R452" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S452" t="n">
+        <v>4.798617453753608</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -27612,7 +28970,7 @@
         <v>160.16</v>
       </c>
       <c r="H453" t="n">
-        <v>155.48</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I453" t="n">
         <v>101.05</v>
@@ -27644,6 +29002,9 @@
       <c r="R453" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S453" t="n">
+        <v>4.38479057604344</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -27672,7 +29033,7 @@
         <v>159.98</v>
       </c>
       <c r="H454" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I454" t="n">
         <v>101.07</v>
@@ -27704,6 +29065,9 @@
       <c r="R454" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S454" t="n">
+        <v>4.252336490863195</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -27732,7 +29096,7 @@
         <v>174.38</v>
       </c>
       <c r="H455" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I455" t="n">
         <v>100.84</v>
@@ -27764,6 +29128,9 @@
       <c r="R455" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S455" t="n">
+        <v>2.841651543913074</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -27792,7 +29159,7 @@
         <v>184.1</v>
       </c>
       <c r="H456" t="n">
-        <v>164.66</v>
+        <v>73.7</v>
       </c>
       <c r="I456" t="n">
         <v>100.66</v>
@@ -27824,6 +29191,9 @@
       <c r="R456" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S456" t="n">
+        <v>3.013277908816075</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -27852,7 +29222,7 @@
         <v>183.56</v>
       </c>
       <c r="H457" t="n">
-        <v>164.3</v>
+        <v>73.5</v>
       </c>
       <c r="I457" t="n">
         <v>100.71</v>
@@ -27884,6 +29254,9 @@
       <c r="R457" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S457" t="n">
+        <v>3.025855502845639</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -27912,7 +29285,7 @@
         <v>185</v>
       </c>
       <c r="H458" t="n">
-        <v>167.18</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="I458" t="n">
         <v>101.08</v>
@@ -27944,6 +29317,9 @@
       <c r="R458" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S458" t="n">
+        <v>3.13146007955873</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -27972,7 +29348,7 @@
         <v>183.74</v>
       </c>
       <c r="H459" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I459" t="n">
         <v>100.69</v>
@@ -28004,6 +29380,9 @@
       <c r="R459" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S459" t="n">
+        <v>2.764255395557986</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -28032,7 +29411,7 @@
         <v>177.8</v>
       </c>
       <c r="H460" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I460" t="n">
         <v>100.71</v>
@@ -28064,6 +29443,9 @@
       <c r="R460" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S460" t="n">
+        <v>3.608765343495243</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -28092,7 +29474,7 @@
         <v>162.5</v>
       </c>
       <c r="H461" t="n">
-        <v>162.14</v>
+        <v>72.3</v>
       </c>
       <c r="I461" t="n">
         <v>101.13</v>
@@ -28124,6 +29506,9 @@
       <c r="R461" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S461" t="n">
+        <v>4.846368308977332</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -28152,7 +29537,7 @@
         <v>165.2</v>
       </c>
       <c r="H462" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I462" t="n">
         <v>101.19</v>
@@ -28184,6 +29569,9 @@
       <c r="R462" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S462" t="n">
+        <v>4.737506380626535</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -28212,7 +29600,7 @@
         <v>176.9</v>
       </c>
       <c r="H463" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I463" t="n">
         <v>101.41</v>
@@ -28244,6 +29632,9 @@
       <c r="R463" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S463" t="n">
+        <v>3.720057243453498</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -28272,7 +29663,7 @@
         <v>178.16</v>
       </c>
       <c r="H464" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I464" t="n">
         <v>101.25</v>
@@ -28304,6 +29695,9 @@
       <c r="R464" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S464" t="n">
+        <v>3.828316647963292</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -28332,7 +29726,7 @@
         <v>149.36</v>
       </c>
       <c r="H465" t="n">
-        <v>138.74</v>
+        <v>59.3</v>
       </c>
       <c r="I465" t="n">
         <v>101.76</v>
@@ -28364,6 +29758,9 @@
       <c r="R465" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S465" t="n">
+        <v>3.848756333830649</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -28392,7 +29789,7 @@
         <v>159.62</v>
       </c>
       <c r="H466" t="n">
-        <v>136.4</v>
+        <v>58</v>
       </c>
       <c r="I466" t="n">
         <v>102.28</v>
@@ -28424,6 +29821,9 @@
       <c r="R466" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S466" t="n">
+        <v>2.739387775479531</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -28452,7 +29852,7 @@
         <v>155.12</v>
       </c>
       <c r="H467" t="n">
-        <v>142.16</v>
+        <v>61.2</v>
       </c>
       <c r="I467" t="n">
         <v>101.8</v>
@@ -28484,6 +29884,9 @@
       <c r="R467" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S467" t="n">
+        <v>3.589809921181599</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -28512,7 +29915,7 @@
         <v>148.46</v>
       </c>
       <c r="H468" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I468" t="n">
         <v>101.61</v>
@@ -28544,6 +29947,9 @@
       <c r="R468" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S468" t="n">
+        <v>4.07826228718548</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -28572,7 +29978,7 @@
         <v>158.72</v>
       </c>
       <c r="H469" t="n">
-        <v>128.84</v>
+        <v>53.8</v>
       </c>
       <c r="I469" t="n">
         <v>102.04</v>
@@ -28604,6 +30010,9 @@
       <c r="R469" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S469" t="n">
+        <v>2.293344824399109</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -28632,7 +30041,7 @@
         <v>153.68</v>
       </c>
       <c r="H470" t="n">
-        <v>139.46</v>
+        <v>59.7</v>
       </c>
       <c r="I470" t="n">
         <v>101.89</v>
@@ -28664,6 +30073,9 @@
       <c r="R470" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S470" t="n">
+        <v>3.481187837926577</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -28692,7 +30104,7 @@
         <v>158.9</v>
       </c>
       <c r="H471" t="n">
-        <v>146.12</v>
+        <v>63.4</v>
       </c>
       <c r="I471" t="n">
         <v>101.67</v>
@@ -28724,6 +30136,9 @@
       <c r="R471" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S471" t="n">
+        <v>3.589205862347369</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -28752,7 +30167,7 @@
         <v>159.08</v>
       </c>
       <c r="H472" t="n">
-        <v>140.9</v>
+        <v>60.5</v>
       </c>
       <c r="I472" t="n">
         <v>102.06</v>
@@ -28784,6 +30199,9 @@
       <c r="R472" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S472" t="n">
+        <v>3.124923082997957</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -28812,7 +30230,7 @@
         <v>150.44</v>
       </c>
       <c r="H473" t="n">
-        <v>135.86</v>
+        <v>57.7</v>
       </c>
       <c r="I473" t="n">
         <v>102.16</v>
@@ -28844,6 +30262,9 @@
       <c r="R473" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S473" t="n">
+        <v>3.463370572458623</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -28872,7 +30293,7 @@
         <v>157.46</v>
       </c>
       <c r="H474" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I474" t="n">
         <v>101.81</v>
@@ -28904,6 +30325,9 @@
       <c r="R474" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S474" t="n">
+        <v>2.637773358814766</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -28932,7 +30356,7 @@
         <v>159.08</v>
       </c>
       <c r="H475" t="n">
-        <v>136.4</v>
+        <v>58</v>
       </c>
       <c r="I475" t="n">
         <v>101.5</v>
@@ -28964,6 +30388,9 @@
       <c r="R475" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S475" t="n">
+        <v>2.77888883884385</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -28992,7 +30419,7 @@
         <v>159.62</v>
       </c>
       <c r="H476" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I476" t="n">
         <v>101.37</v>
@@ -29024,6 +30451,9 @@
       <c r="R476" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S476" t="n">
+        <v>3.332758528986128</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -29052,7 +30482,7 @@
         <v>161.78</v>
       </c>
       <c r="H477" t="n">
-        <v>147.92</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I477" t="n">
         <v>101.37</v>
@@ -29084,6 +30514,9 @@
       <c r="R477" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S477" t="n">
+        <v>3.481563679609876</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -29112,7 +30545,7 @@
         <v>146.12</v>
       </c>
       <c r="H478" t="n">
-        <v>115.34</v>
+        <v>46.3</v>
       </c>
       <c r="I478" t="n">
         <v>102.29</v>
@@ -29144,6 +30577,9 @@
       <c r="R478" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S478" t="n">
+        <v>2.228674730820822</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -29172,7 +30608,7 @@
         <v>140.36</v>
       </c>
       <c r="H479" t="n">
-        <v>118.76</v>
+        <v>48.2</v>
       </c>
       <c r="I479" t="n">
         <v>102.02</v>
@@ -29204,6 +30640,9 @@
       <c r="R479" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S479" t="n">
+        <v>2.89742228899452</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -29232,7 +30671,7 @@
         <v>129.92</v>
       </c>
       <c r="H480" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I480" t="n">
         <v>102.79</v>
@@ -29264,6 +30703,9 @@
       <c r="R480" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S480" t="n">
+        <v>4.537946978449802</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -29292,7 +30734,7 @@
         <v>125.06</v>
       </c>
       <c r="H481" t="n">
-        <v>112.64</v>
+        <v>44.8</v>
       </c>
       <c r="I481" t="n">
         <v>103.15</v>
@@ -29324,6 +30766,9 @@
       <c r="R481" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S481" t="n">
+        <v>3.877465240855329</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -29352,7 +30797,7 @@
         <v>118.4</v>
       </c>
       <c r="H482" t="n">
-        <v>103.1</v>
+        <v>39.5</v>
       </c>
       <c r="I482" t="n">
         <v>103.13</v>
@@ -29384,6 +30829,9 @@
       <c r="R482" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S482" t="n">
+        <v>3.634681698026342</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -29412,7 +30860,7 @@
         <v>124.52</v>
       </c>
       <c r="H483" t="n">
-        <v>120.38</v>
+        <v>49.1</v>
       </c>
       <c r="I483" t="n">
         <v>102.73</v>
@@ -29444,6 +30892,9 @@
       <c r="R483" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S483" t="n">
+        <v>4.911771967379129</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -29472,7 +30923,7 @@
         <v>127.94</v>
       </c>
       <c r="H484" t="n">
-        <v>108.86</v>
+        <v>42.7</v>
       </c>
       <c r="I484" t="n">
         <v>103.12</v>
@@ -29504,6 +30955,9 @@
       <c r="R484" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S484" t="n">
+        <v>3.174524273341914</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -29532,7 +30986,7 @@
         <v>121.46</v>
       </c>
       <c r="H485" t="n">
-        <v>104.54</v>
+        <v>40.3</v>
       </c>
       <c r="I485" t="n">
         <v>102.84</v>
@@ -29564,6 +31018,9 @@
       <c r="R485" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S485" t="n">
+        <v>3.433896316179645</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -29592,7 +31049,7 @@
         <v>134.96</v>
       </c>
       <c r="H486" t="n">
-        <v>104.18</v>
+        <v>40.1</v>
       </c>
       <c r="I486" t="n">
         <v>102.27</v>
@@ -29624,6 +31081,9 @@
       <c r="R486" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S486" t="n">
+        <v>2.231038208399513</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -29652,7 +31112,7 @@
         <v>127.94</v>
       </c>
       <c r="H487" t="n">
-        <v>113.54</v>
+        <v>45.3</v>
       </c>
       <c r="I487" t="n">
         <v>102.15</v>
@@ -29684,6 +31144,9 @@
       <c r="R487" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S487" t="n">
+        <v>3.634613334539647</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -29712,7 +31175,7 @@
         <v>145.4</v>
       </c>
       <c r="H488" t="n">
-        <v>126.32</v>
+        <v>52.4</v>
       </c>
       <c r="I488" t="n">
         <v>101.66</v>
@@ -29744,6 +31207,9 @@
       <c r="R488" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S488" t="n">
+        <v>3.089233717625179</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -29772,7 +31238,7 @@
         <v>126.32</v>
       </c>
       <c r="H489" t="n">
-        <v>94.28</v>
+        <v>34.6</v>
       </c>
       <c r="I489" t="n">
         <v>102.68</v>
@@ -29804,6 +31270,9 @@
       <c r="R489" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S489" t="n">
+        <v>2.155505951609114</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -29832,7 +31301,7 @@
         <v>142.88</v>
       </c>
       <c r="H490" t="n">
-        <v>114.98</v>
+        <v>46.1</v>
       </c>
       <c r="I490" t="n">
         <v>102.25</v>
@@ -29864,6 +31333,9 @@
       <c r="R490" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S490" t="n">
+        <v>2.419973559110624</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -29892,7 +31364,7 @@
         <v>119.48</v>
       </c>
       <c r="H491" t="n">
-        <v>93.38</v>
+        <v>34.1</v>
       </c>
       <c r="I491" t="n">
         <v>103.14</v>
@@ -29924,6 +31396,9 @@
       <c r="R491" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S491" t="n">
+        <v>2.610125141206282</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -29952,7 +31427,7 @@
         <v>115.88</v>
       </c>
       <c r="H492" t="n">
-        <v>82.22</v>
+        <v>27.9</v>
       </c>
       <c r="I492" t="n">
         <v>103.07</v>
@@ -29984,6 +31459,9 @@
       <c r="R492" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S492" t="n">
+        <v>2.062795729954334</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -30012,7 +31490,7 @@
         <v>120.38</v>
       </c>
       <c r="H493" t="n">
-        <v>109.22</v>
+        <v>42.9</v>
       </c>
       <c r="I493" t="n">
         <v>102.6</v>
@@ -30044,6 +31522,9 @@
       <c r="R493" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S493" t="n">
+        <v>4.080909192478926</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -30072,7 +31553,7 @@
         <v>121.82</v>
       </c>
       <c r="H494" t="n">
-        <v>112.1</v>
+        <v>44.5</v>
       </c>
       <c r="I494" t="n">
         <v>102.11</v>
@@ -30104,6 +31585,9 @@
       <c r="R494" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S494" t="n">
+        <v>4.234111062554717</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -30132,7 +31616,7 @@
         <v>117.5</v>
       </c>
       <c r="H495" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I495" t="n">
         <v>101.97</v>
@@ -30164,6 +31648,9 @@
       <c r="R495" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S495" t="n">
+        <v>5.267325772947486</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -30192,7 +31679,7 @@
         <v>134.96</v>
       </c>
       <c r="H496" t="n">
-        <v>114.8</v>
+        <v>46</v>
       </c>
       <c r="I496" t="n">
         <v>101.52</v>
@@ -30224,6 +31711,9 @@
       <c r="R496" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S496" t="n">
+        <v>3.039406401006838</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -30252,7 +31742,7 @@
         <v>145.04</v>
       </c>
       <c r="H497" t="n">
-        <v>133.16</v>
+        <v>56.2</v>
       </c>
       <c r="I497" t="n">
         <v>101.45</v>
@@ -30284,6 +31774,9 @@
       <c r="R497" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S497" t="n">
+        <v>3.752952324487145</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -30312,7 +31805,7 @@
         <v>121.64</v>
       </c>
       <c r="H498" t="n">
-        <v>120.56</v>
+        <v>49.2</v>
       </c>
       <c r="I498" t="n">
         <v>102.06</v>
@@ -30344,6 +31837,9 @@
       <c r="R498" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S498" t="n">
+        <v>5.413374782121112</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -30372,7 +31868,7 @@
         <v>94.46000000000001</v>
       </c>
       <c r="H499" t="n">
-        <v>73.58000000000001</v>
+        <v>23.1</v>
       </c>
       <c r="I499" t="n">
         <v>103.82</v>
@@ -30404,6 +31900,9 @@
       <c r="R499" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S499" t="n">
+        <v>3.311635865353939</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -30432,7 +31931,7 @@
         <v>96.8</v>
       </c>
       <c r="H500" t="n">
-        <v>72.14</v>
+        <v>22.3</v>
       </c>
       <c r="I500" t="n">
         <v>103.37</v>
@@ -30464,6 +31963,9 @@
       <c r="R500" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S500" t="n">
+        <v>2.890195117461797</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -30492,7 +31994,7 @@
         <v>92.48</v>
       </c>
       <c r="H501" t="n">
-        <v>89.24000000000001</v>
+        <v>31.8</v>
       </c>
       <c r="I501" t="n">
         <v>103.09</v>
@@ -30524,6 +32026,9 @@
       <c r="R501" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S501" t="n">
+        <v>5.944648840160659</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -30552,7 +32057,7 @@
         <v>95.53999999999999</v>
       </c>
       <c r="H502" t="n">
-        <v>90.13999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="I502" t="n">
         <v>103.27</v>
@@ -30584,6 +32089,9 @@
       <c r="R502" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S502" t="n">
+        <v>5.447967719889101</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -30612,7 +32120,7 @@
         <v>87.44</v>
       </c>
       <c r="H503" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I503" t="n">
         <v>104.13</v>
@@ -30644,6 +32152,9 @@
       <c r="R503" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S503" t="n">
+        <v>2.616383178914363</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -30672,7 +32183,7 @@
         <v>86.53999999999999</v>
       </c>
       <c r="H504" t="n">
-        <v>55.04000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="I504" t="n">
         <v>104.03</v>
@@ -30704,6 +32215,9 @@
       <c r="R504" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S504" t="n">
+        <v>2.349902921876581</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -30732,7 +32246,7 @@
         <v>99.86000000000001</v>
       </c>
       <c r="H505" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I505" t="n">
         <v>103.6</v>
@@ -30764,6 +32278,9 @@
       <c r="R505" t="n">
         <v>0.0508</v>
       </c>
+      <c r="S505" t="n">
+        <v>2.613827153241838</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -30792,7 +32309,7 @@
         <v>128.12</v>
       </c>
       <c r="H506" t="n">
-        <v>110.3</v>
+        <v>43.5</v>
       </c>
       <c r="I506" t="n">
         <v>102.23</v>
@@ -30823,6 +32340,9 @@
       </c>
       <c r="R506" t="n">
         <v>0.0508</v>
+      </c>
+      <c r="S506" t="n">
+        <v>3.291860244592238</v>
       </c>
     </row>
   </sheetData>

--- a/result/NCDC_weather_data/stations_imputed/58527099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58527099999.xlsx
@@ -557,7 +557,7 @@
         <v>5.777777777777778</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="I2" t="n">
         <v>102.89</v>
@@ -590,7 +590,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S2" t="n">
-        <v>594.9476399996006</v>
+        <v>73.39304722537503</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H3" t="n">
-        <v>32.4</v>
+        <v>0.2222222222222214</v>
       </c>
       <c r="I3" t="n">
         <v>102.71</v>
@@ -653,7 +653,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S3" t="n">
-        <v>501.188682592971</v>
+        <v>63.94591833568477</v>
       </c>
     </row>
     <row r="4">
@@ -683,7 +683,7 @@
         <v>9.444444444444445</v>
       </c>
       <c r="H4" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I4" t="n">
         <v>102.44</v>
@@ -716,7 +716,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S4" t="n">
-        <v>465.8354309079054</v>
+        <v>57.37495540956659</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         <v>10.5</v>
       </c>
       <c r="H5" t="n">
-        <v>43.2</v>
+        <v>6.222222222222224</v>
       </c>
       <c r="I5" t="n">
         <v>102.04</v>
@@ -779,7 +779,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S5" t="n">
-        <v>690.3755617483108</v>
+        <v>74.81312160717765</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +809,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H6" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I6" t="n">
         <v>102.43</v>
@@ -842,7 +842,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S6" t="n">
-        <v>772.184111753003</v>
+        <v>84.26885183219464</v>
       </c>
     </row>
     <row r="7">
@@ -872,7 +872,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H7" t="n">
-        <v>38.9</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I7" t="n">
         <v>102.88</v>
@@ -905,7 +905,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S7" t="n">
-        <v>645.1950732947768</v>
+        <v>74.39650305337888</v>
       </c>
     </row>
     <row r="8">
@@ -935,7 +935,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H8" t="n">
-        <v>37.8</v>
+        <v>3.222222222222221</v>
       </c>
       <c r="I8" t="n">
         <v>102.86</v>
@@ -968,7 +968,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S8" t="n">
-        <v>631.3211570475906</v>
+        <v>74.00710980234767</v>
       </c>
     </row>
     <row r="9">
@@ -998,7 +998,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H9" t="n">
-        <v>40.3</v>
+        <v>4.61111111111111</v>
       </c>
       <c r="I9" t="n">
         <v>102.5</v>
@@ -1031,7 +1031,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S9" t="n">
-        <v>730.6530493466211</v>
+        <v>82.53053565559027</v>
       </c>
     </row>
     <row r="10">
@@ -1061,7 +1061,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>41.6</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="I10" t="n">
         <v>102.34</v>
@@ -1094,7 +1094,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S10" t="n">
-        <v>804.0754160751842</v>
+        <v>89.13259793344331</v>
       </c>
     </row>
     <row r="11">
@@ -1124,7 +1124,7 @@
         <v>6.111111111111112</v>
       </c>
       <c r="H11" t="n">
-        <v>40.2</v>
+        <v>4.555555555555557</v>
       </c>
       <c r="I11" t="n">
         <v>102.49</v>
@@ -1157,7 +1157,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S11" t="n">
-        <v>793.4454941367121</v>
+        <v>89.7541753108777</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1187,7 @@
         <v>5.944444444444446</v>
       </c>
       <c r="H12" t="n">
-        <v>32.9</v>
+        <v>0.4999999999999992</v>
       </c>
       <c r="I12" t="n">
         <v>102.71</v>
@@ -1220,7 +1220,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S12" t="n">
-        <v>537.7254443801247</v>
+        <v>68.05322472258185</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1250,7 @@
         <v>6.055555555555555</v>
       </c>
       <c r="H13" t="n">
-        <v>34.2</v>
+        <v>1.222222222222224</v>
       </c>
       <c r="I13" t="n">
         <v>102.54</v>
@@ -1283,7 +1283,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S13" t="n">
-        <v>573.9492527571889</v>
+        <v>71.1400863049944</v>
       </c>
     </row>
     <row r="14">
@@ -1313,7 +1313,7 @@
         <v>4.833333333333335</v>
       </c>
       <c r="H14" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I14" t="n">
         <v>102.8</v>
@@ -1346,7 +1346,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S14" t="n">
-        <v>394.5749692875416</v>
+        <v>55.94088927548357</v>
       </c>
     </row>
     <row r="15">
@@ -1376,7 +1376,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H15" t="n">
-        <v>30</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="I15" t="n">
         <v>102.45</v>
@@ -1409,7 +1409,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S15" t="n">
-        <v>518.0138009693161</v>
+        <v>68.77182651863673</v>
       </c>
     </row>
     <row r="16">
@@ -1439,7 +1439,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H16" t="n">
-        <v>36.6</v>
+        <v>2.555555555555556</v>
       </c>
       <c r="I16" t="n">
         <v>102.45</v>
@@ -1472,7 +1472,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S16" t="n">
-        <v>530.0678426076955</v>
+        <v>63.28386633847786</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1502,7 @@
         <v>9.555555555555557</v>
       </c>
       <c r="H17" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I17" t="n">
         <v>102.61</v>
@@ -1535,7 +1535,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S17" t="n">
-        <v>747.0589870599343</v>
+        <v>80.61671616344253</v>
       </c>
     </row>
     <row r="18">
@@ -1565,7 +1565,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H18" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I18" t="n">
         <v>102.72</v>
@@ -1598,7 +1598,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S18" t="n">
-        <v>861.1323525032484</v>
+        <v>90.6494476308728</v>
       </c>
     </row>
     <row r="19">
@@ -1628,7 +1628,7 @@
         <v>10.33333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>44.1</v>
+        <v>6.722222222222223</v>
       </c>
       <c r="I19" t="n">
         <v>102.45</v>
@@ -1661,7 +1661,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S19" t="n">
-        <v>731.6643248057593</v>
+        <v>78.29976672217495</v>
       </c>
     </row>
     <row r="20">
@@ -1691,7 +1691,7 @@
         <v>11.05555555555556</v>
       </c>
       <c r="H20" t="n">
-        <v>44.2</v>
+        <v>6.777777777777779</v>
       </c>
       <c r="I20" t="n">
         <v>102.36</v>
@@ -1724,7 +1724,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S20" t="n">
-        <v>700.9451393724307</v>
+        <v>74.9086450949965</v>
       </c>
     </row>
     <row r="21">
@@ -1754,7 +1754,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H21" t="n">
-        <v>40.2</v>
+        <v>4.555555555555557</v>
       </c>
       <c r="I21" t="n">
         <v>102.31</v>
@@ -1787,7 +1787,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S21" t="n">
-        <v>541.1781209395056</v>
+        <v>61.21781054924806</v>
       </c>
     </row>
     <row r="22">
@@ -1817,7 +1817,7 @@
         <v>10.5</v>
       </c>
       <c r="H22" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I22" t="n">
         <v>102.1</v>
@@ -1850,7 +1850,7 @@
         <v>0.02621867768595042</v>
       </c>
       <c r="S22" t="n">
-        <v>704.9626391559955</v>
+        <v>75.96798538892008</v>
       </c>
     </row>
     <row r="23">
@@ -1880,7 +1880,7 @@
         <v>10.05555555555556</v>
       </c>
       <c r="H23" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I23" t="n">
         <v>101.66</v>
@@ -1913,7 +1913,7 @@
         <v>0.01016</v>
       </c>
       <c r="S23" t="n">
-        <v>943.3240755381554</v>
+        <v>94.91266383921581</v>
       </c>
     </row>
     <row r="24">
@@ -1943,7 +1943,7 @@
         <v>9.166666666666668</v>
       </c>
       <c r="H24" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I24" t="n">
         <v>101.76</v>
@@ -1976,7 +1976,7 @@
         <v>0.01016</v>
       </c>
       <c r="S24" t="n">
-        <v>937.5815873583416</v>
+        <v>95.95538679337481</v>
       </c>
     </row>
     <row r="25">
@@ -2006,7 +2006,7 @@
         <v>7.11111111111111</v>
       </c>
       <c r="H25" t="n">
-        <v>44</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="I25" t="n">
         <v>102.15</v>
@@ -2039,7 +2039,7 @@
         <v>0.012192</v>
       </c>
       <c r="S25" t="n">
-        <v>905.1138419044094</v>
+        <v>96.99588384623617</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>7.277777777777779</v>
       </c>
       <c r="H26" t="n">
-        <v>44.5</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="I26" t="n">
         <v>102.21</v>
@@ -2102,7 +2102,7 @@
         <v>0.014224</v>
       </c>
       <c r="S26" t="n">
-        <v>918.3996465934418</v>
+        <v>97.74230879397759</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>7.666666666666665</v>
       </c>
       <c r="H27" t="n">
-        <v>45</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="I27" t="n">
         <v>102.12</v>
@@ -2165,7 +2165,7 @@
         <v>0.016256</v>
       </c>
       <c r="S27" t="n">
-        <v>917.7818499795914</v>
+        <v>97.00896979086006</v>
       </c>
     </row>
     <row r="28">
@@ -2195,7 +2195,7 @@
         <v>5.999999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>41.6</v>
+        <v>5.333333333333334</v>
       </c>
       <c r="I28" t="n">
         <v>102.45</v>
@@ -2228,7 +2228,7 @@
         <v>0.018288</v>
       </c>
       <c r="S28" t="n">
-        <v>861.3799198103081</v>
+        <v>95.4848618990919</v>
       </c>
     </row>
     <row r="29">
@@ -2258,7 +2258,7 @@
         <v>3.777777777777776</v>
       </c>
       <c r="H29" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I29" t="n">
         <v>102.42</v>
@@ -2291,7 +2291,7 @@
         <v>0.02032</v>
       </c>
       <c r="S29" t="n">
-        <v>811.3995445425935</v>
+        <v>95.40513827787585</v>
       </c>
     </row>
     <row r="30">
@@ -2321,7 +2321,7 @@
         <v>2.166666666666666</v>
       </c>
       <c r="H30" t="n">
-        <v>34.3</v>
+        <v>1.277777777777776</v>
       </c>
       <c r="I30" t="n">
         <v>102.37</v>
@@ -2354,7 +2354,7 @@
         <v>0.018288</v>
       </c>
       <c r="S30" t="n">
-        <v>758.2749117655028</v>
+        <v>93.83792244653257</v>
       </c>
     </row>
     <row r="31">
@@ -2384,7 +2384,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>32.7</v>
+        <v>0.3888888888888905</v>
       </c>
       <c r="I31" t="n">
         <v>102.74</v>
@@ -2417,7 +2417,7 @@
         <v>0.016256</v>
       </c>
       <c r="S31" t="n">
-        <v>623.3039626229408</v>
+        <v>79.13970977439742</v>
       </c>
     </row>
     <row r="32">
@@ -2447,7 +2447,7 @@
         <v>5.333333333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>36.5</v>
+        <v>2.5</v>
       </c>
       <c r="I32" t="n">
         <v>102.71</v>
@@ -2480,7 +2480,7 @@
         <v>0.014224</v>
       </c>
       <c r="S32" t="n">
-        <v>685.2978119600582</v>
+        <v>81.94235089997443</v>
       </c>
     </row>
     <row r="33">
@@ -2510,7 +2510,7 @@
         <v>4.500000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>102.72</v>
@@ -2543,7 +2543,7 @@
         <v>0.012192</v>
       </c>
       <c r="S33" t="n">
-        <v>762.9482887585285</v>
+        <v>89.98076236005843</v>
       </c>
     </row>
     <row r="34">
@@ -2573,7 +2573,7 @@
         <v>2.333333333333335</v>
       </c>
       <c r="H34" t="n">
-        <v>34.7</v>
+        <v>1.500000000000002</v>
       </c>
       <c r="I34" t="n">
         <v>102.74</v>
@@ -2606,7 +2606,7 @@
         <v>0.01016</v>
       </c>
       <c r="S34" t="n">
-        <v>766.1984984381838</v>
+        <v>94.22057775393982</v>
       </c>
     </row>
     <row r="35">
@@ -2636,7 +2636,7 @@
         <v>3.166666666666668</v>
       </c>
       <c r="H35" t="n">
-        <v>35.7</v>
+        <v>2.055555555555557</v>
       </c>
       <c r="I35" t="n">
         <v>102.7</v>
@@ -2669,7 +2669,7 @@
         <v>0.01016</v>
       </c>
       <c r="S35" t="n">
-        <v>763.3418491322018</v>
+        <v>92.41061758606941</v>
       </c>
     </row>
     <row r="36">
@@ -2699,7 +2699,7 @@
         <v>4.777777777777779</v>
       </c>
       <c r="H36" t="n">
-        <v>36.2</v>
+        <v>2.333333333333335</v>
       </c>
       <c r="I36" t="n">
         <v>102.99</v>
@@ -2732,7 +2732,7 @@
         <v>0.01016</v>
       </c>
       <c r="S36" t="n">
-        <v>700.6883690094253</v>
+        <v>84.17093217183621</v>
       </c>
     </row>
     <row r="37">
@@ -2762,7 +2762,7 @@
         <v>6.222222222222224</v>
       </c>
       <c r="H37" t="n">
-        <v>32.5</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="I37" t="n">
         <v>103.01</v>
@@ -2795,7 +2795,7 @@
         <v>0.01016</v>
       </c>
       <c r="S37" t="n">
-        <v>515.7390113963947</v>
+        <v>65.69539170346702</v>
       </c>
     </row>
     <row r="38">
@@ -2825,7 +2825,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H38" t="n">
-        <v>33.2</v>
+        <v>0.6666666666666683</v>
       </c>
       <c r="I38" t="n">
         <v>102.63</v>
@@ -2858,7 +2858,7 @@
         <v>0.01016</v>
       </c>
       <c r="S38" t="n">
-        <v>648.6739041547237</v>
+        <v>81.698145637412</v>
       </c>
     </row>
     <row r="39">
@@ -2888,7 +2888,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>33.9</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="I39" t="n">
         <v>102.54</v>
@@ -2921,7 +2921,7 @@
         <v>0.01016</v>
       </c>
       <c r="S39" t="n">
-        <v>750.3971708299787</v>
+        <v>93.45562002372361</v>
       </c>
     </row>
     <row r="40">
@@ -2951,7 +2951,7 @@
         <v>3.666666666666667</v>
       </c>
       <c r="H40" t="n">
-        <v>34</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I40" t="n">
         <v>102.73</v>
@@ -2984,7 +2984,7 @@
         <v>0.01016</v>
       </c>
       <c r="S40" t="n">
-        <v>670.4923833816049</v>
+        <v>83.37119173147215</v>
       </c>
     </row>
     <row r="41">
@@ -3014,7 +3014,7 @@
         <v>3.38888888888889</v>
       </c>
       <c r="H41" t="n">
-        <v>36.7</v>
+        <v>2.611111111111113</v>
       </c>
       <c r="I41" t="n">
         <v>102.57</v>
@@ -3047,7 +3047,7 @@
         <v>0.01016</v>
       </c>
       <c r="S41" t="n">
-        <v>793.9370662667077</v>
+        <v>94.64137113313603</v>
       </c>
     </row>
     <row r="42">
@@ -3077,7 +3077,7 @@
         <v>5.333333333333334</v>
       </c>
       <c r="H42" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I42" t="n">
         <v>102.29</v>
@@ -3110,7 +3110,7 @@
         <v>0.01016</v>
       </c>
       <c r="S42" t="n">
-        <v>776.697266043555</v>
+        <v>89.69325858134361</v>
       </c>
     </row>
     <row r="43">
@@ -3140,7 +3140,7 @@
         <v>5.611111111111112</v>
       </c>
       <c r="H43" t="n">
-        <v>41.1</v>
+        <v>5.055555555555556</v>
       </c>
       <c r="I43" t="n">
         <v>102.26</v>
@@ -3173,7 +3173,7 @@
         <v>0.01016</v>
       </c>
       <c r="S43" t="n">
-        <v>861.7310017764986</v>
+        <v>96.21304294288186</v>
       </c>
     </row>
     <row r="44">
@@ -3203,7 +3203,7 @@
         <v>6.444444444444446</v>
       </c>
       <c r="H44" t="n">
-        <v>41.9</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="I44" t="n">
         <v>102.24</v>
@@ -3236,7 +3236,7 @@
         <v>0.01016</v>
       </c>
       <c r="S44" t="n">
-        <v>848.7245425712171</v>
+        <v>93.67925945740598</v>
       </c>
     </row>
     <row r="45">
@@ -3266,7 +3266,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>42.6</v>
+        <v>5.88888888888889</v>
       </c>
       <c r="I45" t="n">
         <v>102.26</v>
@@ -3299,7 +3299,7 @@
         <v>0.01016</v>
       </c>
       <c r="S45" t="n">
-        <v>867.2516593270915</v>
+        <v>94.77737428026751</v>
       </c>
     </row>
     <row r="46">
@@ -3329,7 +3329,7 @@
         <v>8.722222222222225</v>
       </c>
       <c r="H46" t="n">
-        <v>39.7</v>
+        <v>4.277777777777779</v>
       </c>
       <c r="I46" t="n">
         <v>102.39</v>
@@ -3362,7 +3362,7 @@
         <v>0.01016</v>
       </c>
       <c r="S46" t="n">
-        <v>646.2326714338129</v>
+        <v>73.63939512097953</v>
       </c>
     </row>
     <row r="47">
@@ -3392,7 +3392,7 @@
         <v>8.722222222222225</v>
       </c>
       <c r="H47" t="n">
-        <v>38.1</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="I47" t="n">
         <v>102.24</v>
@@ -3425,7 +3425,7 @@
         <v>0.01016</v>
       </c>
       <c r="S47" t="n">
-        <v>592.787507825286</v>
+        <v>69.17642493225641</v>
       </c>
     </row>
     <row r="48">
@@ -3455,7 +3455,7 @@
         <v>9.666666666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>40.7</v>
+        <v>4.833333333333335</v>
       </c>
       <c r="I48" t="n">
         <v>102.02</v>
@@ -3488,7 +3488,7 @@
         <v>0.01016</v>
       </c>
       <c r="S48" t="n">
-        <v>639.6873076878445</v>
+        <v>71.83623827742119</v>
       </c>
     </row>
     <row r="49">
@@ -3518,7 +3518,7 @@
         <v>3.833333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>37.6</v>
+        <v>3.111111111111112</v>
       </c>
       <c r="I49" t="n">
         <v>102.17</v>
@@ -3551,7 +3551,7 @@
         <v>0.01016</v>
       </c>
       <c r="S49" t="n">
-        <v>808.2344869629092</v>
+        <v>95.03298776574132</v>
       </c>
     </row>
     <row r="50">
@@ -3581,7 +3581,7 @@
         <v>4.000000000000002</v>
       </c>
       <c r="H50" t="n">
-        <v>37.7</v>
+        <v>3.166666666666668</v>
       </c>
       <c r="I50" t="n">
         <v>102.49</v>
@@ -3614,7 +3614,7 @@
         <v>0.01016</v>
       </c>
       <c r="S50" t="n">
-        <v>803.1816599095512</v>
+        <v>94.29602377038951</v>
       </c>
     </row>
     <row r="51">
@@ -3644,7 +3644,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>30.8</v>
+        <v>-0.6666666666666663</v>
       </c>
       <c r="I51" t="n">
         <v>103.07</v>
@@ -3677,7 +3677,7 @@
         <v>0.01016</v>
       </c>
       <c r="S51" t="n">
-        <v>540.2251706669081</v>
+        <v>70.76644764877209</v>
       </c>
     </row>
     <row r="52">
@@ -3707,7 +3707,7 @@
         <v>4.055555555555554</v>
       </c>
       <c r="H52" t="n">
-        <v>21.6</v>
+        <v>-5.777777777777778</v>
       </c>
       <c r="I52" t="n">
         <v>103.23</v>
@@ -3740,7 +3740,7 @@
         <v>0.01016</v>
       </c>
       <c r="S52" t="n">
-        <v>315.8986647063158</v>
+        <v>48.72675427036315</v>
       </c>
     </row>
     <row r="53">
@@ -3770,7 +3770,7 @@
         <v>4.111111111111111</v>
       </c>
       <c r="H53" t="n">
-        <v>27.7</v>
+        <v>-2.388888888888889</v>
       </c>
       <c r="I53" t="n">
         <v>103.18</v>
@@ -3803,7 +3803,7 @@
         <v>0.01016</v>
       </c>
       <c r="S53" t="n">
-        <v>453.3132094714709</v>
+        <v>62.59729376776182</v>
       </c>
     </row>
     <row r="54">
@@ -3833,7 +3833,7 @@
         <v>1.944444444444445</v>
       </c>
       <c r="H54" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I54" t="n">
         <v>103.33</v>
@@ -3866,7 +3866,7 @@
         <v>0.01016</v>
       </c>
       <c r="S54" t="n">
-        <v>716.2884551278335</v>
+        <v>90.50536334564937</v>
       </c>
     </row>
     <row r="55">
@@ -3896,7 +3896,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H55" t="n">
-        <v>33.2</v>
+        <v>0.6666666666666683</v>
       </c>
       <c r="I55" t="n">
         <v>103.38</v>
@@ -3929,7 +3929,7 @@
         <v>0.01016</v>
       </c>
       <c r="S55" t="n">
-        <v>651.2209952918186</v>
+        <v>82.01894260694834</v>
       </c>
     </row>
     <row r="56">
@@ -3959,7 +3959,7 @@
         <v>6.722222222222223</v>
       </c>
       <c r="H56" t="n">
-        <v>32.5</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="I56" t="n">
         <v>103.08</v>
@@ -3992,7 +3992,7 @@
         <v>0.01016</v>
       </c>
       <c r="S56" t="n">
-        <v>498.2848995027796</v>
+        <v>63.47206809918401</v>
       </c>
     </row>
     <row r="57">
@@ -4022,7 +4022,7 @@
         <v>7.5</v>
       </c>
       <c r="H57" t="n">
-        <v>34.9</v>
+        <v>1.61111111111111</v>
       </c>
       <c r="I57" t="n">
         <v>102.67</v>
@@ -4055,7 +4055,7 @@
         <v>0.01016</v>
       </c>
       <c r="S57" t="n">
-        <v>540.3835260770749</v>
+        <v>66.24279762091165</v>
       </c>
     </row>
     <row r="58">
@@ -4085,7 +4085,7 @@
         <v>8.777777777777777</v>
       </c>
       <c r="H58" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I58" t="n">
         <v>102.48</v>
@@ -4118,7 +4118,7 @@
         <v>0.01016</v>
       </c>
       <c r="S58" t="n">
-        <v>636.933905397762</v>
+        <v>72.79396352055765</v>
       </c>
     </row>
     <row r="59">
@@ -4148,7 +4148,7 @@
         <v>14.61111111111111</v>
       </c>
       <c r="H59" t="n">
-        <v>43.9</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="I59" t="n">
         <v>101.93</v>
@@ -4181,7 +4181,7 @@
         <v>0.01016</v>
       </c>
       <c r="S59" t="n">
-        <v>546.7440232649406</v>
+        <v>58.67275594242381</v>
       </c>
     </row>
     <row r="60">
@@ -4211,7 +4211,7 @@
         <v>18.05555555555556</v>
       </c>
       <c r="H60" t="n">
-        <v>51.5</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="I60" t="n">
         <v>101.65</v>
@@ -4244,7 +4244,7 @@
         <v>0.01016</v>
       </c>
       <c r="S60" t="n">
-        <v>645.5788952671043</v>
+        <v>62.67976772973872</v>
       </c>
     </row>
     <row r="61">
@@ -4274,7 +4274,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H61" t="n">
-        <v>47</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I61" t="n">
         <v>102.18</v>
@@ -4307,7 +4307,7 @@
         <v>0.01016</v>
       </c>
       <c r="S61" t="n">
-        <v>738.6727616053543</v>
+        <v>76.00031746811501</v>
       </c>
     </row>
     <row r="62">
@@ -4337,7 +4337,7 @@
         <v>13.22222222222222</v>
       </c>
       <c r="H62" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I62" t="n">
         <v>102.03</v>
@@ -4370,7 +4370,7 @@
         <v>0.01016</v>
       </c>
       <c r="S62" t="n">
-        <v>640.0707291227183</v>
+        <v>67.47063400586511</v>
       </c>
     </row>
     <row r="63">
@@ -4400,7 +4400,7 @@
         <v>16.61111111111111</v>
       </c>
       <c r="H63" t="n">
-        <v>49.6</v>
+        <v>9.777777777777779</v>
       </c>
       <c r="I63" t="n">
         <v>101.54</v>
@@ -4433,7 +4433,7 @@
         <v>0.01016</v>
       </c>
       <c r="S63" t="n">
-        <v>643.518451292564</v>
+        <v>64.00014509499914</v>
       </c>
     </row>
     <row r="64">
@@ -4463,7 +4463,7 @@
         <v>16.5</v>
       </c>
       <c r="H64" t="n">
-        <v>55.1</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="I64" t="n">
         <v>101.58</v>
@@ -4496,7 +4496,7 @@
         <v>0.01016</v>
       </c>
       <c r="S64" t="n">
-        <v>849.2987113381253</v>
+        <v>78.92150066912527</v>
       </c>
     </row>
     <row r="65">
@@ -4526,7 +4526,7 @@
         <v>19</v>
       </c>
       <c r="H65" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I65" t="n">
         <v>101.65</v>
@@ -4559,7 +4559,7 @@
         <v>0.01016</v>
       </c>
       <c r="S65" t="n">
-        <v>394.7452587247769</v>
+        <v>42.89713471514479</v>
       </c>
     </row>
     <row r="66">
@@ -4589,7 +4589,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H66" t="n">
-        <v>45.7</v>
+        <v>7.611111111111113</v>
       </c>
       <c r="I66" t="n">
         <v>101.92</v>
@@ -4622,7 +4622,7 @@
         <v>0.01016</v>
       </c>
       <c r="S66" t="n">
-        <v>853.0976084830311</v>
+        <v>89.31736644920413</v>
       </c>
     </row>
     <row r="67">
@@ -4652,7 +4652,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H67" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I67" t="n">
         <v>102.29</v>
@@ -4685,7 +4685,7 @@
         <v>0.01016</v>
       </c>
       <c r="S67" t="n">
-        <v>618.6941710719592</v>
+        <v>68.78000221929645</v>
       </c>
     </row>
     <row r="68">
@@ -4715,7 +4715,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>41.2</v>
+        <v>5.111111111111112</v>
       </c>
       <c r="I68" t="n">
         <v>101.84</v>
@@ -4748,7 +4748,7 @@
         <v>0.01016</v>
       </c>
       <c r="S68" t="n">
-        <v>521.0332240489811</v>
+        <v>58.09000641403595</v>
       </c>
     </row>
     <row r="69">
@@ -4778,7 +4778,7 @@
         <v>16.88888888888889</v>
       </c>
       <c r="H69" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I69" t="n">
         <v>101.67</v>
@@ -4811,7 +4811,7 @@
         <v>0.01016</v>
       </c>
       <c r="S69" t="n">
-        <v>450.8485267402107</v>
+        <v>48.9939006491871</v>
       </c>
     </row>
     <row r="70">
@@ -4841,7 +4841,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H70" t="n">
-        <v>48.4</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="I70" t="n">
         <v>101.43</v>
@@ -4874,7 +4874,7 @@
         <v>0.01016</v>
       </c>
       <c r="S70" t="n">
-        <v>528.452492397332</v>
+        <v>53.37825373107876</v>
       </c>
     </row>
     <row r="71">
@@ -4904,7 +4904,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H71" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I71" t="n">
         <v>101.31</v>
@@ -4937,7 +4937,7 @@
         <v>0.01016</v>
       </c>
       <c r="S71" t="n">
-        <v>523.5925746735952</v>
+        <v>51.21995716182428</v>
       </c>
     </row>
     <row r="72">
@@ -4967,7 +4967,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H72" t="n">
-        <v>56.5</v>
+        <v>13.61111111111111</v>
       </c>
       <c r="I72" t="n">
         <v>101.07</v>
@@ -5000,7 +5000,7 @@
         <v>0.01016</v>
       </c>
       <c r="S72" t="n">
-        <v>627.5079538743652</v>
+        <v>57.35912927991698</v>
       </c>
     </row>
     <row r="73">
@@ -5030,7 +5030,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H73" t="n">
-        <v>61</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="I73" t="n">
         <v>101.08</v>
@@ -5063,7 +5063,7 @@
         <v>0.01016</v>
       </c>
       <c r="S73" t="n">
-        <v>783.5656356197381</v>
+        <v>68.07621935111102</v>
       </c>
     </row>
     <row r="74">
@@ -5093,7 +5093,7 @@
         <v>21</v>
       </c>
       <c r="H74" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I74" t="n">
         <v>101.27</v>
@@ -5126,7 +5126,7 @@
         <v>0.01016</v>
       </c>
       <c r="S74" t="n">
-        <v>895.6313649702157</v>
+        <v>76.80622670579747</v>
       </c>
     </row>
     <row r="75">
@@ -5156,7 +5156,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H75" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I75" t="n">
         <v>101.12</v>
@@ -5189,7 +5189,7 @@
         <v>0.01016</v>
       </c>
       <c r="S75" t="n">
-        <v>852.4891478261218</v>
+        <v>73.6617420884471</v>
       </c>
     </row>
     <row r="76">
@@ -5219,7 +5219,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>63.8</v>
+        <v>17.66666666666666</v>
       </c>
       <c r="I76" t="n">
         <v>100.75</v>
@@ -5252,7 +5252,7 @@
         <v>0.01016</v>
       </c>
       <c r="S76" t="n">
-        <v>771.5408236144488</v>
+        <v>65.04816822564223</v>
       </c>
     </row>
     <row r="77">
@@ -5282,7 +5282,7 @@
         <v>14.11111111111111</v>
       </c>
       <c r="H77" t="n">
-        <v>51.9</v>
+        <v>11.05555555555556</v>
       </c>
       <c r="I77" t="n">
         <v>101.11</v>
@@ -5315,7 +5315,7 @@
         <v>0.01016</v>
       </c>
       <c r="S77" t="n">
-        <v>847.064410899999</v>
+        <v>81.83350327249666</v>
       </c>
     </row>
     <row r="78">
@@ -5345,7 +5345,7 @@
         <v>12.77777777777778</v>
       </c>
       <c r="H78" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I78" t="n">
         <v>101.37</v>
@@ -5378,7 +5378,7 @@
         <v>0.01016</v>
       </c>
       <c r="S78" t="n">
-        <v>730.0986085561183</v>
+        <v>74.91895770831466</v>
       </c>
     </row>
     <row r="79">
@@ -5408,7 +5408,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>50.7</v>
+        <v>10.38888888888889</v>
       </c>
       <c r="I79" t="n">
         <v>101.24</v>
@@ -5441,7 +5441,7 @@
         <v>0.01016</v>
       </c>
       <c r="S79" t="n">
-        <v>745.6147255476856</v>
+        <v>73.12325404554433</v>
       </c>
     </row>
     <row r="80">
@@ -5471,7 +5471,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H80" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I80" t="n">
         <v>101.45</v>
@@ -5504,7 +5504,7 @@
         <v>0.01016</v>
       </c>
       <c r="S80" t="n">
-        <v>892.6210403189442</v>
+        <v>89.46275143098508</v>
       </c>
     </row>
     <row r="81">
@@ -5534,7 +5534,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H81" t="n">
-        <v>47.5</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="I81" t="n">
         <v>101.6</v>
@@ -5567,7 +5567,7 @@
         <v>0.01016</v>
       </c>
       <c r="S81" t="n">
-        <v>935.3317542693956</v>
+        <v>95.5987489422334</v>
       </c>
     </row>
     <row r="82">
@@ -5597,7 +5597,7 @@
         <v>8.555555555555555</v>
       </c>
       <c r="H82" t="n">
-        <v>45.2</v>
+        <v>7.333333333333335</v>
       </c>
       <c r="I82" t="n">
         <v>102.07</v>
@@ -5630,7 +5630,7 @@
         <v>0.01016</v>
       </c>
       <c r="S82" t="n">
-        <v>872.9508410128959</v>
+        <v>92.01880982718841</v>
       </c>
     </row>
     <row r="83">
@@ -5660,7 +5660,7 @@
         <v>10.66666666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>44.9</v>
+        <v>7.166666666666666</v>
       </c>
       <c r="I83" t="n">
         <v>101.99</v>
@@ -5693,7 +5693,7 @@
         <v>0.01016</v>
       </c>
       <c r="S83" t="n">
-        <v>745.8994504918063</v>
+        <v>78.94902171274229</v>
       </c>
     </row>
     <row r="84">
@@ -5723,7 +5723,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H84" t="n">
-        <v>52.2</v>
+        <v>11.22222222222222</v>
       </c>
       <c r="I84" t="n">
         <v>101.16</v>
@@ -5756,7 +5756,7 @@
         <v>0.01016</v>
       </c>
       <c r="S84" t="n">
-        <v>763.9716419139403</v>
+        <v>73.53215961771103</v>
       </c>
     </row>
     <row r="85">
@@ -5786,7 +5786,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H85" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I85" t="n">
         <v>100.79</v>
@@ -5819,7 +5819,7 @@
         <v>0.01016</v>
       </c>
       <c r="S85" t="n">
-        <v>1089.99681960019</v>
+        <v>96.49787070169236</v>
       </c>
     </row>
     <row r="86">
@@ -5849,7 +5849,7 @@
         <v>13.11111111111111</v>
       </c>
       <c r="H86" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I86" t="n">
         <v>101.78</v>
@@ -5882,7 +5882,7 @@
         <v>0.01016</v>
       </c>
       <c r="S86" t="n">
-        <v>864.6729941765207</v>
+        <v>84.47945786081394</v>
       </c>
     </row>
     <row r="87">
@@ -5912,7 +5912,7 @@
         <v>12.88888888888889</v>
       </c>
       <c r="H87" t="n">
-        <v>49.5</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="I87" t="n">
         <v>102.13</v>
@@ -5945,7 +5945,7 @@
         <v>0.01016</v>
       </c>
       <c r="S87" t="n">
-        <v>814.1046662146326</v>
+        <v>81.0694922524623</v>
       </c>
     </row>
     <row r="88">
@@ -5975,7 +5975,7 @@
         <v>15.27777777777778</v>
       </c>
       <c r="H88" t="n">
-        <v>44.8</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="I88" t="n">
         <v>102.16</v>
@@ -6008,7 +6008,7 @@
         <v>0.01016</v>
       </c>
       <c r="S88" t="n">
-        <v>548.8204831840665</v>
+        <v>58.16900580612396</v>
       </c>
     </row>
     <row r="89">
@@ -6038,7 +6038,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H89" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I89" t="n">
         <v>101.82</v>
@@ -6071,7 +6071,7 @@
         <v>0.01016</v>
       </c>
       <c r="S89" t="n">
-        <v>691.5977680157534</v>
+        <v>66.4019737394481</v>
       </c>
     </row>
     <row r="90">
@@ -6101,7 +6101,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="H90" t="n">
-        <v>60.1</v>
+        <v>15.61111111111111</v>
       </c>
       <c r="I90" t="n">
         <v>101.89</v>
@@ -6134,7 +6134,7 @@
         <v>0.01016</v>
       </c>
       <c r="S90" t="n">
-        <v>993.0577298887079</v>
+        <v>87.1358633174308</v>
       </c>
     </row>
     <row r="91">
@@ -6164,7 +6164,7 @@
         <v>12.27777777777778</v>
       </c>
       <c r="H91" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I91" t="n">
         <v>102.6</v>
@@ -6197,7 +6197,7 @@
         <v>0.01016</v>
       </c>
       <c r="S91" t="n">
-        <v>908.7016717199741</v>
+        <v>88.89289678599864</v>
       </c>
     </row>
     <row r="92">
@@ -6227,7 +6227,7 @@
         <v>10.16666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="I92" t="n">
         <v>103.11</v>
@@ -6260,7 +6260,7 @@
         <v>0.01016</v>
       </c>
       <c r="S92" t="n">
-        <v>628.5681820526079</v>
+        <v>70.28161329441878</v>
       </c>
     </row>
     <row r="93">
@@ -6290,7 +6290,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H93" t="n">
-        <v>41.9</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="I93" t="n">
         <v>102.81</v>
@@ -6323,7 +6323,7 @@
         <v>0.01016</v>
       </c>
       <c r="S93" t="n">
-        <v>560.7328911458532</v>
+        <v>61.89174385934058</v>
       </c>
     </row>
     <row r="94">
@@ -6353,7 +6353,7 @@
         <v>15.61111111111111</v>
       </c>
       <c r="H94" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I94" t="n">
         <v>102.6</v>
@@ -6386,7 +6386,7 @@
         <v>0.01016</v>
       </c>
       <c r="S94" t="n">
-        <v>428.5540924577082</v>
+        <v>48.26624885019404</v>
       </c>
     </row>
     <row r="95">
@@ -6416,7 +6416,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H95" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I95" t="n">
         <v>102.38</v>
@@ -6449,7 +6449,7 @@
         <v>0.01016</v>
       </c>
       <c r="S95" t="n">
-        <v>441.4238800546329</v>
+        <v>47.96972029596404</v>
       </c>
     </row>
     <row r="96">
@@ -6479,7 +6479,7 @@
         <v>16.44444444444445</v>
       </c>
       <c r="H96" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I96" t="n">
         <v>102.11</v>
@@ -6512,7 +6512,7 @@
         <v>0.01016</v>
       </c>
       <c r="S96" t="n">
-        <v>593.9809537163153</v>
+        <v>60.47035866860853</v>
       </c>
     </row>
     <row r="97">
@@ -6542,7 +6542,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H97" t="n">
-        <v>50.1</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="I97" t="n">
         <v>101.96</v>
@@ -6575,7 +6575,7 @@
         <v>0.01016</v>
       </c>
       <c r="S97" t="n">
-        <v>563.6752394304391</v>
+        <v>55.70244207708549</v>
       </c>
     </row>
     <row r="98">
@@ -6605,7 +6605,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H98" t="n">
-        <v>52.3</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="I98" t="n">
         <v>101.82</v>
@@ -6638,7 +6638,7 @@
         <v>0.01016</v>
       </c>
       <c r="S98" t="n">
-        <v>547.8455114108039</v>
+        <v>52.66492606540653</v>
       </c>
     </row>
     <row r="99">
@@ -6668,7 +6668,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>42.5</v>
+        <v>5.833333333333334</v>
       </c>
       <c r="I99" t="n">
         <v>101.52</v>
@@ -6701,7 +6701,7 @@
         <v>0.01016</v>
       </c>
       <c r="S99" t="n">
-        <v>322.7750506539288</v>
+        <v>35.32430790359693</v>
       </c>
     </row>
     <row r="100">
@@ -6731,7 +6731,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H100" t="n">
-        <v>47</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I100" t="n">
         <v>101.14</v>
@@ -6764,7 +6764,7 @@
         <v>0.01016</v>
       </c>
       <c r="S100" t="n">
-        <v>396.5814645375279</v>
+        <v>40.80334184966873</v>
       </c>
     </row>
     <row r="101">
@@ -6794,7 +6794,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H101" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I101" t="n">
         <v>101.06</v>
@@ -6827,7 +6827,7 @@
         <v>0.01016</v>
       </c>
       <c r="S101" t="n">
-        <v>529.6404661171397</v>
+        <v>49.80929505332013</v>
       </c>
     </row>
     <row r="102">
@@ -6857,7 +6857,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H102" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I102" t="n">
         <v>100.89</v>
@@ -6890,7 +6890,7 @@
         <v>0.01016</v>
       </c>
       <c r="S102" t="n">
-        <v>598.8234011894895</v>
+        <v>53.25281556900794</v>
       </c>
     </row>
     <row r="103">
@@ -6920,7 +6920,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H103" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I103" t="n">
         <v>100.61</v>
@@ -6953,7 +6953,7 @@
         <v>0.01016</v>
       </c>
       <c r="S103" t="n">
-        <v>597.4320668262767</v>
+        <v>52.24813827099535</v>
       </c>
     </row>
     <row r="104">
@@ -6983,7 +6983,7 @@
         <v>15.05555555555556</v>
       </c>
       <c r="H104" t="n">
-        <v>56.1</v>
+        <v>13.38888888888889</v>
       </c>
       <c r="I104" t="n">
         <v>100.95</v>
@@ -7016,7 +7016,7 @@
         <v>0.01016</v>
       </c>
       <c r="S104" t="n">
-        <v>977.4595170512104</v>
+        <v>89.76585494614898</v>
       </c>
     </row>
     <row r="105">
@@ -7046,7 +7046,7 @@
         <v>17.72222222222222</v>
       </c>
       <c r="H105" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I105" t="n">
         <v>101.6</v>
@@ -7079,7 +7079,7 @@
         <v>0.01016</v>
       </c>
       <c r="S105" t="n">
-        <v>699.4037474950389</v>
+        <v>66.90397676375397</v>
       </c>
     </row>
     <row r="106">
@@ -7109,7 +7109,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H106" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I106" t="n">
         <v>101.93</v>
@@ -7142,7 +7142,7 @@
         <v>0.01016</v>
       </c>
       <c r="S106" t="n">
-        <v>741.1325773500769</v>
+        <v>74.27985287147625</v>
       </c>
     </row>
     <row r="107">
@@ -7172,7 +7172,7 @@
         <v>11.44444444444445</v>
       </c>
       <c r="H107" t="n">
-        <v>48.4</v>
+        <v>9.111111111111111</v>
       </c>
       <c r="I107" t="n">
         <v>102.03</v>
@@ -7205,7 +7205,7 @@
         <v>0.01016</v>
       </c>
       <c r="S107" t="n">
-        <v>847.1104496853352</v>
+        <v>85.56545228204574</v>
       </c>
     </row>
     <row r="108">
@@ -7235,7 +7235,7 @@
         <v>14.33333333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I108" t="n">
         <v>101.99</v>
@@ -7268,7 +7268,7 @@
         <v>0.01016</v>
       </c>
       <c r="S108" t="n">
-        <v>790.7171461098187</v>
+        <v>77.44870454045605</v>
       </c>
     </row>
     <row r="109">
@@ -7298,7 +7298,7 @@
         <v>15.33333333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I109" t="n">
         <v>102.08</v>
@@ -7331,7 +7331,7 @@
         <v>0.01016</v>
       </c>
       <c r="S109" t="n">
-        <v>814.2344340819784</v>
+        <v>77.88851840324958</v>
       </c>
     </row>
     <row r="110">
@@ -7361,7 +7361,7 @@
         <v>17</v>
       </c>
       <c r="H110" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I110" t="n">
         <v>101.98</v>
@@ -7394,7 +7394,7 @@
         <v>0.01016</v>
       </c>
       <c r="S110" t="n">
-        <v>742.9222041499482</v>
+        <v>70.80608322713223</v>
       </c>
     </row>
     <row r="111">
@@ -7424,7 +7424,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H111" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I111" t="n">
         <v>101.33</v>
@@ -7457,7 +7457,7 @@
         <v>0.01016</v>
       </c>
       <c r="S111" t="n">
-        <v>662.657818817456</v>
+        <v>63.85969930591698</v>
       </c>
     </row>
     <row r="112">
@@ -7487,7 +7487,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H112" t="n">
-        <v>57.3</v>
+        <v>14.05555555555556</v>
       </c>
       <c r="I112" t="n">
         <v>101.13</v>
@@ -7520,7 +7520,7 @@
         <v>0.01016</v>
       </c>
       <c r="S112" t="n">
-        <v>729.3877111797375</v>
+        <v>66.05678118292121</v>
       </c>
     </row>
     <row r="113">
@@ -7550,7 +7550,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H113" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I113" t="n">
         <v>101.02</v>
@@ -7583,7 +7583,7 @@
         <v>0.01016</v>
       </c>
       <c r="S113" t="n">
-        <v>1114.177719974832</v>
+        <v>90.53053975828</v>
       </c>
     </row>
     <row r="114">
@@ -7613,7 +7613,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H114" t="n">
-        <v>66.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I114" t="n">
         <v>100.98</v>
@@ -7646,7 +7646,7 @@
         <v>0.01016</v>
       </c>
       <c r="S114" t="n">
-        <v>1114.804684375857</v>
+        <v>91.12887791900464</v>
       </c>
     </row>
     <row r="115">
@@ -7676,7 +7676,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H115" t="n">
-        <v>69.40000000000001</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="I115" t="n">
         <v>100.6</v>
@@ -7709,7 +7709,7 @@
         <v>0.01016</v>
       </c>
       <c r="S115" t="n">
-        <v>952.5917213524366</v>
+        <v>75.88977836485482</v>
       </c>
     </row>
     <row r="116">
@@ -7739,7 +7739,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H116" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I116" t="n">
         <v>100.79</v>
@@ -7772,7 +7772,7 @@
         <v>0.01016</v>
       </c>
       <c r="S116" t="n">
-        <v>1098.44927853919</v>
+        <v>87.59493464360588</v>
       </c>
     </row>
     <row r="117">
@@ -7802,7 +7802,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H117" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I117" t="n">
         <v>101.01</v>
@@ -7835,7 +7835,7 @@
         <v>0.01016</v>
       </c>
       <c r="S117" t="n">
-        <v>868.9534297060151</v>
+        <v>70.81784083450763</v>
       </c>
     </row>
     <row r="118">
@@ -7865,7 +7865,7 @@
         <v>18.72222222222222</v>
       </c>
       <c r="H118" t="n">
-        <v>60.8</v>
+        <v>16</v>
       </c>
       <c r="I118" t="n">
         <v>101.08</v>
@@ -7898,7 +7898,7 @@
         <v>0.01016</v>
       </c>
       <c r="S118" t="n">
-        <v>966.8835588464816</v>
+        <v>84.18711692721976</v>
       </c>
     </row>
     <row r="119">
@@ -7928,7 +7928,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H119" t="n">
-        <v>53.1</v>
+        <v>11.72222222222222</v>
       </c>
       <c r="I119" t="n">
         <v>101.81</v>
@@ -7961,7 +7961,7 @@
         <v>0.01016</v>
       </c>
       <c r="S119" t="n">
-        <v>839.2842021425546</v>
+        <v>79.89240832568009</v>
       </c>
     </row>
     <row r="120">
@@ -7991,7 +7991,7 @@
         <v>14.38888888888889</v>
       </c>
       <c r="H120" t="n">
-        <v>54.4</v>
+        <v>12.44444444444444</v>
       </c>
       <c r="I120" t="n">
         <v>101.92</v>
@@ -8024,7 +8024,7 @@
         <v>0.01016</v>
       </c>
       <c r="S120" t="n">
-        <v>940.1329027332689</v>
+        <v>88.09526627482197</v>
       </c>
     </row>
     <row r="121">
@@ -8054,7 +8054,7 @@
         <v>14.72222222222222</v>
       </c>
       <c r="H121" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I121" t="n">
         <v>102.05</v>
@@ -8087,7 +8087,7 @@
         <v>0.01016</v>
       </c>
       <c r="S121" t="n">
-        <v>838.6337197494395</v>
+        <v>80.42008097484471</v>
       </c>
     </row>
     <row r="122">
@@ -8117,7 +8117,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H122" t="n">
-        <v>52.9</v>
+        <v>11.61111111111111</v>
       </c>
       <c r="I122" t="n">
         <v>101.52</v>
@@ -8150,7 +8150,7 @@
         <v>0.01016</v>
       </c>
       <c r="S122" t="n">
-        <v>660.9910921437564</v>
+        <v>63.07457705350152</v>
       </c>
     </row>
     <row r="123">
@@ -8180,7 +8180,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H123" t="n">
-        <v>52.3</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="I123" t="n">
         <v>101.22</v>
@@ -8213,7 +8213,7 @@
         <v>0.01016</v>
       </c>
       <c r="S123" t="n">
-        <v>538.5985440925515</v>
+        <v>51.77600603229191</v>
       </c>
     </row>
     <row r="124">
@@ -8243,7 +8243,7 @@
         <v>23</v>
       </c>
       <c r="H124" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I124" t="n">
         <v>101.18</v>
@@ -8276,7 +8276,7 @@
         <v>0.01016</v>
       </c>
       <c r="S124" t="n">
-        <v>615.4522657665118</v>
+        <v>56.06131665412143</v>
       </c>
     </row>
     <row r="125">
@@ -8306,7 +8306,7 @@
         <v>25.5</v>
       </c>
       <c r="H125" t="n">
-        <v>64.7</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I125" t="n">
         <v>101.37</v>
@@ -8339,7 +8339,7 @@
         <v>0.01016</v>
       </c>
       <c r="S125" t="n">
-        <v>764.7673634024494</v>
+        <v>63.87344551731147</v>
       </c>
     </row>
     <row r="126">
@@ -8369,7 +8369,7 @@
         <v>22</v>
       </c>
       <c r="H126" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I126" t="n">
         <v>101.37</v>
@@ -8402,7 +8402,7 @@
         <v>0.01016</v>
       </c>
       <c r="S126" t="n">
-        <v>970.2497515671392</v>
+        <v>80.53406275359217</v>
       </c>
     </row>
     <row r="127">
@@ -8432,7 +8432,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H127" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I127" t="n">
         <v>101.3</v>
@@ -8465,7 +8465,7 @@
         <v>0.01016</v>
       </c>
       <c r="S127" t="n">
-        <v>1135.699597766094</v>
+        <v>92.09516011587982</v>
       </c>
     </row>
     <row r="128">
@@ -8495,7 +8495,7 @@
         <v>19.22222222222222</v>
       </c>
       <c r="H128" t="n">
-        <v>64.2</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="I128" t="n">
         <v>101</v>
@@ -8528,7 +8528,7 @@
         <v>0.01016</v>
       </c>
       <c r="S128" t="n">
-        <v>1095.633290438698</v>
+        <v>91.98550262146554</v>
       </c>
     </row>
     <row r="129">
@@ -8558,7 +8558,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I129" t="n">
         <v>101</v>
@@ -8591,7 +8591,7 @@
         <v>0.01016</v>
       </c>
       <c r="S129" t="n">
-        <v>903.8406341182092</v>
+        <v>75.02187785129826</v>
       </c>
     </row>
     <row r="130">
@@ -8621,7 +8621,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H130" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I130" t="n">
         <v>100.84</v>
@@ -8654,7 +8654,7 @@
         <v>0.01016</v>
       </c>
       <c r="S130" t="n">
-        <v>1072.312820161501</v>
+        <v>88.91409534310958</v>
       </c>
     </row>
     <row r="131">
@@ -8684,7 +8684,7 @@
         <v>20.11111111111111</v>
       </c>
       <c r="H131" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I131" t="n">
         <v>101.05</v>
@@ -8717,7 +8717,7 @@
         <v>0.01016</v>
       </c>
       <c r="S131" t="n">
-        <v>854.3634135133976</v>
+        <v>75.04927109816812</v>
       </c>
     </row>
     <row r="132">
@@ -8747,7 +8747,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H132" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I132" t="n">
         <v>101.59</v>
@@ -8780,7 +8780,7 @@
         <v>0.01016</v>
       </c>
       <c r="S132" t="n">
-        <v>905.70302468458</v>
+        <v>81.93036522766842</v>
       </c>
     </row>
     <row r="133">
@@ -8810,7 +8810,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I133" t="n">
         <v>101.79</v>
@@ -8843,7 +8843,7 @@
         <v>0.01016</v>
       </c>
       <c r="S133" t="n">
-        <v>777.0238017839685</v>
+        <v>74.60393377066238</v>
       </c>
     </row>
     <row r="134">
@@ -8873,7 +8873,7 @@
         <v>19.38888888888889</v>
       </c>
       <c r="H134" t="n">
-        <v>51.1</v>
+        <v>10.61111111111111</v>
       </c>
       <c r="I134" t="n">
         <v>101.61</v>
@@ -8906,7 +8906,7 @@
         <v>0.01016</v>
       </c>
       <c r="S134" t="n">
-        <v>582.256423282995</v>
+        <v>56.81562154886567</v>
       </c>
     </row>
     <row r="135">
@@ -8936,7 +8936,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H135" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I135" t="n">
         <v>101.58</v>
@@ -8969,7 +8969,7 @@
         <v>0.01016</v>
       </c>
       <c r="S135" t="n">
-        <v>610.2767364622422</v>
+        <v>57.25473123405188</v>
       </c>
     </row>
     <row r="136">
@@ -8999,7 +8999,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H136" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I136" t="n">
         <v>101.54</v>
@@ -9032,7 +9032,7 @@
         <v>0.01016</v>
       </c>
       <c r="S136" t="n">
-        <v>639.6068878414235</v>
+        <v>58.19406010211464</v>
       </c>
     </row>
     <row r="137">
@@ -9062,7 +9062,7 @@
         <v>19.44444444444445</v>
       </c>
       <c r="H137" t="n">
-        <v>57.5</v>
+        <v>14.16666666666667</v>
       </c>
       <c r="I137" t="n">
         <v>101.3</v>
@@ -9095,7 +9095,7 @@
         <v>0.01016</v>
       </c>
       <c r="S137" t="n">
-        <v>791.5491687326617</v>
+        <v>71.52169102046993</v>
       </c>
     </row>
     <row r="138">
@@ -9125,7 +9125,7 @@
         <v>20.11111111111111</v>
       </c>
       <c r="H138" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I138" t="n">
         <v>101.05</v>
@@ -9158,7 +9158,7 @@
         <v>0.01016</v>
       </c>
       <c r="S138" t="n">
-        <v>968.1276539215188</v>
+        <v>82.57950252933063</v>
       </c>
     </row>
     <row r="139">
@@ -9188,7 +9188,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H139" t="n">
-        <v>64.2</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="I139" t="n">
         <v>100.88</v>
@@ -9221,7 +9221,7 @@
         <v>0.01016</v>
       </c>
       <c r="S139" t="n">
-        <v>883.4005241077181</v>
+        <v>74.16718890823182</v>
       </c>
     </row>
     <row r="140">
@@ -9251,7 +9251,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H140" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I140" t="n">
         <v>101.07</v>
@@ -9284,7 +9284,7 @@
         <v>0.01016</v>
       </c>
       <c r="S140" t="n">
-        <v>1111.289151420028</v>
+        <v>92.33592916993723</v>
       </c>
     </row>
     <row r="141">
@@ -9314,7 +9314,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H141" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I141" t="n">
         <v>101.13</v>
@@ -9347,7 +9347,7 @@
         <v>0.01016</v>
       </c>
       <c r="S141" t="n">
-        <v>934.9450103502438</v>
+        <v>75.96730298397115</v>
       </c>
     </row>
     <row r="142">
@@ -9377,7 +9377,7 @@
         <v>26.11111111111111</v>
       </c>
       <c r="H142" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I142" t="n">
         <v>100.76</v>
@@ -9410,7 +9410,7 @@
         <v>0.01016</v>
       </c>
       <c r="S142" t="n">
-        <v>796.2390850438032</v>
+        <v>65.35178121588153</v>
       </c>
     </row>
     <row r="143">
@@ -9440,7 +9440,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H143" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I143" t="n">
         <v>100.65</v>
@@ -9473,7 +9473,7 @@
         <v>0.01016</v>
       </c>
       <c r="S143" t="n">
-        <v>944.3589075503222</v>
+        <v>77.66638252480469</v>
       </c>
     </row>
     <row r="144">
@@ -9503,7 +9503,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H144" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I144" t="n">
         <v>100.58</v>
@@ -9536,7 +9536,7 @@
         <v>0.01016</v>
       </c>
       <c r="S144" t="n">
-        <v>1043.858557673753</v>
+        <v>82.52004682738819</v>
       </c>
     </row>
     <row r="145">
@@ -9566,7 +9566,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H145" t="n">
-        <v>69.09999999999999</v>
+        <v>20.61111111111111</v>
       </c>
       <c r="I145" t="n">
         <v>100.36</v>
@@ -9599,7 +9599,7 @@
         <v>0.01016</v>
       </c>
       <c r="S145" t="n">
-        <v>1165.033882684586</v>
+        <v>93.08599301028528</v>
       </c>
     </row>
     <row r="146">
@@ -9629,7 +9629,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H146" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I146" t="n">
         <v>100.33</v>
@@ -9662,7 +9662,7 @@
         <v>0.01016</v>
       </c>
       <c r="S146" t="n">
-        <v>1319.117868444281</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147">
@@ -9692,7 +9692,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H147" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I147" t="n">
         <v>100.62</v>
@@ -9725,7 +9725,7 @@
         <v>0.01016</v>
       </c>
       <c r="S147" t="n">
-        <v>1146.865636810091</v>
+        <v>87.25700739783089</v>
       </c>
     </row>
     <row r="148">
@@ -9755,7 +9755,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H148" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I148" t="n">
         <v>100.62</v>
@@ -9788,7 +9788,7 @@
         <v>0.01016</v>
       </c>
       <c r="S148" t="n">
-        <v>1219.532336869198</v>
+        <v>92.6177639981576</v>
       </c>
     </row>
     <row r="149">
@@ -9818,7 +9818,7 @@
         <v>25.33333333333333</v>
       </c>
       <c r="H149" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I149" t="n">
         <v>100.49</v>
@@ -9851,7 +9851,7 @@
         <v>0.01016</v>
       </c>
       <c r="S149" t="n">
-        <v>1162.596910625748</v>
+        <v>88.69544797772141</v>
       </c>
     </row>
     <row r="150">
@@ -9881,7 +9881,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H150" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I150" t="n">
         <v>100.42</v>
@@ -9914,7 +9914,7 @@
         <v>0.01016</v>
       </c>
       <c r="S150" t="n">
-        <v>1237.284698048797</v>
+        <v>95.08782360654442</v>
       </c>
     </row>
     <row r="151">
@@ -9944,7 +9944,7 @@
         <v>25</v>
       </c>
       <c r="H151" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I151" t="n">
         <v>100.33</v>
@@ -9977,7 +9977,7 @@
         <v>0.01016</v>
       </c>
       <c r="S151" t="n">
-        <v>1280.077716253327</v>
+        <v>96.08976644482368</v>
       </c>
     </row>
     <row r="152">
@@ -10007,7 +10007,7 @@
         <v>22.5</v>
       </c>
       <c r="H152" t="n">
-        <v>69.7</v>
+        <v>20.94444444444445</v>
       </c>
       <c r="I152" t="n">
         <v>100.11</v>
@@ -10040,7 +10040,7 @@
         <v>0.01016</v>
       </c>
       <c r="S152" t="n">
-        <v>1144.628899213039</v>
+        <v>90.92373028226346</v>
       </c>
     </row>
     <row r="153">
@@ -10070,7 +10070,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H153" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I153" t="n">
         <v>100.56</v>
@@ -10103,7 +10103,7 @@
         <v>0.01016</v>
       </c>
       <c r="S153" t="n">
-        <v>682.6961142722819</v>
+        <v>54.92320221938809</v>
       </c>
     </row>
     <row r="154">
@@ -10133,7 +10133,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H154" t="n">
-        <v>68.3</v>
+        <v>20.16666666666666</v>
       </c>
       <c r="I154" t="n">
         <v>100.6</v>
@@ -10166,7 +10166,7 @@
         <v>0.01016</v>
       </c>
       <c r="S154" t="n">
-        <v>795.889432476586</v>
+        <v>64.09286037005644</v>
       </c>
     </row>
     <row r="155">
@@ -10196,7 +10196,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I155" t="n">
         <v>100.74</v>
@@ -10229,7 +10229,7 @@
         <v>0.01016</v>
       </c>
       <c r="S155" t="n">
-        <v>1000.122575916726</v>
+        <v>82.25252277688959</v>
       </c>
     </row>
     <row r="156">
@@ -10259,7 +10259,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I156" t="n">
         <v>100.87</v>
@@ -10292,7 +10292,7 @@
         <v>0.01016</v>
       </c>
       <c r="S156" t="n">
-        <v>949.6658949212529</v>
+        <v>77.94437494821526</v>
       </c>
     </row>
     <row r="157">
@@ -10322,7 +10322,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H157" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I157" t="n">
         <v>100.57</v>
@@ -10355,7 +10355,7 @@
         <v>0.01016</v>
       </c>
       <c r="S157" t="n">
-        <v>1064.699610887391</v>
+        <v>83.92573245762905</v>
       </c>
     </row>
     <row r="158">
@@ -10385,7 +10385,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H158" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I158" t="n">
         <v>100.73</v>
@@ -10418,7 +10418,7 @@
         <v>0.01016</v>
       </c>
       <c r="S158" t="n">
-        <v>998.5468439425706</v>
+        <v>78.7866235595779</v>
       </c>
     </row>
     <row r="159">
@@ -10448,7 +10448,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H159" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I159" t="n">
         <v>100.81</v>
@@ -10481,7 +10481,7 @@
         <v>0.01016</v>
       </c>
       <c r="S159" t="n">
-        <v>1029.04996794137</v>
+        <v>79.01178384860727</v>
       </c>
     </row>
     <row r="160">
@@ -10511,7 +10511,7 @@
         <v>26.5</v>
       </c>
       <c r="H160" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I160" t="n">
         <v>100.71</v>
@@ -10544,7 +10544,7 @@
         <v>0.01016</v>
       </c>
       <c r="S160" t="n">
-        <v>1052.907820921455</v>
+        <v>80.84362057323723</v>
       </c>
     </row>
     <row r="161">
@@ -10574,7 +10574,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H161" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I161" t="n">
         <v>100.48</v>
@@ -10607,7 +10607,7 @@
         <v>0.01016</v>
       </c>
       <c r="S161" t="n">
-        <v>1002.52588306224</v>
+        <v>76.9752303997553</v>
       </c>
     </row>
     <row r="162">
@@ -10637,7 +10637,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H162" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I162" t="n">
         <v>100.45</v>
@@ -10670,7 +10670,7 @@
         <v>0.01016</v>
       </c>
       <c r="S162" t="n">
-        <v>1229.032216050706</v>
+        <v>94.45360372668318</v>
       </c>
     </row>
     <row r="163">
@@ -10700,7 +10700,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="H163" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I163" t="n">
         <v>100.3</v>
@@ -10733,7 +10733,7 @@
         <v>0.01016</v>
       </c>
       <c r="S163" t="n">
-        <v>1281.221342918132</v>
+        <v>99.6619639676356</v>
       </c>
     </row>
     <row r="164">
@@ -10763,7 +10763,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H164" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I164" t="n">
         <v>100.18</v>
@@ -10796,7 +10796,7 @@
         <v>0.01016</v>
       </c>
       <c r="S164" t="n">
-        <v>1284.318035297711</v>
+        <v>97.36188600131601</v>
       </c>
     </row>
     <row r="165">
@@ -10826,7 +10826,7 @@
         <v>25.5</v>
       </c>
       <c r="H165" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I165" t="n">
         <v>100.36</v>
@@ -10859,7 +10859,7 @@
         <v>0.01016</v>
       </c>
       <c r="S165" t="n">
-        <v>1263.638013967057</v>
+        <v>94.52032365907328</v>
       </c>
     </row>
     <row r="166">
@@ -10889,7 +10889,7 @@
         <v>24.61111111111111</v>
       </c>
       <c r="H166" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I166" t="n">
         <v>100.68</v>
@@ -10922,7 +10922,7 @@
         <v>0.01016</v>
       </c>
       <c r="S166" t="n">
-        <v>1282.780508332386</v>
+        <v>96.72268274969382</v>
       </c>
     </row>
     <row r="167">
@@ -10952,7 +10952,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H167" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I167" t="n">
         <v>100.55</v>
@@ -10985,7 +10985,7 @@
         <v>0.01016</v>
       </c>
       <c r="S167" t="n">
-        <v>889.5092877642134</v>
+        <v>67.55406051783224</v>
       </c>
     </row>
     <row r="168">
@@ -11015,7 +11015,7 @@
         <v>28</v>
       </c>
       <c r="H168" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I168" t="n">
         <v>100.43</v>
@@ -11048,7 +11048,7 @@
         <v>0.01016</v>
       </c>
       <c r="S168" t="n">
-        <v>1041.065933321021</v>
+        <v>78.63794266015918</v>
       </c>
     </row>
     <row r="169">
@@ -11078,7 +11078,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H169" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I169" t="n">
         <v>100.44</v>
@@ -11111,7 +11111,7 @@
         <v>0.01016</v>
       </c>
       <c r="S169" t="n">
-        <v>1034.52636446869</v>
+        <v>76.57400474812613</v>
       </c>
     </row>
     <row r="170">
@@ -11141,7 +11141,7 @@
         <v>32.38888888888889</v>
       </c>
       <c r="H170" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I170" t="n">
         <v>100.5</v>
@@ -11174,7 +11174,7 @@
         <v>0.01016</v>
       </c>
       <c r="S170" t="n">
-        <v>785.3706146360835</v>
+        <v>59.69923163803428</v>
       </c>
     </row>
     <row r="171">
@@ -11204,7 +11204,7 @@
         <v>32.27777777777778</v>
       </c>
       <c r="H171" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I171" t="n">
         <v>100.33</v>
@@ -11237,7 +11237,7 @@
         <v>0.01016</v>
       </c>
       <c r="S171" t="n">
-        <v>773.6489147504146</v>
+        <v>59.07612564201491</v>
       </c>
     </row>
     <row r="172">
@@ -11267,7 +11267,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H172" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I172" t="n">
         <v>100.15</v>
@@ -11300,7 +11300,7 @@
         <v>0.01016</v>
       </c>
       <c r="S172" t="n">
-        <v>1119.049546808594</v>
+        <v>82.97440931920451</v>
       </c>
     </row>
     <row r="173">
@@ -11330,7 +11330,7 @@
         <v>24.33333333333333</v>
       </c>
       <c r="H173" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I173" t="n">
         <v>100.41</v>
@@ -11363,7 +11363,7 @@
         <v>0.01016</v>
       </c>
       <c r="S173" t="n">
-        <v>1276.948334600735</v>
+        <v>96.71598718977664</v>
       </c>
     </row>
     <row r="174">
@@ -11393,7 +11393,7 @@
         <v>26</v>
       </c>
       <c r="H174" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I174" t="n">
         <v>100.67</v>
@@ -11426,7 +11426,7 @@
         <v>0.01016</v>
       </c>
       <c r="S174" t="n">
-        <v>1201.100465170079</v>
+        <v>90.24145180575476</v>
       </c>
     </row>
     <row r="175">
@@ -11456,7 +11456,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H175" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I175" t="n">
         <v>100.61</v>
@@ -11489,7 +11489,7 @@
         <v>0.01016</v>
       </c>
       <c r="S175" t="n">
-        <v>1056.578458126164</v>
+        <v>78.75437782749603</v>
       </c>
     </row>
     <row r="176">
@@ -11519,7 +11519,7 @@
         <v>30.77777777777778</v>
       </c>
       <c r="H176" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I176" t="n">
         <v>100.47</v>
@@ -11552,7 +11552,7 @@
         <v>0.01016</v>
       </c>
       <c r="S176" t="n">
-        <v>898.0320759268365</v>
+        <v>67.65185273709939</v>
       </c>
     </row>
     <row r="177">
@@ -11582,7 +11582,7 @@
         <v>30.5</v>
       </c>
       <c r="H177" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I177" t="n">
         <v>100.24</v>
@@ -11615,7 +11615,7 @@
         <v>0.01016</v>
       </c>
       <c r="S177" t="n">
-        <v>984.2076638122409</v>
+        <v>72.97625899152703</v>
       </c>
     </row>
     <row r="178">
@@ -11645,7 +11645,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I178" t="n">
         <v>100.07</v>
@@ -11678,7 +11678,7 @@
         <v>0.01016</v>
       </c>
       <c r="S178" t="n">
-        <v>1112.634135506762</v>
+        <v>81.71859766173297</v>
       </c>
     </row>
     <row r="179">
@@ -11708,7 +11708,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H179" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I179" t="n">
         <v>100</v>
@@ -11741,7 +11741,7 @@
         <v>0.01016</v>
       </c>
       <c r="S179" t="n">
-        <v>1016.824376967628</v>
+        <v>75.9915425500029</v>
       </c>
     </row>
     <row r="180">
@@ -11771,7 +11771,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H180" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I180" t="n">
         <v>100.3</v>
@@ -11804,7 +11804,7 @@
         <v>0.01016</v>
       </c>
       <c r="S180" t="n">
-        <v>1196.120114194401</v>
+        <v>87.47601380686227</v>
       </c>
     </row>
     <row r="181">
@@ -11834,7 +11834,7 @@
         <v>30.5</v>
       </c>
       <c r="H181" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I181" t="n">
         <v>100.65</v>
@@ -11867,7 +11867,7 @@
         <v>0.01016</v>
       </c>
       <c r="S181" t="n">
-        <v>988.33241163755</v>
+        <v>73.21837655444145</v>
       </c>
     </row>
     <row r="182">
@@ -11897,7 +11897,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H182" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I182" t="n">
         <v>100.54</v>
@@ -11930,7 +11930,7 @@
         <v>0.01016</v>
       </c>
       <c r="S182" t="n">
-        <v>1038.277744754118</v>
+        <v>76.38841732915603</v>
       </c>
     </row>
     <row r="183">
@@ -11960,7 +11960,7 @@
         <v>31.83333333333333</v>
       </c>
       <c r="H183" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I183" t="n">
         <v>100.37</v>
@@ -11993,7 +11993,7 @@
         <v>0.01016</v>
       </c>
       <c r="S183" t="n">
-        <v>995.3301088552696</v>
+        <v>72.48366968569577</v>
       </c>
     </row>
     <row r="184">
@@ -12023,7 +12023,7 @@
         <v>30.61111111111111</v>
       </c>
       <c r="H184" t="n">
-        <v>80</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="I184" t="n">
         <v>100.43</v>
@@ -12056,7 +12056,7 @@
         <v>0.01016</v>
       </c>
       <c r="S184" t="n">
-        <v>1098.383914201384</v>
+        <v>79.51911616058574</v>
       </c>
     </row>
     <row r="185">
@@ -12086,7 +12086,7 @@
         <v>33.77777777777778</v>
       </c>
       <c r="H185" t="n">
-        <v>79.59999999999999</v>
+        <v>26.44444444444444</v>
       </c>
       <c r="I185" t="n">
         <v>100.49</v>
@@ -12119,7 +12119,7 @@
         <v>0.01016</v>
       </c>
       <c r="S185" t="n">
-        <v>903.1278120276785</v>
+        <v>65.6030212089608</v>
       </c>
     </row>
     <row r="186">
@@ -12149,7 +12149,7 @@
         <v>34.05555555555556</v>
       </c>
       <c r="H186" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I186" t="n">
         <v>100.39</v>
@@ -12182,7 +12182,7 @@
         <v>0.01016</v>
       </c>
       <c r="S186" t="n">
-        <v>801.5054153630867</v>
+        <v>59.48119007948039</v>
       </c>
     </row>
     <row r="187">
@@ -12212,7 +12212,7 @@
         <v>31</v>
       </c>
       <c r="H187" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I187" t="n">
         <v>100.34</v>
@@ -12245,7 +12245,7 @@
         <v>0.01016</v>
       </c>
       <c r="S187" t="n">
-        <v>921.015233463393</v>
+        <v>68.83132415811714</v>
       </c>
     </row>
     <row r="188">
@@ -12275,7 +12275,7 @@
         <v>33.38888888888889</v>
       </c>
       <c r="H188" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I188" t="n">
         <v>100.32</v>
@@ -12308,7 +12308,7 @@
         <v>0.01016</v>
       </c>
       <c r="S188" t="n">
-        <v>842.4904352052636</v>
+        <v>62.35980908885884</v>
       </c>
     </row>
     <row r="189">
@@ -12338,7 +12338,7 @@
         <v>31.83333333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I189" t="n">
         <v>100.19</v>
@@ -12371,7 +12371,7 @@
         <v>0.01016</v>
       </c>
       <c r="S189" t="n">
-        <v>974.9598586382209</v>
+        <v>71.3018709770751</v>
       </c>
     </row>
     <row r="190">
@@ -12401,7 +12401,7 @@
         <v>32.83333333333333</v>
       </c>
       <c r="H190" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I190" t="n">
         <v>100.13</v>
@@ -12434,7 +12434,7 @@
         <v>0.01016</v>
       </c>
       <c r="S190" t="n">
-        <v>929.0140315951161</v>
+        <v>67.82634648834286</v>
       </c>
     </row>
     <row r="191">
@@ -12464,7 +12464,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H191" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I191" t="n">
         <v>100.01</v>
@@ -12497,7 +12497,7 @@
         <v>0.01016</v>
       </c>
       <c r="S191" t="n">
-        <v>1202.343616394539</v>
+        <v>88.30740591519557</v>
       </c>
     </row>
     <row r="192">
@@ -12527,7 +12527,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H192" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I192" t="n">
         <v>100.29</v>
@@ -12560,7 +12560,7 @@
         <v>0.01016</v>
       </c>
       <c r="S192" t="n">
-        <v>1211.717126797989</v>
+        <v>88.61667223544842</v>
       </c>
     </row>
     <row r="193">
@@ -12590,7 +12590,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H193" t="n">
-        <v>80</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="I193" t="n">
         <v>100.5</v>
@@ -12623,7 +12623,7 @@
         <v>0.01016</v>
       </c>
       <c r="S193" t="n">
-        <v>1209.085033612757</v>
+        <v>87.53348623626209</v>
       </c>
     </row>
     <row r="194">
@@ -12653,7 +12653,7 @@
         <v>30.83333333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I194" t="n">
         <v>100.74</v>
@@ -12686,7 +12686,7 @@
         <v>0.01016</v>
       </c>
       <c r="S194" t="n">
-        <v>981.8805772296728</v>
+        <v>72.55135993382507</v>
       </c>
     </row>
     <row r="195">
@@ -12716,7 +12716,7 @@
         <v>32.5</v>
       </c>
       <c r="H195" t="n">
-        <v>79.8</v>
+        <v>26.55555555555555</v>
       </c>
       <c r="I195" t="n">
         <v>100.96</v>
@@ -12749,7 +12749,7 @@
         <v>0.01016</v>
       </c>
       <c r="S195" t="n">
-        <v>978.4230736977238</v>
+        <v>70.95314450749117</v>
       </c>
     </row>
     <row r="196">
@@ -12779,7 +12779,7 @@
         <v>32.44444444444445</v>
       </c>
       <c r="H196" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I196" t="n">
         <v>100.68</v>
@@ -12812,7 +12812,7 @@
         <v>0.01016</v>
       </c>
       <c r="S196" t="n">
-        <v>930.1544845143835</v>
+        <v>68.19935847773394</v>
       </c>
     </row>
     <row r="197">
@@ -12842,7 +12842,7 @@
         <v>34.27777777777778</v>
       </c>
       <c r="H197" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I197" t="n">
         <v>100.52</v>
@@ -12875,7 +12875,7 @@
         <v>0.01016</v>
       </c>
       <c r="S197" t="n">
-        <v>798.2781922824759</v>
+        <v>59.13863856887448</v>
       </c>
     </row>
     <row r="198">
@@ -12905,7 +12905,7 @@
         <v>33.33333333333334</v>
       </c>
       <c r="H198" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I198" t="n">
         <v>100.52</v>
@@ -12938,7 +12938,7 @@
         <v>0.01016</v>
       </c>
       <c r="S198" t="n">
-        <v>906.995033626068</v>
+        <v>66.16264035825508</v>
       </c>
     </row>
     <row r="199">
@@ -12968,7 +12968,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H199" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I199" t="n">
         <v>100.5</v>
@@ -13001,7 +13001,7 @@
         <v>0.01016</v>
       </c>
       <c r="S199" t="n">
-        <v>1022.634193591122</v>
+        <v>75.82547922461009</v>
       </c>
     </row>
     <row r="200">
@@ -13031,7 +13031,7 @@
         <v>31</v>
       </c>
       <c r="H200" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I200" t="n">
         <v>100.5</v>
@@ -13064,7 +13064,7 @@
         <v>0.01016</v>
       </c>
       <c r="S200" t="n">
-        <v>932.7021626327125</v>
+        <v>69.52098819691079</v>
       </c>
     </row>
     <row r="201">
@@ -13094,7 +13094,7 @@
         <v>31.55555555555556</v>
       </c>
       <c r="H201" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I201" t="n">
         <v>100.53</v>
@@ -13127,7 +13127,7 @@
         <v>0.01016</v>
       </c>
       <c r="S201" t="n">
-        <v>896.0740887990643</v>
+        <v>66.90838816060072</v>
       </c>
     </row>
     <row r="202">
@@ -13157,7 +13157,7 @@
         <v>32.5</v>
       </c>
       <c r="H202" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I202" t="n">
         <v>100.62</v>
@@ -13190,7 +13190,7 @@
         <v>0.01016</v>
       </c>
       <c r="S202" t="n">
-        <v>954.5093823745118</v>
+        <v>69.56974549379711</v>
       </c>
     </row>
     <row r="203">
@@ -13220,7 +13220,7 @@
         <v>34.22222222222222</v>
       </c>
       <c r="H203" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I203" t="n">
         <v>100.67</v>
@@ -13253,7 +13253,7 @@
         <v>0.01016</v>
       </c>
       <c r="S203" t="n">
-        <v>702.5271201473969</v>
+        <v>53.49893129108381</v>
       </c>
     </row>
     <row r="204">
@@ -13283,7 +13283,7 @@
         <v>32.16666666666667</v>
       </c>
       <c r="H204" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I204" t="n">
         <v>100.6</v>
@@ -13316,7 +13316,7 @@
         <v>0.01016</v>
       </c>
       <c r="S204" t="n">
-        <v>858.2807158678362</v>
+        <v>64.19953353530875</v>
       </c>
     </row>
     <row r="205">
@@ -13346,7 +13346,7 @@
         <v>33.77777777777778</v>
       </c>
       <c r="H205" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I205" t="n">
         <v>100.59</v>
@@ -13379,7 +13379,7 @@
         <v>0.01016</v>
       </c>
       <c r="S205" t="n">
-        <v>807.2587116869626</v>
+        <v>60.01284476298433</v>
       </c>
     </row>
     <row r="206">
@@ -13409,7 +13409,7 @@
         <v>32.83333333333333</v>
       </c>
       <c r="H206" t="n">
-        <v>77.59999999999999</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="I206" t="n">
         <v>100.48</v>
@@ -13442,7 +13442,7 @@
         <v>0.01016</v>
       </c>
       <c r="S206" t="n">
-        <v>876.5156719821082</v>
+        <v>64.76592518515366</v>
       </c>
     </row>
     <row r="207">
@@ -13472,7 +13472,7 @@
         <v>32.44444444444445</v>
       </c>
       <c r="H207" t="n">
-        <v>77.90000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="I207" t="n">
         <v>100.44</v>
@@ -13505,7 +13505,7 @@
         <v>0.01016</v>
       </c>
       <c r="S207" t="n">
-        <v>907.2387063807566</v>
+        <v>66.86257624950875</v>
       </c>
     </row>
     <row r="208">
@@ -13535,7 +13535,7 @@
         <v>32.44444444444445</v>
       </c>
       <c r="H208" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I208" t="n">
         <v>100.37</v>
@@ -13568,7 +13568,7 @@
         <v>0.01016</v>
       </c>
       <c r="S208" t="n">
-        <v>881.1122458839104</v>
+        <v>65.33202069080514</v>
       </c>
     </row>
     <row r="209">
@@ -13598,7 +13598,7 @@
         <v>36.05555555555556</v>
       </c>
       <c r="H209" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I209" t="n">
         <v>100.36</v>
@@ -13631,7 +13631,7 @@
         <v>0.01016</v>
       </c>
       <c r="S209" t="n">
-        <v>747.9367328822977</v>
+        <v>55.02737930759432</v>
       </c>
     </row>
     <row r="210">
@@ -13661,7 +13661,7 @@
         <v>34.16666666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I210" t="n">
         <v>100.42</v>
@@ -13694,7 +13694,7 @@
         <v>0.01016</v>
       </c>
       <c r="S210" t="n">
-        <v>847.9209401782059</v>
+        <v>62.116889405303</v>
       </c>
     </row>
     <row r="211">
@@ -13724,7 +13724,7 @@
         <v>34.16666666666667</v>
       </c>
       <c r="H211" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I211" t="n">
         <v>100.48</v>
@@ -13757,7 +13757,7 @@
         <v>0.01016</v>
       </c>
       <c r="S211" t="n">
-        <v>695.7449219456287</v>
+        <v>53.12734709504973</v>
       </c>
     </row>
     <row r="212">
@@ -13787,7 +13787,7 @@
         <v>32.77777777777778</v>
       </c>
       <c r="H212" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I212" t="n">
         <v>100.4</v>
@@ -13820,7 +13820,7 @@
         <v>0.01016</v>
       </c>
       <c r="S212" t="n">
-        <v>774.88375619386</v>
+        <v>58.79561845317295</v>
       </c>
     </row>
     <row r="213">
@@ -13850,7 +13850,7 @@
         <v>37.38888888888889</v>
       </c>
       <c r="H213" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I213" t="n">
         <v>100.51</v>
@@ -13883,7 +13883,7 @@
         <v>0.01016</v>
       </c>
       <c r="S213" t="n">
-        <v>647.5281608993261</v>
+        <v>48.34986981091833</v>
       </c>
     </row>
     <row r="214">
@@ -13913,7 +13913,7 @@
         <v>31.94444444444445</v>
       </c>
       <c r="H214" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I214" t="n">
         <v>100.74</v>
@@ -13946,7 +13946,7 @@
         <v>0.01016</v>
       </c>
       <c r="S214" t="n">
-        <v>914.0185813387357</v>
+        <v>67.65420929920256</v>
       </c>
     </row>
     <row r="215">
@@ -13976,7 +13976,7 @@
         <v>30.33333333333333</v>
       </c>
       <c r="H215" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I215" t="n">
         <v>100.87</v>
@@ -14009,7 +14009,7 @@
         <v>0.01016</v>
       </c>
       <c r="S215" t="n">
-        <v>898.0573573491323</v>
+        <v>68.01880821295789</v>
       </c>
     </row>
     <row r="216">
@@ -14039,7 +14039,7 @@
         <v>30.66666666666667</v>
       </c>
       <c r="H216" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I216" t="n">
         <v>100.72</v>
@@ -14072,7 +14072,7 @@
         <v>0.01016</v>
       </c>
       <c r="S216" t="n">
-        <v>962.6874295075231</v>
+        <v>71.56765287992921</v>
       </c>
     </row>
     <row r="217">
@@ -14102,7 +14102,7 @@
         <v>32.16666666666667</v>
       </c>
       <c r="H217" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I217" t="n">
         <v>100.92</v>
@@ -14135,7 +14135,7 @@
         <v>0.01016</v>
       </c>
       <c r="S217" t="n">
-        <v>925.4512164748762</v>
+        <v>68.14610148288148</v>
       </c>
     </row>
     <row r="218">
@@ -14165,7 +14165,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H218" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I218" t="n">
         <v>100.97</v>
@@ -14198,7 +14198,7 @@
         <v>0.01016</v>
       </c>
       <c r="S218" t="n">
-        <v>1002.244721180933</v>
+        <v>75.43519857939103</v>
       </c>
     </row>
     <row r="219">
@@ -14228,7 +14228,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H219" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I219" t="n">
         <v>101.11</v>
@@ -14261,7 +14261,7 @@
         <v>0.01016</v>
       </c>
       <c r="S219" t="n">
-        <v>950.5199612781755</v>
+        <v>75.87231332800734</v>
       </c>
     </row>
     <row r="220">
@@ -14291,7 +14291,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H220" t="n">
-        <v>62.5</v>
+        <v>16.94444444444445</v>
       </c>
       <c r="I220" t="n">
         <v>100.95</v>
@@ -14324,7 +14324,7 @@
         <v>0.01016</v>
       </c>
       <c r="S220" t="n">
-        <v>628.9010812098257</v>
+        <v>53.75898031776235</v>
       </c>
     </row>
     <row r="221">
@@ -14354,7 +14354,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H221" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I221" t="n">
         <v>100.77</v>
@@ -14387,7 +14387,7 @@
         <v>0.01016</v>
       </c>
       <c r="S221" t="n">
-        <v>638.4137165120743</v>
+        <v>54.63065273268661</v>
       </c>
     </row>
     <row r="222">
@@ -14417,7 +14417,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H222" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I222" t="n">
         <v>101.56</v>
@@ -14450,7 +14450,7 @@
         <v>0.01016</v>
       </c>
       <c r="S222" t="n">
-        <v>511.5026356669069</v>
+        <v>44.48804259346502</v>
       </c>
     </row>
     <row r="223">
@@ -14480,7 +14480,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H223" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I223" t="n">
         <v>101.34</v>
@@ -14513,7 +14513,7 @@
         <v>0.01016</v>
       </c>
       <c r="S223" t="n">
-        <v>728.3687748804688</v>
+        <v>59.66033291272215</v>
       </c>
     </row>
     <row r="224">
@@ -14543,7 +14543,7 @@
         <v>31.44444444444444</v>
       </c>
       <c r="H224" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I224" t="n">
         <v>100.9</v>
@@ -14576,7 +14576,7 @@
         <v>0.01016</v>
       </c>
       <c r="S224" t="n">
-        <v>487.2539752720256</v>
+        <v>41.69553696486666</v>
       </c>
     </row>
     <row r="225">
@@ -14606,7 +14606,7 @@
         <v>25.5</v>
       </c>
       <c r="H225" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I225" t="n">
         <v>100.83</v>
@@ -14639,7 +14639,7 @@
         <v>0.01016</v>
       </c>
       <c r="S225" t="n">
-        <v>851.8791432554842</v>
+        <v>69.426323108839</v>
       </c>
     </row>
     <row r="226">
@@ -14669,7 +14669,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H226" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I226" t="n">
         <v>100.9</v>
@@ -14702,7 +14702,7 @@
         <v>0.01016</v>
       </c>
       <c r="S226" t="n">
-        <v>486.2488334335961</v>
+        <v>42.47781345531828</v>
       </c>
     </row>
     <row r="227">
@@ -14732,7 +14732,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H227" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I227" t="n">
         <v>101.31</v>
@@ -14765,7 +14765,7 @@
         <v>0.01016</v>
       </c>
       <c r="S227" t="n">
-        <v>489.2050032652743</v>
+        <v>45.62222659800749</v>
       </c>
     </row>
     <row r="228">
@@ -14795,7 +14795,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H228" t="n">
-        <v>59.4</v>
+        <v>15.22222222222222</v>
       </c>
       <c r="I228" t="n">
         <v>101.28</v>
@@ -14828,7 +14828,7 @@
         <v>0.01016</v>
       </c>
       <c r="S228" t="n">
-        <v>648.7013624895158</v>
+        <v>57.36555283840027</v>
       </c>
     </row>
     <row r="229">
@@ -14858,7 +14858,7 @@
         <v>26.05555555555556</v>
       </c>
       <c r="H229" t="n">
-        <v>59.4</v>
+        <v>15.22222222222222</v>
       </c>
       <c r="I229" t="n">
         <v>101.47</v>
@@ -14891,7 +14891,7 @@
         <v>0.01016</v>
       </c>
       <c r="S229" t="n">
-        <v>579.5956590465313</v>
+        <v>51.25444052767592</v>
       </c>
     </row>
     <row r="230">
@@ -14921,7 +14921,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H230" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I230" t="n">
         <v>101.49</v>
@@ -14954,7 +14954,7 @@
         <v>0.01016</v>
       </c>
       <c r="S230" t="n">
-        <v>604.005156239205</v>
+        <v>53.05721897532619</v>
       </c>
     </row>
     <row r="231">
@@ -14984,7 +14984,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H231" t="n">
-        <v>56.1</v>
+        <v>13.38888888888889</v>
       </c>
       <c r="I231" t="n">
         <v>101.39</v>
@@ -15017,7 +15017,7 @@
         <v>0.01016</v>
       </c>
       <c r="S231" t="n">
-        <v>556.6004773704385</v>
+        <v>51.11589466673985</v>
       </c>
     </row>
     <row r="232">
@@ -15047,7 +15047,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H232" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I232" t="n">
         <v>101.11</v>
@@ -15080,7 +15080,7 @@
         <v>0.01016</v>
       </c>
       <c r="S232" t="n">
-        <v>801.7147019347324</v>
+        <v>65.60173644743087</v>
       </c>
     </row>
     <row r="233">
@@ -15110,7 +15110,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H233" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I233" t="n">
         <v>101.09</v>
@@ -15143,7 +15143,7 @@
         <v>0.01016</v>
       </c>
       <c r="S233" t="n">
-        <v>653.9351825974745</v>
+        <v>53.34789509538474</v>
       </c>
     </row>
     <row r="234">
@@ -15173,7 +15173,7 @@
         <v>31.05555555555556</v>
       </c>
       <c r="H234" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I234" t="n">
         <v>101.14</v>
@@ -15206,7 +15206,7 @@
         <v>0.01016</v>
       </c>
       <c r="S234" t="n">
-        <v>716.0774201023174</v>
+        <v>56.44533102474531</v>
       </c>
     </row>
     <row r="235">
@@ -15236,7 +15236,7 @@
         <v>32.61111111111111</v>
       </c>
       <c r="H235" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I235" t="n">
         <v>101.15</v>
@@ -15269,7 +15269,7 @@
         <v>0.01016</v>
       </c>
       <c r="S235" t="n">
-        <v>638.5919087074786</v>
+        <v>50.62864283988541</v>
       </c>
     </row>
     <row r="236">
@@ -15299,7 +15299,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H236" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I236" t="n">
         <v>101.7</v>
@@ -15332,7 +15332,7 @@
         <v>0.01016</v>
       </c>
       <c r="S236" t="n">
-        <v>803.7478818297554</v>
+        <v>67.90642047996985</v>
       </c>
     </row>
     <row r="237">
@@ -15362,7 +15362,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H237" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I237" t="n">
         <v>101.94</v>
@@ -15395,7 +15395,7 @@
         <v>0.01016</v>
       </c>
       <c r="S237" t="n">
-        <v>894.1419249299283</v>
+        <v>79.24753539778318</v>
       </c>
     </row>
     <row r="238">
@@ -15425,7 +15425,7 @@
         <v>15.83333333333333</v>
       </c>
       <c r="H238" t="n">
-        <v>59.1</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="I238" t="n">
         <v>102.15</v>
@@ -15458,7 +15458,7 @@
         <v>0.01016</v>
       </c>
       <c r="S238" t="n">
-        <v>1072.156063903307</v>
+        <v>95.13159945491724</v>
       </c>
     </row>
     <row r="239">
@@ -15488,7 +15488,7 @@
         <v>14.5</v>
       </c>
       <c r="H239" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I239" t="n">
         <v>102.28</v>
@@ -15521,7 +15521,7 @@
         <v>0.01016</v>
       </c>
       <c r="S239" t="n">
-        <v>1088.259114929882</v>
+        <v>98.21858898742958</v>
       </c>
     </row>
     <row r="240">
@@ -15551,7 +15551,7 @@
         <v>16.22222222222222</v>
       </c>
       <c r="H240" t="n">
-        <v>59.2</v>
+        <v>15.11111111111111</v>
       </c>
       <c r="I240" t="n">
         <v>102.14</v>
@@ -15584,7 +15584,7 @@
         <v>0.01016</v>
       </c>
       <c r="S240" t="n">
-        <v>1050.773537021874</v>
+        <v>93.12974903477497</v>
       </c>
     </row>
     <row r="241">
@@ -15614,7 +15614,7 @@
         <v>15.94444444444445</v>
       </c>
       <c r="H241" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I241" t="n">
         <v>102.57</v>
@@ -15647,7 +15647,7 @@
         <v>0.01016</v>
       </c>
       <c r="S241" t="n">
-        <v>716.4283296979943</v>
+        <v>70.08393573863097</v>
       </c>
     </row>
     <row r="242">
@@ -15677,7 +15677,7 @@
         <v>17</v>
       </c>
       <c r="H242" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I242" t="n">
         <v>102.26</v>
@@ -15710,7 +15710,7 @@
         <v>0.01016</v>
       </c>
       <c r="S242" t="n">
-        <v>358.0416967954947</v>
+        <v>41.34677421637851</v>
       </c>
     </row>
     <row r="243">
@@ -15740,7 +15740,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H243" t="n">
-        <v>47.9</v>
+        <v>8.833333333333332</v>
       </c>
       <c r="I243" t="n">
         <v>102.1</v>
@@ -15773,7 +15773,7 @@
         <v>0.01016</v>
       </c>
       <c r="S243" t="n">
-        <v>556.3882249905892</v>
+        <v>56.56885335106628</v>
       </c>
     </row>
     <row r="244">
@@ -15803,7 +15803,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H244" t="n">
-        <v>52</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I244" t="n">
         <v>101.88</v>
@@ -15836,7 +15836,7 @@
         <v>0.01016</v>
       </c>
       <c r="S244" t="n">
-        <v>645.7445312192039</v>
+        <v>62.30694927511193</v>
       </c>
     </row>
     <row r="245">
@@ -15866,7 +15866,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H245" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I245" t="n">
         <v>101.71</v>
@@ -15899,7 +15899,7 @@
         <v>0.01016</v>
       </c>
       <c r="S245" t="n">
-        <v>596.7938922579735</v>
+        <v>56.39644113161547</v>
       </c>
     </row>
     <row r="246">
@@ -15929,7 +15929,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H246" t="n">
-        <v>55.7</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I246" t="n">
         <v>101.81</v>
@@ -15962,7 +15962,7 @@
         <v>0.01016</v>
       </c>
       <c r="S246" t="n">
-        <v>744.1424607702289</v>
+        <v>68.66080707585516</v>
       </c>
     </row>
     <row r="247">
@@ -15992,7 +15992,7 @@
         <v>17.72222222222222</v>
       </c>
       <c r="H247" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I247" t="n">
         <v>102.36</v>
@@ -16025,7 +16025,7 @@
         <v>0.01016</v>
       </c>
       <c r="S247" t="n">
-        <v>280.9310040840203</v>
+        <v>34.2761074624564</v>
       </c>
     </row>
     <row r="248">
@@ -16055,7 +16055,7 @@
         <v>17.16666666666667</v>
       </c>
       <c r="H248" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I248" t="n">
         <v>102.33</v>
@@ -16088,7 +16088,7 @@
         <v>0.01016</v>
       </c>
       <c r="S248" t="n">
-        <v>354.2804360159179</v>
+        <v>40.91242257070716</v>
       </c>
     </row>
     <row r="249">
@@ -16118,7 +16118,7 @@
         <v>20.16666666666666</v>
       </c>
       <c r="H249" t="n">
-        <v>46.6</v>
+        <v>8.111111111111112</v>
       </c>
       <c r="I249" t="n">
         <v>102.19</v>
@@ -16151,7 +16151,7 @@
         <v>0.01016</v>
       </c>
       <c r="S249" t="n">
-        <v>442.3403144550384</v>
+        <v>45.75469985562965</v>
       </c>
     </row>
     <row r="250">
@@ -16181,7 +16181,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H250" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I250" t="n">
         <v>101.96</v>
@@ -16214,7 +16214,7 @@
         <v>0.01016</v>
       </c>
       <c r="S250" t="n">
-        <v>443.0875502320827</v>
+        <v>43.84178402800548</v>
       </c>
     </row>
     <row r="251">
@@ -16244,7 +16244,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H251" t="n">
-        <v>50.6</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="I251" t="n">
         <v>102.02</v>
@@ -16277,7 +16277,7 @@
         <v>0.01016</v>
       </c>
       <c r="S251" t="n">
-        <v>425.5044100532154</v>
+        <v>41.78244911873195</v>
       </c>
     </row>
     <row r="252">
@@ -16307,7 +16307,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H252" t="n">
-        <v>44.3</v>
+        <v>6.833333333333332</v>
       </c>
       <c r="I252" t="n">
         <v>102.03</v>
@@ -16340,7 +16340,7 @@
         <v>0.01016</v>
       </c>
       <c r="S252" t="n">
-        <v>379.6459356078535</v>
+        <v>40.51602465534302</v>
       </c>
     </row>
     <row r="253">
@@ -16370,7 +16370,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H253" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I253" t="n">
         <v>101.85</v>
@@ -16403,7 +16403,7 @@
         <v>0.01016</v>
       </c>
       <c r="S253" t="n">
-        <v>561.7981582568568</v>
+        <v>54.40955665010026</v>
       </c>
     </row>
     <row r="254">
@@ -16433,7 +16433,7 @@
         <v>19.66666666666667</v>
       </c>
       <c r="H254" t="n">
-        <v>55.2</v>
+        <v>12.88888888888889</v>
       </c>
       <c r="I254" t="n">
         <v>102.12</v>
@@ -16466,7 +16466,7 @@
         <v>0.01016</v>
       </c>
       <c r="S254" t="n">
-        <v>699.3185773379585</v>
+        <v>64.90743813361503</v>
       </c>
     </row>
     <row r="255">
@@ -16496,7 +16496,7 @@
         <v>21.5</v>
       </c>
       <c r="H255" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I255" t="n">
         <v>101.86</v>
@@ -16529,7 +16529,7 @@
         <v>0.01016</v>
       </c>
       <c r="S255" t="n">
-        <v>589.2756928496974</v>
+        <v>55.4844379682247</v>
       </c>
     </row>
     <row r="256">
@@ -16559,7 +16559,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H256" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I256" t="n">
         <v>102.04</v>
@@ -16592,7 +16592,7 @@
         <v>0.01016</v>
       </c>
       <c r="S256" t="n">
-        <v>617.4630168525537</v>
+        <v>59.21110091911189</v>
       </c>
     </row>
     <row r="257">
@@ -16622,7 +16622,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H257" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I257" t="n">
         <v>101.92</v>
@@ -16655,7 +16655,7 @@
         <v>0.01016</v>
       </c>
       <c r="S257" t="n">
-        <v>532.9974026441243</v>
+        <v>52.40400485761359</v>
       </c>
     </row>
     <row r="258">
@@ -16685,7 +16685,7 @@
         <v>19.27777777777778</v>
       </c>
       <c r="H258" t="n">
-        <v>54.1</v>
+        <v>12.27777777777778</v>
       </c>
       <c r="I258" t="n">
         <v>101.9</v>
@@ -16718,7 +16718,7 @@
         <v>0.01016</v>
       </c>
       <c r="S258" t="n">
-        <v>679.2977804175383</v>
+        <v>63.88360734959276</v>
       </c>
     </row>
     <row r="259">
@@ -16748,7 +16748,7 @@
         <v>15.5</v>
       </c>
       <c r="H259" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I259" t="n">
         <v>102.42</v>
@@ -16781,7 +16781,7 @@
         <v>0.01016</v>
       </c>
       <c r="S259" t="n">
-        <v>575.5738466461269</v>
+        <v>60.0175498294189</v>
       </c>
     </row>
     <row r="260">
@@ -16811,7 +16811,7 @@
         <v>18.33333333333334</v>
       </c>
       <c r="H260" t="n">
-        <v>48.7</v>
+        <v>9.27777777777778</v>
       </c>
       <c r="I260" t="n">
         <v>102.14</v>
@@ -16844,7 +16844,7 @@
         <v>0.01016</v>
       </c>
       <c r="S260" t="n">
-        <v>551.660465116129</v>
+        <v>55.50538318348556</v>
       </c>
     </row>
     <row r="261">
@@ -16874,7 +16874,7 @@
         <v>19.22222222222222</v>
       </c>
       <c r="H261" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I261" t="n">
         <v>102.02</v>
@@ -16907,7 +16907,7 @@
         <v>0.01016</v>
       </c>
       <c r="S261" t="n">
-        <v>668.517980852551</v>
+        <v>63.17429759532464</v>
       </c>
     </row>
     <row r="262">
@@ -16937,7 +16937,7 @@
         <v>21.5</v>
       </c>
       <c r="H262" t="n">
-        <v>54.9</v>
+        <v>12.72222222222222</v>
       </c>
       <c r="I262" t="n">
         <v>102.02</v>
@@ -16970,7 +16970,7 @@
         <v>0.01016</v>
       </c>
       <c r="S262" t="n">
-        <v>615.5491546845233</v>
+        <v>57.33643680498691</v>
       </c>
     </row>
     <row r="263">
@@ -17000,7 +17000,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H263" t="n">
-        <v>59.9</v>
+        <v>15.5</v>
       </c>
       <c r="I263" t="n">
         <v>101.84</v>
@@ -17033,7 +17033,7 @@
         <v>0.01016</v>
       </c>
       <c r="S263" t="n">
-        <v>693.5837934718433</v>
+        <v>60.99368051654292</v>
       </c>
     </row>
     <row r="264">
@@ -17063,7 +17063,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="H264" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I264" t="n">
         <v>101.5</v>
@@ -17096,7 +17096,7 @@
         <v>0.01016</v>
       </c>
       <c r="S264" t="n">
-        <v>642.6072061838217</v>
+        <v>54.98950009462455</v>
       </c>
     </row>
     <row r="265">
@@ -17126,7 +17126,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H265" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I265" t="n">
         <v>101.71</v>
@@ -17159,7 +17159,7 @@
         <v>0.01016</v>
       </c>
       <c r="S265" t="n">
-        <v>766.8235077760352</v>
+        <v>67.88720331453074</v>
       </c>
     </row>
     <row r="266">
@@ -17189,7 +17189,7 @@
         <v>11.05555555555556</v>
       </c>
       <c r="H266" t="n">
-        <v>51.4</v>
+        <v>10.77777777777778</v>
       </c>
       <c r="I266" t="n">
         <v>102.17</v>
@@ -17222,7 +17222,7 @@
         <v>0.01016</v>
       </c>
       <c r="S266" t="n">
-        <v>1009.857539768503</v>
+        <v>98.17047377048326</v>
       </c>
     </row>
     <row r="267">
@@ -17252,7 +17252,7 @@
         <v>16.94444444444445</v>
       </c>
       <c r="H267" t="n">
-        <v>59.7</v>
+        <v>15.38888888888889</v>
       </c>
       <c r="I267" t="n">
         <v>101.92</v>
@@ -17285,7 +17285,7 @@
         <v>0.01016</v>
       </c>
       <c r="S267" t="n">
-        <v>1027.39643519446</v>
+        <v>90.55034662142602</v>
       </c>
     </row>
     <row r="268">
@@ -17315,7 +17315,7 @@
         <v>15.5</v>
       </c>
       <c r="H268" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I268" t="n">
         <v>101.95</v>
@@ -17348,7 +17348,7 @@
         <v>0.01016</v>
       </c>
       <c r="S268" t="n">
-        <v>1054.781384068429</v>
+        <v>94.43951556060243</v>
       </c>
     </row>
     <row r="269">
@@ -17378,7 +17378,7 @@
         <v>17.61111111111111</v>
       </c>
       <c r="H269" t="n">
-        <v>57.9</v>
+        <v>14.38888888888889</v>
       </c>
       <c r="I269" t="n">
         <v>101.83</v>
@@ -17411,7 +17411,7 @@
         <v>0.01016</v>
       </c>
       <c r="S269" t="n">
-        <v>904.9269512576803</v>
+        <v>81.39234648409112</v>
       </c>
     </row>
     <row r="270">
@@ -17441,7 +17441,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H270" t="n">
-        <v>59.5</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="I270" t="n">
         <v>101.66</v>
@@ -17474,7 +17474,7 @@
         <v>0.01016</v>
       </c>
       <c r="S270" t="n">
-        <v>860.9012999946455</v>
+        <v>76.04563471460072</v>
       </c>
     </row>
     <row r="271">
@@ -17504,7 +17504,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H271" t="n">
-        <v>57.4</v>
+        <v>14.11111111111111</v>
       </c>
       <c r="I271" t="n">
         <v>101.76</v>
@@ -17537,7 +17537,7 @@
         <v>0.01016</v>
       </c>
       <c r="S271" t="n">
-        <v>912.097966202742</v>
+        <v>82.50885495323277</v>
       </c>
     </row>
     <row r="272">
@@ -17567,7 +17567,7 @@
         <v>17.27777777777778</v>
       </c>
       <c r="H272" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I272" t="n">
         <v>101.95</v>
@@ -17600,7 +17600,7 @@
         <v>0.01016</v>
       </c>
       <c r="S272" t="n">
-        <v>777.7034127184008</v>
+        <v>72.96230908803759</v>
       </c>
     </row>
     <row r="273">
@@ -17630,7 +17630,7 @@
         <v>18.55555555555556</v>
       </c>
       <c r="H273" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I273" t="n">
         <v>101.84</v>
@@ -17663,7 +17663,7 @@
         <v>0.01016</v>
       </c>
       <c r="S273" t="n">
-        <v>809.3048366774844</v>
+        <v>73.71927482008988</v>
       </c>
     </row>
     <row r="274">
@@ -17693,7 +17693,7 @@
         <v>18.11111111111111</v>
       </c>
       <c r="H274" t="n">
-        <v>59.1</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="I274" t="n">
         <v>101.71</v>
@@ -17726,7 +17726,7 @@
         <v>0.01016</v>
       </c>
       <c r="S274" t="n">
-        <v>927.9445628675174</v>
+        <v>82.33582166172614</v>
       </c>
     </row>
     <row r="275">
@@ -17756,7 +17756,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H275" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I275" t="n">
         <v>101.51</v>
@@ -17789,7 +17789,7 @@
         <v>0.01016</v>
       </c>
       <c r="S275" t="n">
-        <v>768.1561464141367</v>
+        <v>70.62702973717116</v>
       </c>
     </row>
     <row r="276">
@@ -17819,7 +17819,7 @@
         <v>16.72222222222222</v>
       </c>
       <c r="H276" t="n">
-        <v>59.9</v>
+        <v>15.5</v>
       </c>
       <c r="I276" t="n">
         <v>101.15</v>
@@ -17852,7 +17852,7 @@
         <v>0.01016</v>
       </c>
       <c r="S276" t="n">
-        <v>1051.78667154817</v>
+        <v>92.49400118598865</v>
       </c>
     </row>
     <row r="277">
@@ -17882,7 +17882,7 @@
         <v>17.66666666666666</v>
       </c>
       <c r="H277" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I277" t="n">
         <v>101.02</v>
@@ -17915,7 +17915,7 @@
         <v>0.01016</v>
       </c>
       <c r="S277" t="n">
-        <v>1148.790523752512</v>
+        <v>97.57311757397254</v>
       </c>
     </row>
     <row r="278">
@@ -17945,7 +17945,7 @@
         <v>11.27777777777778</v>
       </c>
       <c r="H278" t="n">
-        <v>49.8</v>
+        <v>9.888888888888888</v>
       </c>
       <c r="I278" t="n">
         <v>101.98</v>
@@ -17978,7 +17978,7 @@
         <v>0.01016</v>
       </c>
       <c r="S278" t="n">
-        <v>918.9483569149278</v>
+        <v>91.15885760441435</v>
       </c>
     </row>
     <row r="279">
@@ -18008,7 +18008,7 @@
         <v>1.888888888888888</v>
       </c>
       <c r="H279" t="n">
-        <v>31.6</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="I279" t="n">
         <v>103.29</v>
@@ -18041,7 +18041,7 @@
         <v>0.01016</v>
       </c>
       <c r="S279" t="n">
-        <v>664.384037847796</v>
+        <v>85.88542319495002</v>
       </c>
     </row>
     <row r="280">
@@ -18071,7 +18071,7 @@
         <v>3.444444444444446</v>
       </c>
       <c r="H280" t="n">
-        <v>36</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="I280" t="n">
         <v>102.76</v>
@@ -18104,7 +18104,7 @@
         <v>0.01016</v>
       </c>
       <c r="S280" t="n">
-        <v>760.9942349538542</v>
+        <v>91.69845532240498</v>
       </c>
     </row>
     <row r="281">
@@ -18134,7 +18134,7 @@
         <v>6.166666666666668</v>
       </c>
       <c r="H281" t="n">
-        <v>42</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="I281" t="n">
         <v>102.51</v>
@@ -18167,7 +18167,7 @@
         <v>0.01016</v>
       </c>
       <c r="S281" t="n">
-        <v>869.7169754170475</v>
+        <v>95.85953690162033</v>
       </c>
     </row>
     <row r="282">
@@ -18197,7 +18197,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H282" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I282" t="n">
         <v>102.83</v>
@@ -18230,7 +18230,7 @@
         <v>0.01016</v>
       </c>
       <c r="S282" t="n">
-        <v>765.9781548037558</v>
+        <v>86.39460563992161</v>
       </c>
     </row>
     <row r="283">
@@ -18260,7 +18260,7 @@
         <v>7.944444444444443</v>
       </c>
       <c r="H283" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I283" t="n">
         <v>102.45</v>
@@ -18293,7 +18293,7 @@
         <v>0.01016</v>
       </c>
       <c r="S283" t="n">
-        <v>722.4952641022812</v>
+        <v>81.01792946948997</v>
       </c>
     </row>
     <row r="284">
@@ -18323,7 +18323,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H284" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I284" t="n">
         <v>102.47</v>
@@ -18356,7 +18356,7 @@
         <v>0.01016</v>
       </c>
       <c r="S284" t="n">
-        <v>891.8315734659243</v>
+        <v>92.74506394577953</v>
       </c>
     </row>
     <row r="285">
@@ -18386,7 +18386,7 @@
         <v>10.05555555555556</v>
       </c>
       <c r="H285" t="n">
-        <v>48.9</v>
+        <v>9.388888888888889</v>
       </c>
       <c r="I285" t="n">
         <v>102.25</v>
@@ -18419,7 +18419,7 @@
         <v>0.01016</v>
       </c>
       <c r="S285" t="n">
-        <v>952.8730724510023</v>
+        <v>95.62514520940002</v>
       </c>
     </row>
     <row r="286">
@@ -18449,7 +18449,7 @@
         <v>9.388888888888889</v>
       </c>
       <c r="H286" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I286" t="n">
         <v>102.06</v>
@@ -18482,7 +18482,7 @@
         <v>0.01016</v>
       </c>
       <c r="S286" t="n">
-        <v>900.431058147317</v>
+        <v>92.76658061004628</v>
       </c>
     </row>
     <row r="287">
@@ -18512,7 +18512,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H287" t="n">
-        <v>44.7</v>
+        <v>7.055555555555557</v>
       </c>
       <c r="I287" t="n">
         <v>102.12</v>
@@ -18545,7 +18545,7 @@
         <v>0.01016</v>
       </c>
       <c r="S287" t="n">
-        <v>649.1823340380748</v>
+        <v>68.90071246646625</v>
       </c>
     </row>
     <row r="288">
@@ -18575,7 +18575,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H288" t="n">
-        <v>37.4</v>
+        <v>3</v>
       </c>
       <c r="I288" t="n">
         <v>102.51</v>
@@ -18608,7 +18608,7 @@
         <v>0.01016</v>
       </c>
       <c r="S288" t="n">
-        <v>610.7355160924349</v>
+        <v>72.02905904380891</v>
       </c>
     </row>
     <row r="289">
@@ -18638,7 +18638,7 @@
         <v>8.444444444444446</v>
       </c>
       <c r="H289" t="n">
-        <v>28.1</v>
+        <v>-2.166666666666666</v>
       </c>
       <c r="I289" t="n">
         <v>102.76</v>
@@ -18671,7 +18671,7 @@
         <v>0.01016</v>
       </c>
       <c r="S289" t="n">
-        <v>344.1503388741891</v>
+        <v>47.1947999135542</v>
       </c>
     </row>
     <row r="290">
@@ -18701,7 +18701,7 @@
         <v>10.22222222222222</v>
       </c>
       <c r="H290" t="n">
-        <v>34.5</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="I290" t="n">
         <v>102.19</v>
@@ -18734,7 +18734,7 @@
         <v>0.01016</v>
       </c>
       <c r="S290" t="n">
-        <v>439.713218446997</v>
+        <v>54.24324904814105</v>
       </c>
     </row>
     <row r="291">
@@ -18764,7 +18764,7 @@
         <v>5.722222222222221</v>
       </c>
       <c r="H291" t="n">
-        <v>37.5</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="I291" t="n">
         <v>103.09</v>
@@ -18797,7 +18797,7 @@
         <v>0.01016</v>
       </c>
       <c r="S291" t="n">
-        <v>704.5486600950338</v>
+        <v>82.96717854869948</v>
       </c>
     </row>
     <row r="292">
@@ -18827,7 +18827,7 @@
         <v>1.111111111111111</v>
       </c>
       <c r="H292" t="n">
-        <v>20.6</v>
+        <v>-6.333333333333333</v>
       </c>
       <c r="I292" t="n">
         <v>103.83</v>
@@ -18860,7 +18860,7 @@
         <v>0.01016</v>
       </c>
       <c r="S292" t="n">
-        <v>366.2001751566513</v>
+        <v>57.57246794876456</v>
       </c>
     </row>
     <row r="293">
@@ -18890,7 +18890,7 @@
         <v>3.499999999999999</v>
       </c>
       <c r="H293" t="n">
-        <v>12.5</v>
+        <v>-10.83333333333333</v>
       </c>
       <c r="I293" t="n">
         <v>102.99</v>
@@ -18923,7 +18923,7 @@
         <v>0.01016</v>
       </c>
       <c r="S293" t="n">
-        <v>184.4869149625769</v>
+        <v>34.19372055115433</v>
       </c>
     </row>
     <row r="294">
@@ -18953,7 +18953,7 @@
         <v>7.333333333333335</v>
       </c>
       <c r="H294" t="n">
-        <v>28</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="I294" t="n">
         <v>102.27</v>
@@ -18986,7 +18986,7 @@
         <v>0.01016</v>
       </c>
       <c r="S294" t="n">
-        <v>369.0354173203487</v>
+        <v>50.69501249030412</v>
       </c>
     </row>
     <row r="295">
@@ -19016,7 +19016,7 @@
         <v>2.166666666666666</v>
       </c>
       <c r="H295" t="n">
-        <v>19</v>
+        <v>-7.222222222222222</v>
       </c>
       <c r="I295" t="n">
         <v>102.5</v>
@@ -19049,7 +19049,7 @@
         <v>0.01016</v>
       </c>
       <c r="S295" t="n">
-        <v>307.4462779885896</v>
+        <v>49.85985032445465</v>
       </c>
     </row>
     <row r="296">
@@ -19079,7 +19079,7 @@
         <v>1.555555555555554</v>
       </c>
       <c r="H296" t="n">
-        <v>20.9</v>
+        <v>-6.166666666666668</v>
       </c>
       <c r="I296" t="n">
         <v>102.73</v>
@@ -19112,7 +19112,7 @@
         <v>0.01016</v>
       </c>
       <c r="S296" t="n">
-        <v>361.319946057401</v>
+        <v>56.47979440477368</v>
       </c>
     </row>
     <row r="297">
@@ -19142,7 +19142,7 @@
         <v>6.500000000000002</v>
       </c>
       <c r="H297" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I297" t="n">
         <v>102.8</v>
@@ -19175,7 +19175,7 @@
         <v>0.01016</v>
       </c>
       <c r="S297" t="n">
-        <v>274.7969786340197</v>
+        <v>41.98909114290098</v>
       </c>
     </row>
     <row r="298">
@@ -19205,7 +19205,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H298" t="n">
-        <v>19.9</v>
+        <v>-6.722222222222223</v>
       </c>
       <c r="I298" t="n">
         <v>102.7</v>
@@ -19238,7 +19238,7 @@
         <v>0.01016</v>
       </c>
       <c r="S298" t="n">
-        <v>225.822894291334</v>
+        <v>35.9854601412752</v>
       </c>
     </row>
     <row r="299">
@@ -19268,7 +19268,7 @@
         <v>6.555555555555554</v>
       </c>
       <c r="H299" t="n">
-        <v>23.8</v>
+        <v>-4.555555555555555</v>
       </c>
       <c r="I299" t="n">
         <v>102.87</v>
@@ -19301,7 +19301,7 @@
         <v>0.01016</v>
       </c>
       <c r="S299" t="n">
-        <v>303.456219797515</v>
+        <v>44.92713777211138</v>
       </c>
     </row>
     <row r="300">
@@ -19331,7 +19331,7 @@
         <v>5.833333333333334</v>
       </c>
       <c r="H300" t="n">
-        <v>30.5</v>
+        <v>-0.8333333333333334</v>
       </c>
       <c r="I300" t="n">
         <v>103.03</v>
@@ -19364,7 +19364,7 @@
         <v>0.01016</v>
       </c>
       <c r="S300" t="n">
-        <v>472.8053766522445</v>
+        <v>62.24559902898624</v>
       </c>
     </row>
     <row r="301">
@@ -19394,7 +19394,7 @@
         <v>2.944444444444443</v>
       </c>
       <c r="H301" t="n">
-        <v>36.4</v>
+        <v>2.444444444444444</v>
       </c>
       <c r="I301" t="n">
         <v>103.26</v>
@@ -19427,7 +19427,7 @@
         <v>0.01016</v>
       </c>
       <c r="S301" t="n">
-        <v>805.912359750797</v>
+        <v>96.5128956824143</v>
       </c>
     </row>
     <row r="302">
@@ -19457,7 +19457,7 @@
         <v>3.611111111111111</v>
       </c>
       <c r="H302" t="n">
-        <v>37.5</v>
+        <v>3.055555555555556</v>
       </c>
       <c r="I302" t="n">
         <v>103.37</v>
@@ -19490,7 +19490,7 @@
         <v>0.01016</v>
       </c>
       <c r="S302" t="n">
-        <v>816.5181123981652</v>
+        <v>96.15262629333206</v>
       </c>
     </row>
     <row r="303">
@@ -19520,7 +19520,7 @@
         <v>5.999999999999999</v>
       </c>
       <c r="H303" t="n">
-        <v>38.8</v>
+        <v>3.777777777777776</v>
       </c>
       <c r="I303" t="n">
         <v>103.33</v>
@@ -19553,7 +19553,7 @@
         <v>0.01016</v>
       </c>
       <c r="S303" t="n">
-        <v>741.628311855711</v>
+        <v>85.64348408919135</v>
       </c>
     </row>
     <row r="304">
@@ -19583,7 +19583,7 @@
         <v>7.222222222222222</v>
       </c>
       <c r="H304" t="n">
-        <v>39.1</v>
+        <v>3.944444444444446</v>
       </c>
       <c r="I304" t="n">
         <v>103.2</v>
@@ -19616,7 +19616,7 @@
         <v>0.01016</v>
       </c>
       <c r="S304" t="n">
-        <v>692.9526277710713</v>
+        <v>79.66629569289891</v>
       </c>
     </row>
     <row r="305">
@@ -19646,7 +19646,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H305" t="n">
-        <v>41.3</v>
+        <v>5.166666666666665</v>
       </c>
       <c r="I305" t="n">
         <v>103.01</v>
@@ -19679,7 +19679,7 @@
         <v>0.01016</v>
       </c>
       <c r="S305" t="n">
-        <v>688.1440483130337</v>
+        <v>76.61080192588742</v>
       </c>
     </row>
     <row r="306">
@@ -19709,7 +19709,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H306" t="n">
-        <v>39.2</v>
+        <v>4.000000000000002</v>
       </c>
       <c r="I306" t="n">
         <v>103.23</v>
@@ -19742,7 +19742,7 @@
         <v>0.01016</v>
       </c>
       <c r="S306" t="n">
-        <v>740.5586907618333</v>
+        <v>85.01326624760489</v>
       </c>
     </row>
     <row r="307">
@@ -19772,7 +19772,7 @@
         <v>7.388888888888888</v>
       </c>
       <c r="H307" t="n">
-        <v>39.9</v>
+        <v>4.388888888888888</v>
       </c>
       <c r="I307" t="n">
         <v>103.14</v>
@@ -19805,7 +19805,7 @@
         <v>0.01016</v>
       </c>
       <c r="S307" t="n">
-        <v>715.18426689244</v>
+        <v>81.25743428786282</v>
       </c>
     </row>
     <row r="308">
@@ -19835,7 +19835,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H308" t="n">
-        <v>38.9</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="I308" t="n">
         <v>102.88</v>
@@ -19868,7 +19868,7 @@
         <v>0.01016</v>
       </c>
       <c r="S308" t="n">
-        <v>614.3768074285457</v>
+        <v>70.84289375672299</v>
       </c>
     </row>
     <row r="309">
@@ -19898,7 +19898,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H309" t="n">
-        <v>42.2</v>
+        <v>5.666666666666669</v>
       </c>
       <c r="I309" t="n">
         <v>102.9</v>
@@ -19931,7 +19931,7 @@
         <v>0.01016</v>
       </c>
       <c r="S309" t="n">
-        <v>700.4070469951531</v>
+        <v>76.97892584317368</v>
       </c>
     </row>
     <row r="310">
@@ -19961,7 +19961,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H310" t="n">
-        <v>39.9</v>
+        <v>4.388888888888888</v>
       </c>
       <c r="I310" t="n">
         <v>102.8</v>
@@ -19994,7 +19994,7 @@
         <v>0.01016</v>
       </c>
       <c r="S310" t="n">
-        <v>606.110064334586</v>
+        <v>68.86469823767392</v>
       </c>
     </row>
     <row r="311">
@@ -20024,7 +20024,7 @@
         <v>9.611111111111111</v>
       </c>
       <c r="H311" t="n">
-        <v>40.4</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="I311" t="n">
         <v>102.4</v>
@@ -20057,7 +20057,7 @@
         <v>0.01016</v>
       </c>
       <c r="S311" t="n">
-        <v>631.8877255315954</v>
+        <v>71.27055845345308</v>
       </c>
     </row>
     <row r="312">
@@ -20087,7 +20087,7 @@
         <v>11.72222222222222</v>
       </c>
       <c r="H312" t="n">
-        <v>40.1</v>
+        <v>4.500000000000001</v>
       </c>
       <c r="I312" t="n">
         <v>102.24</v>
@@ -20120,7 +20120,7 @@
         <v>0.01016</v>
       </c>
       <c r="S312" t="n">
-        <v>540.2703139932177</v>
+        <v>61.20454148801805</v>
       </c>
     </row>
     <row r="313">
@@ -20150,7 +20150,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H313" t="n">
-        <v>44.6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I313" t="n">
         <v>102.43</v>
@@ -20183,7 +20183,7 @@
         <v>0.01016</v>
       </c>
       <c r="S313" t="n">
-        <v>713.0172298759667</v>
+        <v>75.77981882994659</v>
       </c>
     </row>
     <row r="314">
@@ -20213,7 +20213,7 @@
         <v>10.72222222222222</v>
       </c>
       <c r="H314" t="n">
-        <v>42.1</v>
+        <v>5.611111111111112</v>
       </c>
       <c r="I314" t="n">
         <v>102.38</v>
@@ -20246,7 +20246,7 @@
         <v>0.01016</v>
       </c>
       <c r="S314" t="n">
-        <v>642.0245354009629</v>
+        <v>70.6627534043339</v>
       </c>
     </row>
     <row r="315">
@@ -20276,7 +20276,7 @@
         <v>13.66666666666667</v>
       </c>
       <c r="H315" t="n">
-        <v>47.8</v>
+        <v>8.777777777777777</v>
       </c>
       <c r="I315" t="n">
         <v>101.9</v>
@@ -20309,7 +20309,7 @@
         <v>0.01016</v>
       </c>
       <c r="S315" t="n">
-        <v>710.2627845899323</v>
+        <v>72.30845545534216</v>
       </c>
     </row>
     <row r="316">
@@ -20339,7 +20339,7 @@
         <v>16.05555555555556</v>
       </c>
       <c r="H316" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I316" t="n">
         <v>101.24</v>
@@ -20372,7 +20372,7 @@
         <v>0.01016</v>
       </c>
       <c r="S316" t="n">
-        <v>1017.934818934595</v>
+        <v>91.14047007698805</v>
       </c>
     </row>
     <row r="317">
@@ -20402,7 +20402,7 @@
         <v>17.38888888888889</v>
       </c>
       <c r="H317" t="n">
-        <v>63.2</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="I317" t="n">
         <v>100.94</v>
@@ -20435,7 +20435,7 @@
         <v>0.0508</v>
       </c>
       <c r="S317" t="n">
-        <v>1174.48118122575</v>
+        <v>99.64934359199518</v>
       </c>
     </row>
     <row r="318">
@@ -20465,7 +20465,7 @@
         <v>7.777777777777779</v>
       </c>
       <c r="H318" t="n">
-        <v>42.6</v>
+        <v>5.88888888888889</v>
       </c>
       <c r="I318" t="n">
         <v>101.78</v>
@@ -20498,7 +20498,7 @@
         <v>0.0508</v>
       </c>
       <c r="S318" t="n">
-        <v>803.741260450074</v>
+        <v>87.83665669233389</v>
       </c>
     </row>
     <row r="319">
@@ -20528,7 +20528,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="H319" t="n">
-        <v>24.5</v>
+        <v>-4.166666666666667</v>
       </c>
       <c r="I319" t="n">
         <v>102.98</v>
@@ -20561,7 +20561,7 @@
         <v>0.0508</v>
       </c>
       <c r="S319" t="n">
-        <v>492.9413522378913</v>
+        <v>72.05360675054557</v>
       </c>
     </row>
     <row r="320">
@@ -20591,7 +20591,7 @@
         <v>2.555555555555556</v>
       </c>
       <c r="H320" t="n">
-        <v>22.7</v>
+        <v>-5.166666666666667</v>
       </c>
       <c r="I320" t="n">
         <v>103.02</v>
@@ -20624,7 +20624,7 @@
         <v>0.0508</v>
       </c>
       <c r="S320" t="n">
-        <v>375.5695180085382</v>
+        <v>56.74638773840334</v>
       </c>
     </row>
     <row r="321">
@@ -20654,7 +20654,7 @@
         <v>1.388888888888889</v>
       </c>
       <c r="H321" t="n">
-        <v>28</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="I321" t="n">
         <v>103.1</v>
@@ -20687,7 +20687,7 @@
         <v>0.0508</v>
       </c>
       <c r="S321" t="n">
-        <v>559.629585683711</v>
+        <v>76.8772521677829</v>
       </c>
     </row>
     <row r="322">
@@ -20717,7 +20717,7 @@
         <v>4.166666666666667</v>
       </c>
       <c r="H322" t="n">
-        <v>28.4</v>
+        <v>-2.000000000000001</v>
       </c>
       <c r="I322" t="n">
         <v>102.96</v>
@@ -20750,7 +20750,7 @@
         <v>0.0508</v>
       </c>
       <c r="S322" t="n">
-        <v>470.3749054128251</v>
+        <v>64.17156627501001</v>
       </c>
     </row>
     <row r="323">
@@ -20780,7 +20780,7 @@
         <v>5.166666666666665</v>
       </c>
       <c r="H323" t="n">
-        <v>33</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="I323" t="n">
         <v>102.79</v>
@@ -20813,7 +20813,7 @@
         <v>0.0508</v>
       </c>
       <c r="S323" t="n">
-        <v>570.7373047960062</v>
+        <v>72.11450467432219</v>
       </c>
     </row>
     <row r="324">
@@ -20843,7 +20843,7 @@
         <v>9.111111111111111</v>
       </c>
       <c r="H324" t="n">
-        <v>27.9</v>
+        <v>-2.277777777777779</v>
       </c>
       <c r="I324" t="n">
         <v>102.74</v>
@@ -20876,7 +20876,7 @@
         <v>0.0508</v>
       </c>
       <c r="S324" t="n">
-        <v>325.1655646434099</v>
+        <v>44.74597929309942</v>
       </c>
     </row>
     <row r="325">
@@ -20906,7 +20906,7 @@
         <v>10</v>
       </c>
       <c r="H325" t="n">
-        <v>35.5</v>
+        <v>1.944444444444445</v>
       </c>
       <c r="I325" t="n">
         <v>102.06</v>
@@ -20939,7 +20939,7 @@
         <v>0.0508</v>
       </c>
       <c r="S325" t="n">
-        <v>471.7560926690919</v>
+        <v>57.2892456776096</v>
       </c>
     </row>
     <row r="326">
@@ -20969,7 +20969,7 @@
         <v>1.055555555555555</v>
       </c>
       <c r="H326" t="n">
-        <v>15.7</v>
+        <v>-9.055555555555557</v>
       </c>
       <c r="I326" t="n">
         <v>103.67</v>
@@ -21002,7 +21002,7 @@
         <v>0.0508</v>
       </c>
       <c r="S326" t="n">
-        <v>270.2079728225725</v>
+        <v>46.82364743327155</v>
       </c>
     </row>
     <row r="327">
@@ -21032,7 +21032,7 @@
         <v>2.277777777777779</v>
       </c>
       <c r="H327" t="n">
-        <v>22.6</v>
+        <v>-5.222222222222221</v>
       </c>
       <c r="I327" t="n">
         <v>102.6</v>
@@ -21065,7 +21065,7 @@
         <v>0.0508</v>
       </c>
       <c r="S327" t="n">
-        <v>380.746072918938</v>
+        <v>57.63592364197189</v>
       </c>
     </row>
     <row r="328">
@@ -21095,7 +21095,7 @@
         <v>3.222222222222221</v>
       </c>
       <c r="H328" t="n">
-        <v>26.2</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="I328" t="n">
         <v>102.8</v>
@@ -21128,7 +21128,7 @@
         <v>0.0508</v>
       </c>
       <c r="S328" t="n">
-        <v>441.8407670185349</v>
+        <v>62.64200050451352</v>
       </c>
     </row>
     <row r="329">
@@ -21158,7 +21158,7 @@
         <v>2.055555555555557</v>
       </c>
       <c r="H329" t="n">
-        <v>15.2</v>
+        <v>-9.333333333333334</v>
       </c>
       <c r="I329" t="n">
         <v>103.33</v>
@@ -21191,7 +21191,7 @@
         <v>0.0508</v>
       </c>
       <c r="S329" t="n">
-        <v>243.5836250905521</v>
+        <v>42.64752317098569</v>
       </c>
     </row>
     <row r="330">
@@ -21221,7 +21221,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="H330" t="n">
-        <v>17.1</v>
+        <v>-8.277777777777777</v>
       </c>
       <c r="I330" t="n">
         <v>103.06</v>
@@ -21254,7 +21254,7 @@
         <v>0.0508</v>
       </c>
       <c r="S330" t="n">
-        <v>300.1765409704344</v>
+        <v>50.55560074989071</v>
       </c>
     </row>
     <row r="331">
@@ -21284,7 +21284,7 @@
         <v>4.388888888888888</v>
       </c>
       <c r="H331" t="n">
-        <v>22.1</v>
+        <v>-5.499999999999999</v>
       </c>
       <c r="I331" t="n">
         <v>102.79</v>
@@ -21317,7 +21317,7 @@
         <v>0.0508</v>
       </c>
       <c r="S331" t="n">
-        <v>318.1758021828209</v>
+        <v>48.61739318871155</v>
       </c>
     </row>
     <row r="332">
@@ -21347,7 +21347,7 @@
         <v>8.333333333333334</v>
       </c>
       <c r="H332" t="n">
-        <v>27.4</v>
+        <v>-2.555555555555556</v>
       </c>
       <c r="I332" t="n">
         <v>102.22</v>
@@ -21380,7 +21380,7 @@
         <v>0.0508</v>
       </c>
       <c r="S332" t="n">
-        <v>332.8455109753311</v>
+        <v>46.20291127884968</v>
       </c>
     </row>
     <row r="333">
@@ -21410,7 +21410,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H333" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I333" t="n">
         <v>101.48</v>
@@ -21443,7 +21443,7 @@
         <v>0.0508</v>
       </c>
       <c r="S333" t="n">
-        <v>471.0894354670847</v>
+        <v>58.02206865451031</v>
       </c>
     </row>
     <row r="334">
@@ -21473,7 +21473,7 @@
         <v>12.5</v>
       </c>
       <c r="H334" t="n">
-        <v>35.2</v>
+        <v>1.777777777777779</v>
       </c>
       <c r="I334" t="n">
         <v>101.92</v>
@@ -21506,7 +21506,7 @@
         <v>0.0508</v>
       </c>
       <c r="S334" t="n">
-        <v>393.1181738641717</v>
+        <v>47.96395049648212</v>
       </c>
     </row>
     <row r="335">
@@ -21536,7 +21536,7 @@
         <v>6.444444444444446</v>
       </c>
       <c r="H335" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I335" t="n">
         <v>102.47</v>
@@ -21569,7 +21569,7 @@
         <v>0.0508</v>
       </c>
       <c r="S335" t="n">
-        <v>662.993893910714</v>
+        <v>78.31126634605397</v>
       </c>
     </row>
     <row r="336">
@@ -21599,7 +21599,7 @@
         <v>7.555555555555556</v>
       </c>
       <c r="H336" t="n">
-        <v>43</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="I336" t="n">
         <v>102.29</v>
@@ -21632,7 +21632,7 @@
         <v>0.0508</v>
       </c>
       <c r="S336" t="n">
-        <v>833.330817551688</v>
+        <v>90.55841343928661</v>
       </c>
     </row>
     <row r="337">
@@ -21662,7 +21662,7 @@
         <v>8</v>
       </c>
       <c r="H337" t="n">
-        <v>45.6</v>
+        <v>7.555555555555556</v>
       </c>
       <c r="I337" t="n">
         <v>101.95</v>
@@ -21695,7 +21695,7 @@
         <v>0.0508</v>
       </c>
       <c r="S337" t="n">
-        <v>925.3827165643388</v>
+        <v>97.01678057053367</v>
       </c>
     </row>
     <row r="338">
@@ -21725,7 +21725,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H338" t="n">
-        <v>48.3</v>
+        <v>9.055555555555554</v>
       </c>
       <c r="I338" t="n">
         <v>101.76</v>
@@ -21758,7 +21758,7 @@
         <v>0.0508</v>
       </c>
       <c r="S338" t="n">
-        <v>974.0258808282442</v>
+        <v>98.51345174769909</v>
       </c>
     </row>
     <row r="339">
@@ -21788,7 +21788,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H339" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I339" t="n">
         <v>102.07</v>
@@ -21821,7 +21821,7 @@
         <v>0.0508</v>
       </c>
       <c r="S339" t="n">
-        <v>959.5206323268482</v>
+        <v>94.9408222164103</v>
       </c>
     </row>
     <row r="340">
@@ -21851,7 +21851,7 @@
         <v>8.222222222222221</v>
       </c>
       <c r="H340" t="n">
-        <v>45.9</v>
+        <v>7.722222222222221</v>
       </c>
       <c r="I340" t="n">
         <v>102.07</v>
@@ -21884,7 +21884,7 @@
         <v>0.0508</v>
       </c>
       <c r="S340" t="n">
-        <v>925.6835244793173</v>
+        <v>96.65528093808618</v>
       </c>
     </row>
     <row r="341">
@@ -21914,7 +21914,7 @@
         <v>8.277777777777777</v>
       </c>
       <c r="H341" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I341" t="n">
         <v>101.96</v>
@@ -21947,7 +21947,7 @@
         <v>0.0508</v>
       </c>
       <c r="S341" t="n">
-        <v>926.9470005919002</v>
+        <v>96.65673331307389</v>
       </c>
     </row>
     <row r="342">
@@ -21977,7 +21977,7 @@
         <v>11.44444444444445</v>
       </c>
       <c r="H342" t="n">
-        <v>52.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="I342" t="n">
         <v>101.42</v>
@@ -22010,7 +22010,7 @@
         <v>0.0508</v>
       </c>
       <c r="S342" t="n">
-        <v>1038.987392495742</v>
+        <v>99.63282928966223</v>
       </c>
     </row>
     <row r="343">
@@ -22040,7 +22040,7 @@
         <v>5.999999999999999</v>
       </c>
       <c r="H343" t="n">
-        <v>40.5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="I343" t="n">
         <v>102.51</v>
@@ -22073,7 +22073,7 @@
         <v>0.0508</v>
       </c>
       <c r="S343" t="n">
-        <v>812.4723440761222</v>
+        <v>91.50535027721972</v>
       </c>
     </row>
     <row r="344">
@@ -22103,7 +22103,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H344" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I344" t="n">
         <v>103.12</v>
@@ -22136,7 +22136,7 @@
         <v>0.0508</v>
       </c>
       <c r="S344" t="n">
-        <v>448.0700102886911</v>
+        <v>57.26181153008951</v>
       </c>
     </row>
     <row r="345">
@@ -22166,7 +22166,7 @@
         <v>12.61111111111111</v>
       </c>
       <c r="H345" t="n">
-        <v>43.7</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="I345" t="n">
         <v>102.1</v>
@@ -22199,7 +22199,7 @@
         <v>0.0508</v>
       </c>
       <c r="S345" t="n">
-        <v>616.2983190421319</v>
+        <v>66.32093355756824</v>
       </c>
     </row>
     <row r="346">
@@ -22229,7 +22229,7 @@
         <v>15.16666666666667</v>
       </c>
       <c r="H346" t="n">
-        <v>47.1</v>
+        <v>8.388888888888889</v>
       </c>
       <c r="I346" t="n">
         <v>102.27</v>
@@ -22262,7 +22262,7 @@
         <v>0.0508</v>
       </c>
       <c r="S346" t="n">
-        <v>622.0580403930807</v>
+        <v>63.91713074251211</v>
       </c>
     </row>
     <row r="347">
@@ -22292,7 +22292,7 @@
         <v>13.5</v>
       </c>
       <c r="H347" t="n">
-        <v>41.9</v>
+        <v>5.499999999999999</v>
       </c>
       <c r="I347" t="n">
         <v>102.6</v>
@@ -22325,7 +22325,7 @@
         <v>0.0508</v>
       </c>
       <c r="S347" t="n">
-        <v>529.0794446430712</v>
+        <v>58.39794666258233</v>
       </c>
     </row>
     <row r="348">
@@ -22355,7 +22355,7 @@
         <v>11</v>
       </c>
       <c r="H348" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I348" t="n">
         <v>102.77</v>
@@ -22388,7 +22388,7 @@
         <v>0.0508</v>
       </c>
       <c r="S348" t="n">
-        <v>419.8352630605402</v>
+        <v>51.70931169944498</v>
       </c>
     </row>
     <row r="349">
@@ -22418,7 +22418,7 @@
         <v>9.055555555555554</v>
       </c>
       <c r="H349" t="n">
-        <v>37.3</v>
+        <v>2.944444444444443</v>
       </c>
       <c r="I349" t="n">
         <v>102.52</v>
@@ -22451,7 +22451,7 @@
         <v>0.0508</v>
       </c>
       <c r="S349" t="n">
-        <v>554.9012585240583</v>
+        <v>65.54362061423483</v>
       </c>
     </row>
     <row r="350">
@@ -22481,7 +22481,7 @@
         <v>8.833333333333332</v>
       </c>
       <c r="H350" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I350" t="n">
         <v>102.28</v>
@@ -22514,7 +22514,7 @@
         <v>0.0508</v>
       </c>
       <c r="S350" t="n">
-        <v>760.0632546696863</v>
+        <v>82.71263717703502</v>
       </c>
     </row>
     <row r="351">
@@ -22544,7 +22544,7 @@
         <v>6.777777777777779</v>
       </c>
       <c r="H351" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I351" t="n">
         <v>103.07</v>
@@ -22577,7 +22577,7 @@
         <v>0.0508</v>
       </c>
       <c r="S351" t="n">
-        <v>749.7728068881784</v>
+        <v>85.06249008101385</v>
       </c>
     </row>
     <row r="352">
@@ -22607,7 +22607,7 @@
         <v>7.722222222222221</v>
       </c>
       <c r="H352" t="n">
-        <v>34.3</v>
+        <v>1.277777777777776</v>
       </c>
       <c r="I352" t="n">
         <v>103.74</v>
@@ -22640,7 +22640,7 @@
         <v>0.0508</v>
       </c>
       <c r="S352" t="n">
-        <v>514.7781278465787</v>
+        <v>63.7047451900625</v>
       </c>
     </row>
     <row r="353">
@@ -22670,7 +22670,7 @@
         <v>10.05555555555556</v>
       </c>
       <c r="H353" t="n">
-        <v>29.1</v>
+        <v>-1.61111111111111</v>
       </c>
       <c r="I353" t="n">
         <v>103.39</v>
@@ -22703,7 +22703,7 @@
         <v>0.0508</v>
       </c>
       <c r="S353" t="n">
-        <v>327.2351897205462</v>
+        <v>44.11139373089943</v>
       </c>
     </row>
     <row r="354">
@@ -22733,7 +22733,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H354" t="n">
-        <v>31.6</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="I354" t="n">
         <v>102.86</v>
@@ -22766,7 +22766,7 @@
         <v>0.0508</v>
       </c>
       <c r="S354" t="n">
-        <v>359.9330042984492</v>
+        <v>46.52880959654234</v>
       </c>
     </row>
     <row r="355">
@@ -22796,7 +22796,7 @@
         <v>9.000000000000002</v>
       </c>
       <c r="H355" t="n">
-        <v>43.3</v>
+        <v>6.277777777777777</v>
       </c>
       <c r="I355" t="n">
         <v>102.59</v>
@@ -22829,7 +22829,7 @@
         <v>0.0508</v>
       </c>
       <c r="S355" t="n">
-        <v>767.4700453463211</v>
+        <v>83.0511347893308</v>
       </c>
     </row>
     <row r="356">
@@ -22859,7 +22859,7 @@
         <v>13</v>
       </c>
       <c r="H356" t="n">
-        <v>43.6</v>
+        <v>6.444444444444446</v>
       </c>
       <c r="I356" t="n">
         <v>102.72</v>
@@ -22892,7 +22892,7 @@
         <v>0.0508</v>
       </c>
       <c r="S356" t="n">
-        <v>597.6719397331868</v>
+        <v>64.40615525296116</v>
       </c>
     </row>
     <row r="357">
@@ -22922,7 +22922,7 @@
         <v>12.55555555555556</v>
       </c>
       <c r="H357" t="n">
-        <v>36.3</v>
+        <v>2.388888888888888</v>
       </c>
       <c r="I357" t="n">
         <v>102.87</v>
@@ -22955,7 +22955,7 @@
         <v>0.0508</v>
       </c>
       <c r="S357" t="n">
-        <v>416.1964334578378</v>
+        <v>49.91893004367876</v>
       </c>
     </row>
     <row r="358">
@@ -22985,7 +22985,7 @@
         <v>10.55555555555556</v>
       </c>
       <c r="H358" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I358" t="n">
         <v>102.74</v>
@@ -23018,7 +23018,7 @@
         <v>0.0508</v>
       </c>
       <c r="S358" t="n">
-        <v>605.9766947332582</v>
+        <v>67.95197083410025</v>
       </c>
     </row>
     <row r="359">
@@ -23048,7 +23048,7 @@
         <v>13.72222222222222</v>
       </c>
       <c r="H359" t="n">
-        <v>39.3</v>
+        <v>4.055555555555554</v>
       </c>
       <c r="I359" t="n">
         <v>102.43</v>
@@ -23081,7 +23081,7 @@
         <v>0.0508</v>
       </c>
       <c r="S359" t="n">
-        <v>453.9880703806135</v>
+        <v>52.03897035784415</v>
       </c>
     </row>
     <row r="360">
@@ -23111,7 +23111,7 @@
         <v>16.5</v>
       </c>
       <c r="H360" t="n">
-        <v>40</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="I360" t="n">
         <v>102.09</v>
@@ -23144,7 +23144,7 @@
         <v>0.0508</v>
       </c>
       <c r="S360" t="n">
-        <v>394.2268458457002</v>
+        <v>44.72543796779831</v>
       </c>
     </row>
     <row r="361">
@@ -23174,7 +23174,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H361" t="n">
-        <v>45.8</v>
+        <v>7.666666666666665</v>
       </c>
       <c r="I361" t="n">
         <v>101.82</v>
@@ -23207,7 +23207,7 @@
         <v>0.0508</v>
       </c>
       <c r="S361" t="n">
-        <v>454.9211920384054</v>
+        <v>47.56482243165897</v>
       </c>
     </row>
     <row r="362">
@@ -23237,7 +23237,7 @@
         <v>17.94444444444444</v>
       </c>
       <c r="H362" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I362" t="n">
         <v>102.05</v>
@@ -23270,7 +23270,7 @@
         <v>0.0508</v>
       </c>
       <c r="S362" t="n">
-        <v>898.7816435731276</v>
+        <v>80.56365125727103</v>
       </c>
     </row>
     <row r="363">
@@ -23300,7 +23300,7 @@
         <v>19.88888888888889</v>
       </c>
       <c r="H363" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I363" t="n">
         <v>101.56</v>
@@ -23333,7 +23333,7 @@
         <v>0.0508</v>
       </c>
       <c r="S363" t="n">
-        <v>610.7783870513524</v>
+        <v>58.42619969001049</v>
       </c>
     </row>
     <row r="364">
@@ -23363,7 +23363,7 @@
         <v>13.16666666666667</v>
       </c>
       <c r="H364" t="n">
-        <v>34.3</v>
+        <v>1.277777777777776</v>
       </c>
       <c r="I364" t="n">
         <v>102.34</v>
@@ -23396,7 +23396,7 @@
         <v>0.0508</v>
       </c>
       <c r="S364" t="n">
-        <v>357.9664248527359</v>
+        <v>44.299006986244</v>
       </c>
     </row>
     <row r="365">
@@ -23426,7 +23426,7 @@
         <v>16.77777777777778</v>
       </c>
       <c r="H365" t="n">
-        <v>49</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="I365" t="n">
         <v>101.89</v>
@@ -23459,7 +23459,7 @@
         <v>0.0508</v>
       </c>
       <c r="S365" t="n">
-        <v>617.8502222060716</v>
+        <v>61.92390539108333</v>
       </c>
     </row>
     <row r="366">
@@ -23489,7 +23489,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H366" t="n">
-        <v>50.5</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="I366" t="n">
         <v>101.64</v>
@@ -23522,7 +23522,7 @@
         <v>0.0508</v>
       </c>
       <c r="S366" t="n">
-        <v>484.4079347280513</v>
+        <v>47.62671569997228</v>
       </c>
     </row>
     <row r="367">
@@ -23552,7 +23552,7 @@
         <v>9.27777777777778</v>
       </c>
       <c r="H367" t="n">
-        <v>46.9</v>
+        <v>8.277777777777777</v>
       </c>
       <c r="I367" t="n">
         <v>102.08</v>
@@ -23585,7 +23585,7 @@
         <v>0.0508</v>
       </c>
       <c r="S367" t="n">
-        <v>907.1903284924419</v>
+        <v>93.4629519664789</v>
       </c>
     </row>
     <row r="368">
@@ -23615,7 +23615,7 @@
         <v>9.722222222222223</v>
       </c>
       <c r="H368" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I368" t="n">
         <v>102.11</v>
@@ -23648,7 +23648,7 @@
         <v>0.0508</v>
       </c>
       <c r="S368" t="n">
-        <v>894.0549513147973</v>
+        <v>91.74331289156832</v>
       </c>
     </row>
     <row r="369">
@@ -23678,7 +23678,7 @@
         <v>10.44444444444444</v>
       </c>
       <c r="H369" t="n">
-        <v>49.5</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="I369" t="n">
         <v>101.64</v>
@@ -23711,7 +23711,7 @@
         <v>0.0508</v>
       </c>
       <c r="S369" t="n">
-        <v>956.8322431996439</v>
+        <v>95.28247084942873</v>
       </c>
     </row>
     <row r="370">
@@ -23741,7 +23741,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H370" t="n">
-        <v>52.8</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="I370" t="n">
         <v>101.04</v>
@@ -23774,7 +23774,7 @@
         <v>0.0508</v>
       </c>
       <c r="S370" t="n">
-        <v>1031.410097329984</v>
+        <v>98.54222570209387</v>
       </c>
     </row>
     <row r="371">
@@ -23804,7 +23804,7 @@
         <v>15</v>
       </c>
       <c r="H371" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I371" t="n">
         <v>100.64</v>
@@ -23837,7 +23837,7 @@
         <v>0.0508</v>
       </c>
       <c r="S371" t="n">
-        <v>1104.754994025515</v>
+        <v>98.57809905254123</v>
       </c>
     </row>
     <row r="372">
@@ -23867,7 +23867,7 @@
         <v>16.16666666666667</v>
       </c>
       <c r="H372" t="n">
-        <v>56.4</v>
+        <v>13.55555555555556</v>
       </c>
       <c r="I372" t="n">
         <v>101.15</v>
@@ -23900,7 +23900,7 @@
         <v>0.0508</v>
       </c>
       <c r="S372" t="n">
-        <v>923.4493237360219</v>
+        <v>84.50892771809295</v>
       </c>
     </row>
     <row r="373">
@@ -23930,7 +23930,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H373" t="n">
-        <v>44.8</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="I373" t="n">
         <v>102.07</v>
@@ -23963,7 +23963,7 @@
         <v>0.0508</v>
       </c>
       <c r="S373" t="n">
-        <v>836.0233846580243</v>
+        <v>88.60939160668683</v>
       </c>
     </row>
     <row r="374">
@@ -23993,7 +23993,7 @@
         <v>13.94444444444445</v>
       </c>
       <c r="H374" t="n">
-        <v>41.4</v>
+        <v>5.222222222222221</v>
       </c>
       <c r="I374" t="n">
         <v>102.02</v>
@@ -24026,7 +24026,7 @@
         <v>0.0508</v>
       </c>
       <c r="S374" t="n">
-        <v>500.5852478831941</v>
+        <v>55.6498769023454</v>
       </c>
     </row>
     <row r="375">
@@ -24056,7 +24056,7 @@
         <v>14.22222222222222</v>
       </c>
       <c r="H375" t="n">
-        <v>40.8</v>
+        <v>4.888888888888888</v>
       </c>
       <c r="I375" t="n">
         <v>102.13</v>
@@ -24089,7 +24089,7 @@
         <v>0.0508</v>
       </c>
       <c r="S375" t="n">
-        <v>476.2256670328437</v>
+        <v>53.40217357849103</v>
       </c>
     </row>
     <row r="376">
@@ -24119,7 +24119,7 @@
         <v>15.72222222222222</v>
       </c>
       <c r="H376" t="n">
-        <v>46.2</v>
+        <v>7.888888888888891</v>
       </c>
       <c r="I376" t="n">
         <v>102.05</v>
@@ -24152,7 +24152,7 @@
         <v>0.0508</v>
       </c>
       <c r="S376" t="n">
-        <v>573.287129873074</v>
+        <v>59.61837761892402</v>
       </c>
     </row>
     <row r="377">
@@ -24182,7 +24182,7 @@
         <v>11.77777777777778</v>
       </c>
       <c r="H377" t="n">
-        <v>49.1</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="I377" t="n">
         <v>101.79</v>
@@ -24215,7 +24215,7 @@
         <v>0.0508</v>
       </c>
       <c r="S377" t="n">
-        <v>858.3890209124235</v>
+        <v>85.92076674345745</v>
       </c>
     </row>
     <row r="378">
@@ -24245,7 +24245,7 @@
         <v>16.27777777777778</v>
       </c>
       <c r="H378" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I378" t="n">
         <v>101.59</v>
@@ -24278,7 +24278,7 @@
         <v>0.0508</v>
       </c>
       <c r="S378" t="n">
-        <v>697.8696856983892</v>
+        <v>68.35453532442922</v>
       </c>
     </row>
     <row r="379">
@@ -24308,7 +24308,7 @@
         <v>19.5</v>
       </c>
       <c r="H379" t="n">
-        <v>53.3</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I379" t="n">
         <v>101.23</v>
@@ -24341,7 +24341,7 @@
         <v>0.0508</v>
       </c>
       <c r="S379" t="n">
-        <v>644.3581861271817</v>
+        <v>61.18775132942503</v>
       </c>
     </row>
     <row r="380">
@@ -24371,7 +24371,7 @@
         <v>20.77777777777778</v>
       </c>
       <c r="H380" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I380" t="n">
         <v>101.02</v>
@@ -24404,7 +24404,7 @@
         <v>0.0508</v>
       </c>
       <c r="S380" t="n">
-        <v>678.4725266484719</v>
+        <v>62.38119624394821</v>
       </c>
     </row>
     <row r="381">
@@ -24434,7 +24434,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="H381" t="n">
-        <v>50.3</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="I381" t="n">
         <v>101.77</v>
@@ -24467,7 +24467,7 @@
         <v>0.0508</v>
       </c>
       <c r="S381" t="n">
-        <v>952.652468031607</v>
+        <v>93.90209779001523</v>
       </c>
     </row>
     <row r="382">
@@ -24497,7 +24497,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H382" t="n">
-        <v>47</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="I382" t="n">
         <v>101.87</v>
@@ -24530,7 +24530,7 @@
         <v>0.0508</v>
       </c>
       <c r="S382" t="n">
-        <v>509.6573815391658</v>
+        <v>52.43745919744506</v>
       </c>
     </row>
     <row r="383">
@@ -24560,7 +24560,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H383" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I383" t="n">
         <v>101.04</v>
@@ -24593,7 +24593,7 @@
         <v>0.0508</v>
       </c>
       <c r="S383" t="n">
-        <v>1200.659733430631</v>
+        <v>97.94956932870382</v>
       </c>
     </row>
     <row r="384">
@@ -24623,7 +24623,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H384" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I384" t="n">
         <v>100.72</v>
@@ -24656,7 +24656,7 @@
         <v>0.0508</v>
       </c>
       <c r="S384" t="n">
-        <v>689.859269059769</v>
+        <v>60.59884410352133</v>
       </c>
     </row>
     <row r="385">
@@ -24686,7 +24686,7 @@
         <v>16.44444444444445</v>
       </c>
       <c r="H385" t="n">
-        <v>58.3</v>
+        <v>14.61111111111111</v>
       </c>
       <c r="I385" t="n">
         <v>101.27</v>
@@ -24719,7 +24719,7 @@
         <v>0.0508</v>
       </c>
       <c r="S385" t="n">
-        <v>993.0005840002899</v>
+        <v>88.90799128694023</v>
       </c>
     </row>
     <row r="386">
@@ -24749,7 +24749,7 @@
         <v>14.27777777777778</v>
       </c>
       <c r="H386" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I386" t="n">
         <v>101.65</v>
@@ -24782,7 +24782,7 @@
         <v>0.0508</v>
       </c>
       <c r="S386" t="n">
-        <v>1109.267852624363</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387">
@@ -24812,7 +24812,7 @@
         <v>13.77777777777778</v>
       </c>
       <c r="H387" t="n">
-        <v>56.8</v>
+        <v>13.77777777777778</v>
       </c>
       <c r="I387" t="n">
         <v>101.98</v>
@@ -24845,7 +24845,7 @@
         <v>0.0508</v>
       </c>
       <c r="S387" t="n">
-        <v>1097.819856004516</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388">
@@ -24875,7 +24875,7 @@
         <v>14.55555555555556</v>
       </c>
       <c r="H388" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I388" t="n">
         <v>101.63</v>
@@ -24908,7 +24908,7 @@
         <v>0.0508</v>
       </c>
       <c r="S388" t="n">
-        <v>799.0042004759096</v>
+        <v>77.77021742496919</v>
       </c>
     </row>
     <row r="389">
@@ -24938,7 +24938,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H389" t="n">
-        <v>53.7</v>
+        <v>12.05555555555556</v>
       </c>
       <c r="I389" t="n">
         <v>101.26</v>
@@ -24971,7 +24971,7 @@
         <v>0.0508</v>
       </c>
       <c r="S389" t="n">
-        <v>459.193321988257</v>
+        <v>43.39332135850236</v>
       </c>
     </row>
     <row r="390">
@@ -25001,7 +25001,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H390" t="n">
-        <v>64.7</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I390" t="n">
         <v>100.63</v>
@@ -25034,7 +25034,7 @@
         <v>0.0508</v>
       </c>
       <c r="S390" t="n">
-        <v>662.176348290702</v>
+        <v>55.30503383045249</v>
       </c>
     </row>
     <row r="391">
@@ -25064,7 +25064,7 @@
         <v>19.44444444444445</v>
       </c>
       <c r="H391" t="n">
-        <v>54</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I391" t="n">
         <v>101.39</v>
@@ -25097,7 +25097,7 @@
         <v>0.0508</v>
       </c>
       <c r="S391" t="n">
-        <v>669.0249745280687</v>
+        <v>62.99339197054547</v>
       </c>
     </row>
     <row r="392">
@@ -25127,7 +25127,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H392" t="n">
-        <v>51.7</v>
+        <v>10.94444444444445</v>
       </c>
       <c r="I392" t="n">
         <v>101.62</v>
@@ -25160,7 +25160,7 @@
         <v>0.0508</v>
       </c>
       <c r="S392" t="n">
-        <v>556.0486127156656</v>
+        <v>53.85271925354059</v>
       </c>
     </row>
     <row r="393">
@@ -25190,7 +25190,7 @@
         <v>19</v>
       </c>
       <c r="H393" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I393" t="n">
         <v>101.58</v>
@@ -25223,7 +25223,7 @@
         <v>0.0508</v>
       </c>
       <c r="S393" t="n">
-        <v>833.3075131733358</v>
+        <v>74.86513625401555</v>
       </c>
     </row>
     <row r="394">
@@ -25253,7 +25253,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H394" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I394" t="n">
         <v>101.82</v>
@@ -25286,7 +25286,7 @@
         <v>0.0508</v>
       </c>
       <c r="S394" t="n">
-        <v>1035.706411678354</v>
+        <v>90.57721339430961</v>
       </c>
     </row>
     <row r="395">
@@ -25316,7 +25316,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H395" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I395" t="n">
         <v>100.81</v>
@@ -25349,7 +25349,7 @@
         <v>0.0508</v>
       </c>
       <c r="S395" t="n">
-        <v>561.2821070930926</v>
+        <v>50.65736259523715</v>
       </c>
     </row>
     <row r="396">
@@ -25379,7 +25379,7 @@
         <v>22.38888888888889</v>
       </c>
       <c r="H396" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I396" t="n">
         <v>100.46</v>
@@ -25412,7 +25412,7 @@
         <v>0.0508</v>
       </c>
       <c r="S396" t="n">
-        <v>1290.388260221726</v>
+        <v>100</v>
       </c>
     </row>
     <row r="397">
@@ -25442,7 +25442,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H397" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I397" t="n">
         <v>100.83</v>
@@ -25475,7 +25475,7 @@
         <v>0.0508</v>
       </c>
       <c r="S397" t="n">
-        <v>916.5876163372202</v>
+        <v>73.37852024653752</v>
       </c>
     </row>
     <row r="398">
@@ -25505,7 +25505,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H398" t="n">
-        <v>73.09999999999999</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="I398" t="n">
         <v>100.7</v>
@@ -25538,7 +25538,7 @@
         <v>0.0508</v>
       </c>
       <c r="S398" t="n">
-        <v>1295.630310840065</v>
+        <v>99.66365112377656</v>
       </c>
     </row>
     <row r="399">
@@ -25568,7 +25568,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H399" t="n">
-        <v>60.2</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="I399" t="n">
         <v>101.21</v>
@@ -25601,7 +25601,7 @@
         <v>0.0508</v>
       </c>
       <c r="S399" t="n">
-        <v>788.9829919072261</v>
+        <v>69.15273506966084</v>
       </c>
     </row>
     <row r="400">
@@ -25631,7 +25631,7 @@
         <v>25.22222222222222</v>
       </c>
       <c r="H400" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I400" t="n">
         <v>101.11</v>
@@ -25664,7 +25664,7 @@
         <v>0.0508</v>
       </c>
       <c r="S400" t="n">
-        <v>917.5588108905256</v>
+        <v>73.8180093092229</v>
       </c>
     </row>
     <row r="401">
@@ -25694,7 +25694,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H401" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I401" t="n">
         <v>100.96</v>
@@ -25727,7 +25727,7 @@
         <v>0.0508</v>
       </c>
       <c r="S401" t="n">
-        <v>1050.521008418427</v>
+        <v>80.58623188100314</v>
       </c>
     </row>
     <row r="402">
@@ -25757,7 +25757,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H402" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I402" t="n">
         <v>100.84</v>
@@ -25790,7 +25790,7 @@
         <v>0.0508</v>
       </c>
       <c r="S402" t="n">
-        <v>959.6297507585326</v>
+        <v>72.94538108460904</v>
       </c>
     </row>
     <row r="403">
@@ -25820,7 +25820,7 @@
         <v>30.94444444444445</v>
       </c>
       <c r="H403" t="n">
-        <v>74.3</v>
+        <v>23.5</v>
       </c>
       <c r="I403" t="n">
         <v>100.8</v>
@@ -25853,7 +25853,7 @@
         <v>0.0508</v>
       </c>
       <c r="S403" t="n">
-        <v>848.9317942320283</v>
+        <v>64.58929927972375</v>
       </c>
     </row>
     <row r="404">
@@ -25883,7 +25883,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H404" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I404" t="n">
         <v>100.64</v>
@@ -25916,7 +25916,7 @@
         <v>0.0508</v>
       </c>
       <c r="S404" t="n">
-        <v>673.0588446527962</v>
+        <v>54.90799943648251</v>
       </c>
     </row>
     <row r="405">
@@ -25946,7 +25946,7 @@
         <v>28</v>
       </c>
       <c r="H405" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I405" t="n">
         <v>100.79</v>
@@ -25979,7 +25979,7 @@
         <v>0.0508</v>
       </c>
       <c r="S405" t="n">
-        <v>1019.199749014591</v>
+        <v>77.3335085316199</v>
       </c>
     </row>
     <row r="406">
@@ -26009,7 +26009,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H406" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I406" t="n">
         <v>101.04</v>
@@ -26042,7 +26042,7 @@
         <v>0.0508</v>
       </c>
       <c r="S406" t="n">
-        <v>978.7745396073389</v>
+        <v>79.84822173598626</v>
       </c>
     </row>
     <row r="407">
@@ -26072,7 +26072,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H407" t="n">
-        <v>71</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="I407" t="n">
         <v>100.3</v>
@@ -26105,7 +26105,7 @@
         <v>0.0508</v>
       </c>
       <c r="S407" t="n">
-        <v>842.4822495869677</v>
+        <v>66.09332238186974</v>
       </c>
     </row>
     <row r="408">
@@ -26135,7 +26135,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H408" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I408" t="n">
         <v>100.3</v>
@@ -26168,7 +26168,7 @@
         <v>0.0508</v>
       </c>
       <c r="S408" t="n">
-        <v>765.3729624854566</v>
+        <v>60.50495274519392</v>
       </c>
     </row>
     <row r="409">
@@ -26198,7 +26198,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H409" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I409" t="n">
         <v>100.28</v>
@@ -26231,7 +26231,7 @@
         <v>0.0508</v>
       </c>
       <c r="S409" t="n">
-        <v>707.3417893115491</v>
+        <v>57.18817818178832</v>
       </c>
     </row>
     <row r="410">
@@ -26261,7 +26261,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H410" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I410" t="n">
         <v>100.44</v>
@@ -26294,7 +26294,7 @@
         <v>0.0508</v>
       </c>
       <c r="S410" t="n">
-        <v>792.9111432130165</v>
+        <v>64.94696698394144</v>
       </c>
     </row>
     <row r="411">
@@ -26324,7 +26324,7 @@
         <v>21.11111111111111</v>
       </c>
       <c r="H411" t="n">
-        <v>70</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="I411" t="n">
         <v>100.7</v>
@@ -26357,7 +26357,7 @@
         <v>0.0508</v>
       </c>
       <c r="S411" t="n">
-        <v>1262.542686980089</v>
+        <v>100</v>
       </c>
     </row>
     <row r="412">
@@ -26387,7 +26387,7 @@
         <v>23</v>
       </c>
       <c r="H412" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I412" t="n">
         <v>100.69</v>
@@ -26420,7 +26420,7 @@
         <v>0.0508</v>
       </c>
       <c r="S412" t="n">
-        <v>1303.598622119059</v>
+        <v>100</v>
       </c>
     </row>
     <row r="413">
@@ -26450,7 +26450,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H413" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I413" t="n">
         <v>100.78</v>
@@ -26483,7 +26483,7 @@
         <v>0.0508</v>
       </c>
       <c r="S413" t="n">
-        <v>1296.015895905168</v>
+        <v>97.37266731743142</v>
       </c>
     </row>
     <row r="414">
@@ -26513,7 +26513,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H414" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I414" t="n">
         <v>100.87</v>
@@ -26546,7 +26546,7 @@
         <v>0.0508</v>
       </c>
       <c r="S414" t="n">
-        <v>1167.780335464758</v>
+        <v>87.35015411914291</v>
       </c>
     </row>
     <row r="415">
@@ -26576,7 +26576,7 @@
         <v>32.11111111111111</v>
       </c>
       <c r="H415" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I415" t="n">
         <v>100.71</v>
@@ -26609,7 +26609,7 @@
         <v>0.0508</v>
       </c>
       <c r="S415" t="n">
-        <v>828.8864799075703</v>
+        <v>62.49870769850884</v>
       </c>
     </row>
     <row r="416">
@@ -26639,7 +26639,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H416" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I416" t="n">
         <v>100.26</v>
@@ -26672,7 +26672,7 @@
         <v>0.0508</v>
       </c>
       <c r="S416" t="n">
-        <v>1289.297405272595</v>
+        <v>93.97088599327587</v>
       </c>
     </row>
     <row r="417">
@@ -26702,7 +26702,7 @@
         <v>30.05555555555555</v>
       </c>
       <c r="H417" t="n">
-        <v>81.40000000000001</v>
+        <v>27.44444444444445</v>
       </c>
       <c r="I417" t="n">
         <v>100.46</v>
@@ -26735,7 +26735,7 @@
         <v>0.0508</v>
       </c>
       <c r="S417" t="n">
-        <v>1200.849376593849</v>
+        <v>85.93511784808517</v>
       </c>
     </row>
     <row r="418">
@@ -26765,7 +26765,7 @@
         <v>32.11111111111111</v>
       </c>
       <c r="H418" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I418" t="n">
         <v>100.55</v>
@@ -26798,7 +26798,7 @@
         <v>0.0508</v>
       </c>
       <c r="S418" t="n">
-        <v>987.8964608386731</v>
+        <v>71.82103617158</v>
       </c>
     </row>
     <row r="419">
@@ -26828,7 +26828,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H419" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I419" t="n">
         <v>100.55</v>
@@ -26861,7 +26861,7 @@
         <v>0.0508</v>
       </c>
       <c r="S419" t="n">
-        <v>924.0084939651231</v>
+        <v>69.23832134988986</v>
       </c>
     </row>
     <row r="420">
@@ -26891,7 +26891,7 @@
         <v>30.83333333333334</v>
       </c>
       <c r="H420" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I420" t="n">
         <v>100.26</v>
@@ -26924,7 +26924,7 @@
         <v>0.0508</v>
       </c>
       <c r="S420" t="n">
-        <v>945.587626035747</v>
+        <v>70.41962354326581</v>
       </c>
     </row>
     <row r="421">
@@ -26954,7 +26954,7 @@
         <v>32.11111111111111</v>
       </c>
       <c r="H421" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I421" t="n">
         <v>100.25</v>
@@ -26987,7 +26987,7 @@
         <v>0.0508</v>
       </c>
       <c r="S421" t="n">
-        <v>909.2151399646232</v>
+        <v>67.24031417756188</v>
       </c>
     </row>
     <row r="422">
@@ -27017,7 +27017,7 @@
         <v>32.16666666666667</v>
       </c>
       <c r="H422" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I422" t="n">
         <v>100.25</v>
@@ -27050,7 +27050,7 @@
         <v>0.0508</v>
       </c>
       <c r="S422" t="n">
-        <v>836.8338805133636</v>
+        <v>62.92923899890681</v>
       </c>
     </row>
     <row r="423">
@@ -27080,7 +27080,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H423" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I423" t="n">
         <v>100.58</v>
@@ -27113,7 +27113,7 @@
         <v>0.0508</v>
       </c>
       <c r="S423" t="n">
-        <v>1148.948747282097</v>
+        <v>85.41460353790988</v>
       </c>
     </row>
     <row r="424">
@@ -27143,7 +27143,7 @@
         <v>30.61111111111111</v>
       </c>
       <c r="H424" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I424" t="n">
         <v>100.47</v>
@@ -27176,7 +27176,7 @@
         <v>0.0508</v>
       </c>
       <c r="S424" t="n">
-        <v>982.0614033267245</v>
+        <v>72.75380305419847</v>
       </c>
     </row>
     <row r="425">
@@ -27206,7 +27206,7 @@
         <v>30.27777777777778</v>
       </c>
       <c r="H425" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I425" t="n">
         <v>100.49</v>
@@ -27239,7 +27239,7 @@
         <v>0.0508</v>
       </c>
       <c r="S425" t="n">
-        <v>1030.67321846911</v>
+        <v>75.89418058038802</v>
       </c>
     </row>
     <row r="426">
@@ -27269,7 +27269,7 @@
         <v>32.55555555555556</v>
       </c>
       <c r="H426" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I426" t="n">
         <v>100.39</v>
@@ -27302,7 +27302,7 @@
         <v>0.0508</v>
       </c>
       <c r="S426" t="n">
-        <v>850.27576750909</v>
+        <v>63.43286562048043</v>
       </c>
     </row>
     <row r="427">
@@ -27332,7 +27332,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H427" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I427" t="n">
         <v>100.21</v>
@@ -27365,7 +27365,7 @@
         <v>0.0508</v>
       </c>
       <c r="S427" t="n">
-        <v>1128.445982462851</v>
+        <v>83.52578627949447</v>
       </c>
     </row>
     <row r="428">
@@ -27395,7 +27395,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H428" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I428" t="n">
         <v>100.34</v>
@@ -27428,7 +27428,7 @@
         <v>0.0508</v>
       </c>
       <c r="S428" t="n">
-        <v>982.5561956132617</v>
+        <v>74.62053697883796</v>
       </c>
     </row>
     <row r="429">
@@ -27458,7 +27458,7 @@
         <v>30.38888888888889</v>
       </c>
       <c r="H429" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I429" t="n">
         <v>100.79</v>
@@ -27491,7 +27491,7 @@
         <v>0.0508</v>
       </c>
       <c r="S429" t="n">
-        <v>1045.628055850574</v>
+        <v>76.66593431795314</v>
       </c>
     </row>
     <row r="430">
@@ -27521,7 +27521,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H430" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I430" t="n">
         <v>100.75</v>
@@ -27554,7 +27554,7 @@
         <v>0.0508</v>
       </c>
       <c r="S430" t="n">
-        <v>1110.106869316493</v>
+        <v>81.46318586820892</v>
       </c>
     </row>
     <row r="431">
@@ -27584,7 +27584,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H431" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I431" t="n">
         <v>100.68</v>
@@ -27617,7 +27617,7 @@
         <v>0.0508</v>
       </c>
       <c r="S431" t="n">
-        <v>1119.479096120358</v>
+        <v>81.52466433126703</v>
       </c>
     </row>
     <row r="432">
@@ -27647,7 +27647,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H432" t="n">
-        <v>79.8</v>
+        <v>26.55555555555555</v>
       </c>
       <c r="I432" t="n">
         <v>100.7</v>
@@ -27680,7 +27680,7 @@
         <v>0.0508</v>
       </c>
       <c r="S432" t="n">
-        <v>1113.950935926234</v>
+        <v>80.78133463504906</v>
       </c>
     </row>
     <row r="433">
@@ -27710,7 +27710,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H433" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I433" t="n">
         <v>100.68</v>
@@ -27743,7 +27743,7 @@
         <v>0.0508</v>
       </c>
       <c r="S433" t="n">
-        <v>1044.931732216237</v>
+        <v>78.4383985632734</v>
       </c>
     </row>
     <row r="434">
@@ -27773,7 +27773,7 @@
         <v>30.55555555555556</v>
       </c>
       <c r="H434" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I434" t="n">
         <v>100.6</v>
@@ -27806,7 +27806,7 @@
         <v>0.0508</v>
       </c>
       <c r="S434" t="n">
-        <v>956.7151699123713</v>
+        <v>71.31085002262941</v>
       </c>
     </row>
     <row r="435">
@@ -27836,7 +27836,7 @@
         <v>31</v>
       </c>
       <c r="H435" t="n">
-        <v>72.59999999999999</v>
+        <v>22.55555555555555</v>
       </c>
       <c r="I435" t="n">
         <v>100.23</v>
@@ -27869,7 +27869,7 @@
         <v>0.0508</v>
       </c>
       <c r="S435" t="n">
-        <v>786.8151622004051</v>
+        <v>60.80496968472615</v>
       </c>
     </row>
     <row r="436">
@@ -27899,7 +27899,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H436" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I436" t="n">
         <v>99.92</v>
@@ -27932,7 +27932,7 @@
         <v>0.0508</v>
       </c>
       <c r="S436" t="n">
-        <v>1299.85648092207</v>
+        <v>97.05815966084563</v>
       </c>
     </row>
     <row r="437">
@@ -27962,7 +27962,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H437" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I437" t="n">
         <v>100.19</v>
@@ -27995,7 +27995,7 @@
         <v>0.0508</v>
       </c>
       <c r="S437" t="n">
-        <v>1299.142321716683</v>
+        <v>95.49875537618463</v>
       </c>
     </row>
     <row r="438">
@@ -28025,7 +28025,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H438" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I438" t="n">
         <v>100.52</v>
@@ -28058,7 +28058,7 @@
         <v>0.0508</v>
       </c>
       <c r="S438" t="n">
-        <v>1143.234104528342</v>
+        <v>84.11029160825953</v>
       </c>
     </row>
     <row r="439">
@@ -28088,7 +28088,7 @@
         <v>30.61111111111111</v>
       </c>
       <c r="H439" t="n">
-        <v>79.7</v>
+        <v>26.5</v>
       </c>
       <c r="I439" t="n">
         <v>100.37</v>
@@ -28121,7 +28121,7 @@
         <v>0.0508</v>
       </c>
       <c r="S439" t="n">
-        <v>1084.907099771982</v>
+        <v>78.74120984264192</v>
       </c>
     </row>
     <row r="440">
@@ -28151,7 +28151,7 @@
         <v>32.44444444444445</v>
       </c>
       <c r="H440" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I440" t="n">
         <v>100.13</v>
@@ -28184,7 +28184,7 @@
         <v>0.0508</v>
       </c>
       <c r="S440" t="n">
-        <v>934.0212260634621</v>
+        <v>68.42441370700899</v>
       </c>
     </row>
     <row r="441">
@@ -28214,7 +28214,7 @@
         <v>31.72222222222222</v>
       </c>
       <c r="H441" t="n">
-        <v>80.40000000000001</v>
+        <v>26.88888888888889</v>
       </c>
       <c r="I441" t="n">
         <v>100.09</v>
@@ -28247,7 +28247,7 @@
         <v>0.0508</v>
       </c>
       <c r="S441" t="n">
-        <v>1048.012211602964</v>
+        <v>75.61967096280561</v>
       </c>
     </row>
     <row r="442">
@@ -28277,7 +28277,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H442" t="n">
-        <v>79.8</v>
+        <v>26.55555555555555</v>
       </c>
       <c r="I442" t="n">
         <v>100.23</v>
@@ -28310,7 +28310,7 @@
         <v>0.0508</v>
       </c>
       <c r="S442" t="n">
-        <v>1187.655072857546</v>
+        <v>86.12620069459879</v>
       </c>
     </row>
     <row r="443">
@@ -28340,7 +28340,7 @@
         <v>30.44444444444444</v>
       </c>
       <c r="H443" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I443" t="n">
         <v>100.4</v>
@@ -28373,7 +28373,7 @@
         <v>0.0508</v>
       </c>
       <c r="S443" t="n">
-        <v>970.9419328733121</v>
+        <v>72.24448232475883</v>
       </c>
     </row>
     <row r="444">
@@ -28403,7 +28403,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H444" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I444" t="n">
         <v>100.25</v>
@@ -28436,7 +28436,7 @@
         <v>0.0508</v>
       </c>
       <c r="S444" t="n">
-        <v>1067.205968755794</v>
+        <v>78.38207762988829</v>
       </c>
     </row>
     <row r="445">
@@ -28466,7 +28466,7 @@
         <v>31.66666666666667</v>
       </c>
       <c r="H445" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I445" t="n">
         <v>100.15</v>
@@ -28499,7 +28499,7 @@
         <v>0.0508</v>
       </c>
       <c r="S445" t="n">
-        <v>992.414091033248</v>
+        <v>72.45511877012299</v>
       </c>
     </row>
     <row r="446">
@@ -28529,7 +28529,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H446" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I446" t="n">
         <v>100.18</v>
@@ -28562,7 +28562,7 @@
         <v>0.0508</v>
       </c>
       <c r="S446" t="n">
-        <v>1179.810883096936</v>
+        <v>87.40362704334642</v>
       </c>
     </row>
     <row r="447">
@@ -28592,7 +28592,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H447" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I447" t="n">
         <v>100.44</v>
@@ -28625,7 +28625,7 @@
         <v>0.0508</v>
       </c>
       <c r="S447" t="n">
-        <v>985.2515124129642</v>
+        <v>74.22239362438617</v>
       </c>
     </row>
     <row r="448">
@@ -28655,7 +28655,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H448" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I448" t="n">
         <v>100.53</v>
@@ -28688,7 +28688,7 @@
         <v>0.0508</v>
       </c>
       <c r="S448" t="n">
-        <v>1125.524141866807</v>
+        <v>85.55569206092767</v>
       </c>
     </row>
     <row r="449">
@@ -28718,7 +28718,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H449" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I449" t="n">
         <v>100.6</v>
@@ -28751,7 +28751,7 @@
         <v>0.0508</v>
       </c>
       <c r="S449" t="n">
-        <v>977.0917510238858</v>
+        <v>73.93828806079867</v>
       </c>
     </row>
     <row r="450">
@@ -28781,7 +28781,7 @@
         <v>26</v>
       </c>
       <c r="H450" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I450" t="n">
         <v>100.35</v>
@@ -28814,7 +28814,7 @@
         <v>0.0508</v>
       </c>
       <c r="S450" t="n">
-        <v>1290.006178098535</v>
+        <v>95.48421635205109</v>
       </c>
     </row>
     <row r="451">
@@ -28844,7 +28844,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H451" t="n">
-        <v>75.8</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I451" t="n">
         <v>100.56</v>
@@ -28877,7 +28877,7 @@
         <v>0.0508</v>
       </c>
       <c r="S451" t="n">
-        <v>1061.973791176903</v>
+        <v>79.71767047346823</v>
       </c>
     </row>
     <row r="452">
@@ -28907,7 +28907,7 @@
         <v>22.05555555555556</v>
       </c>
       <c r="H452" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I452" t="n">
         <v>100.37</v>
@@ -28940,7 +28940,7 @@
         <v>0.0508</v>
       </c>
       <c r="S452" t="n">
-        <v>1255.623355870449</v>
+        <v>98.31772162019777</v>
       </c>
     </row>
     <row r="453">
@@ -28970,7 +28970,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H453" t="n">
-        <v>68.59999999999999</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="I453" t="n">
         <v>101.05</v>
@@ -29003,7 +29003,7 @@
         <v>0.0508</v>
       </c>
       <c r="S453" t="n">
-        <v>1139.625215842652</v>
+        <v>91.50298974281725</v>
       </c>
     </row>
     <row r="454">
@@ -29033,7 +29033,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H454" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I454" t="n">
         <v>101.07</v>
@@ -29066,7 +29066,7 @@
         <v>0.0508</v>
       </c>
       <c r="S454" t="n">
-        <v>1103.70025866347</v>
+        <v>89.32224121666397</v>
       </c>
     </row>
     <row r="455">
@@ -29096,7 +29096,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H455" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I455" t="n">
         <v>100.84</v>
@@ -29129,7 +29129,7 @@
         <v>0.0508</v>
       </c>
       <c r="S455" t="n">
-        <v>815.2058837811488</v>
+        <v>66.50432508670636</v>
       </c>
     </row>
     <row r="456">
@@ -29159,7 +29159,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H456" t="n">
-        <v>73.7</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="I456" t="n">
         <v>100.66</v>
@@ -29192,7 +29192,7 @@
         <v>0.0508</v>
       </c>
       <c r="S456" t="n">
-        <v>916.523054000482</v>
+        <v>70.11404104028732</v>
       </c>
     </row>
     <row r="457">
@@ -29222,7 +29222,7 @@
         <v>29</v>
       </c>
       <c r="H457" t="n">
-        <v>73.5</v>
+        <v>23.05555555555556</v>
       </c>
       <c r="I457" t="n">
         <v>100.71</v>
@@ -29255,7 +29255,7 @@
         <v>0.0508</v>
       </c>
       <c r="S457" t="n">
-        <v>917.5256202080852</v>
+        <v>70.31946790531646</v>
       </c>
     </row>
     <row r="458">
@@ -29285,7 +29285,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H458" t="n">
-        <v>75.09999999999999</v>
+        <v>23.94444444444444</v>
       </c>
       <c r="I458" t="n">
         <v>101.08</v>
@@ -29318,7 +29318,7 @@
         <v>0.0508</v>
       </c>
       <c r="S458" t="n">
-        <v>957.3156594422853</v>
+        <v>72.31178307289913</v>
       </c>
     </row>
     <row r="459">
@@ -29348,7 +29348,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H459" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I459" t="n">
         <v>100.69</v>
@@ -29381,7 +29381,7 @@
         <v>0.0508</v>
       </c>
       <c r="S459" t="n">
-        <v>839.0616925971206</v>
+        <v>65.51399239170749</v>
       </c>
     </row>
     <row r="460">
@@ -29411,7 +29411,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H460" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I460" t="n">
         <v>100.71</v>
@@ -29444,7 +29444,7 @@
         <v>0.0508</v>
       </c>
       <c r="S460" t="n">
-        <v>1057.637958831074</v>
+        <v>80.39538571568691</v>
       </c>
     </row>
     <row r="461">
@@ -29474,7 +29474,7 @@
         <v>22.5</v>
       </c>
       <c r="H461" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I461" t="n">
         <v>101.13</v>
@@ -29507,7 +29507,7 @@
         <v>0.0508</v>
       </c>
       <c r="S461" t="n">
-        <v>1281.695361605764</v>
+        <v>99.3263346479556</v>
       </c>
     </row>
     <row r="462">
@@ -29537,7 +29537,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H462" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I462" t="n">
         <v>101.19</v>
@@ -29570,7 +29570,7 @@
         <v>0.0508</v>
       </c>
       <c r="S462" t="n">
-        <v>1277.570151479354</v>
+        <v>98.00333705497525</v>
       </c>
     </row>
     <row r="463">
@@ -29600,7 +29600,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H463" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I463" t="n">
         <v>101.41</v>
@@ -29633,7 +29633,7 @@
         <v>0.0508</v>
       </c>
       <c r="S463" t="n">
-        <v>1084.23198775834</v>
+        <v>82.26793987796047</v>
       </c>
     </row>
     <row r="464">
@@ -29663,7 +29663,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H464" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I464" t="n">
         <v>101.25</v>
@@ -29696,7 +29696,7 @@
         <v>0.0508</v>
       </c>
       <c r="S464" t="n">
-        <v>1124.452922242154</v>
+        <v>84.25813537593262</v>
       </c>
     </row>
     <row r="465">
@@ -29726,7 +29726,7 @@
         <v>18.44444444444445</v>
       </c>
       <c r="H465" t="n">
-        <v>59.3</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I465" t="n">
         <v>101.76</v>
@@ -29759,7 +29759,7 @@
         <v>0.0508</v>
       </c>
       <c r="S465" t="n">
-        <v>917.3000230181708</v>
+        <v>81.20895164477176</v>
       </c>
     </row>
     <row r="466">
@@ -29789,7 +29789,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H466" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I466" t="n">
         <v>102.28</v>
@@ -29822,7 +29822,7 @@
         <v>0.0508</v>
       </c>
       <c r="S466" t="n">
-        <v>709.0779984440264</v>
+        <v>63.70423898625578</v>
       </c>
     </row>
     <row r="467">
@@ -29852,7 +29852,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H467" t="n">
-        <v>61.2</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="I467" t="n">
         <v>101.8</v>
@@ -29885,7 +29885,7 @@
         <v>0.0508</v>
       </c>
       <c r="S467" t="n">
-        <v>897.2299812215959</v>
+        <v>77.78127704350423</v>
       </c>
     </row>
     <row r="468">
@@ -29915,7 +29915,7 @@
         <v>18.16666666666667</v>
       </c>
       <c r="H468" t="n">
-        <v>60</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="I468" t="n">
         <v>101.61</v>
@@ -29948,7 +29948,7 @@
         <v>0.0508</v>
       </c>
       <c r="S468" t="n">
-        <v>964.5338762727821</v>
+        <v>84.72690101052395</v>
       </c>
     </row>
     <row r="469">
@@ -29978,7 +29978,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H469" t="n">
-        <v>53.8</v>
+        <v>12.11111111111111</v>
       </c>
       <c r="I469" t="n">
         <v>102.04</v>
@@ -30011,7 +30011,7 @@
         <v>0.0508</v>
       </c>
       <c r="S469" t="n">
-        <v>589.5637132199788</v>
+        <v>55.64580826692571</v>
       </c>
     </row>
     <row r="470">
@@ -30041,7 +30041,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H470" t="n">
-        <v>59.7</v>
+        <v>15.38888888888889</v>
       </c>
       <c r="I470" t="n">
         <v>101.89</v>
@@ -30074,7 +30074,7 @@
         <v>0.0508</v>
       </c>
       <c r="S470" t="n">
-        <v>860.0534674319151</v>
+        <v>75.80145007431229</v>
       </c>
     </row>
     <row r="471">
@@ -30104,7 +30104,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H471" t="n">
-        <v>63.4</v>
+        <v>17.44444444444444</v>
       </c>
       <c r="I471" t="n">
         <v>101.67</v>
@@ -30137,7 +30137,7 @@
         <v>0.0508</v>
       </c>
       <c r="S471" t="n">
-        <v>923.9703769900012</v>
+        <v>78.22876042092547</v>
       </c>
     </row>
     <row r="472">
@@ -30167,7 +30167,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H472" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I472" t="n">
         <v>102.06</v>
@@ -30200,7 +30200,7 @@
         <v>0.0508</v>
       </c>
       <c r="S472" t="n">
-        <v>805.5566126774117</v>
+        <v>70.37196013279926</v>
       </c>
     </row>
     <row r="473">
@@ -30230,7 +30230,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H473" t="n">
-        <v>57.7</v>
+        <v>14.27777777777778</v>
       </c>
       <c r="I473" t="n">
         <v>102.16</v>
@@ -30263,7 +30263,7 @@
         <v>0.0508</v>
       </c>
       <c r="S473" t="n">
-        <v>833.0357489184526</v>
+        <v>75.09779959345383</v>
       </c>
     </row>
     <row r="474">
@@ -30293,7 +30293,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H474" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I474" t="n">
         <v>101.81</v>
@@ -30326,7 +30326,7 @@
         <v>0.0508</v>
       </c>
       <c r="S474" t="n">
-        <v>671.546323949011</v>
+        <v>61.74437633916185</v>
       </c>
     </row>
     <row r="475">
@@ -30356,7 +30356,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H475" t="n">
-        <v>58</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="I475" t="n">
         <v>101.5</v>
@@ -30389,7 +30389,7 @@
         <v>0.0508</v>
       </c>
       <c r="S475" t="n">
-        <v>716.3543615539228</v>
+        <v>64.3579543398851</v>
       </c>
     </row>
     <row r="476">
@@ -30419,7 +30419,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H476" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I476" t="n">
         <v>101.37</v>
@@ -30452,7 +30452,7 @@
         <v>0.0508</v>
       </c>
       <c r="S476" t="n">
-        <v>862.6693045007347</v>
+        <v>73.97951519464648</v>
       </c>
     </row>
     <row r="477">
@@ -30482,7 +30482,7 @@
         <v>22.27777777777778</v>
       </c>
       <c r="H477" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I477" t="n">
         <v>101.37</v>
@@ -30515,7 +30515,7 @@
         <v>0.0508</v>
       </c>
       <c r="S477" t="n">
-        <v>915.8825953476944</v>
+        <v>76.73381662492838</v>
       </c>
     </row>
     <row r="478">
@@ -30545,7 +30545,7 @@
         <v>17.44444444444444</v>
       </c>
       <c r="H478" t="n">
-        <v>46.3</v>
+        <v>7.944444444444443</v>
       </c>
       <c r="I478" t="n">
         <v>102.29</v>
@@ -30578,7 +30578,7 @@
         <v>0.0508</v>
       </c>
       <c r="S478" t="n">
-        <v>516.4423353180497</v>
+        <v>53.63476605570396</v>
       </c>
     </row>
     <row r="479">
@@ -30608,7 +30608,7 @@
         <v>15.66666666666667</v>
       </c>
       <c r="H479" t="n">
-        <v>48.2</v>
+        <v>9.000000000000002</v>
       </c>
       <c r="I479" t="n">
         <v>102.02</v>
@@ -30641,7 +30641,7 @@
         <v>0.0508</v>
       </c>
       <c r="S479" t="n">
-        <v>637.0039602447201</v>
+        <v>64.51112098621381</v>
       </c>
     </row>
     <row r="480">
@@ -30671,7 +30671,7 @@
         <v>12.44444444444444</v>
       </c>
       <c r="H480" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I480" t="n">
         <v>102.79</v>
@@ -30704,7 +30704,7 @@
         <v>0.0508</v>
       </c>
       <c r="S480" t="n">
-        <v>898.8020044379211</v>
+        <v>87.92447103164342</v>
       </c>
     </row>
     <row r="481">
@@ -30734,7 +30734,7 @@
         <v>10.94444444444445</v>
       </c>
       <c r="H481" t="n">
-        <v>44.8</v>
+        <v>7.11111111111111</v>
       </c>
       <c r="I481" t="n">
         <v>103.15</v>
@@ -30767,7 +30767,7 @@
         <v>0.0508</v>
       </c>
       <c r="S481" t="n">
-        <v>728.4617746042219</v>
+        <v>77.2090300833046</v>
       </c>
     </row>
     <row r="482">
@@ -30797,7 +30797,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="H482" t="n">
-        <v>39.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="I482" t="n">
         <v>103.13</v>
@@ -30830,7 +30830,7 @@
         <v>0.0508</v>
       </c>
       <c r="S482" t="n">
-        <v>632.169499534121</v>
+        <v>72.24944864437369</v>
       </c>
     </row>
     <row r="483">
@@ -30860,7 +30860,7 @@
         <v>10.77777777777778</v>
       </c>
       <c r="H483" t="n">
-        <v>49.1</v>
+        <v>9.500000000000002</v>
       </c>
       <c r="I483" t="n">
         <v>102.73</v>
@@ -30893,7 +30893,7 @@
         <v>0.0508</v>
       </c>
       <c r="S483" t="n">
-        <v>917.2152921378234</v>
+        <v>91.80900413374044</v>
       </c>
     </row>
     <row r="484">
@@ -30923,7 +30923,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H484" t="n">
-        <v>42.7</v>
+        <v>5.944444444444446</v>
       </c>
       <c r="I484" t="n">
         <v>103.12</v>
@@ -30956,7 +30956,7 @@
         <v>0.0508</v>
       </c>
       <c r="S484" t="n">
-        <v>615.5770094368229</v>
+        <v>67.17823768967929</v>
       </c>
     </row>
     <row r="485">
@@ -30986,7 +30986,7 @@
         <v>9.833333333333336</v>
       </c>
       <c r="H485" t="n">
-        <v>40.3</v>
+        <v>4.61111111111111</v>
       </c>
       <c r="I485" t="n">
         <v>102.84</v>
@@ -31019,7 +31019,7 @@
         <v>0.0508</v>
       </c>
       <c r="S485" t="n">
-        <v>619.2196714141995</v>
+        <v>69.94363633463543</v>
       </c>
     </row>
     <row r="486">
@@ -31049,7 +31049,7 @@
         <v>14</v>
       </c>
       <c r="H486" t="n">
-        <v>40.1</v>
+        <v>4.500000000000001</v>
       </c>
       <c r="I486" t="n">
         <v>102.27</v>
@@ -31082,7 +31082,7 @@
         <v>0.0508</v>
       </c>
       <c r="S486" t="n">
-        <v>465.4219244335634</v>
+        <v>52.72533904904653</v>
       </c>
     </row>
     <row r="487">
@@ -31112,7 +31112,7 @@
         <v>11.83333333333333</v>
       </c>
       <c r="H487" t="n">
-        <v>45.3</v>
+        <v>7.388888888888888</v>
       </c>
       <c r="I487" t="n">
         <v>102.15</v>
@@ -31145,7 +31145,7 @@
         <v>0.0508</v>
       </c>
       <c r="S487" t="n">
-        <v>704.7936050524369</v>
+        <v>74.19202263862675</v>
       </c>
     </row>
     <row r="488">
@@ -31175,7 +31175,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H488" t="n">
-        <v>52.4</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="I488" t="n">
         <v>101.66</v>
@@ -31208,7 +31208,7 @@
         <v>0.0508</v>
       </c>
       <c r="S488" t="n">
-        <v>711.2958252558531</v>
+        <v>68.29323183781929</v>
       </c>
     </row>
     <row r="489">
@@ -31238,7 +31238,7 @@
         <v>11.33333333333333</v>
       </c>
       <c r="H489" t="n">
-        <v>34.6</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="I489" t="n">
         <v>102.68</v>
@@ -31271,7 +31271,7 @@
         <v>0.0508</v>
       </c>
       <c r="S489" t="n">
-        <v>410.6528679789411</v>
+        <v>50.57835541444757</v>
       </c>
     </row>
     <row r="490">
@@ -31301,7 +31301,7 @@
         <v>16.44444444444445</v>
       </c>
       <c r="H490" t="n">
-        <v>46.1</v>
+        <v>7.833333333333335</v>
       </c>
       <c r="I490" t="n">
         <v>102.25</v>
@@ -31334,7 +31334,7 @@
         <v>0.0508</v>
       </c>
       <c r="S490" t="n">
-        <v>544.6492472781327</v>
+        <v>56.71645622137177</v>
       </c>
     </row>
     <row r="491">
@@ -31364,7 +31364,7 @@
         <v>9.222222222222223</v>
       </c>
       <c r="H491" t="n">
-        <v>34.1</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I491" t="n">
         <v>103.14</v>
@@ -31397,7 +31397,7 @@
         <v>0.0508</v>
       </c>
       <c r="S491" t="n">
-        <v>459.8604581381917</v>
+        <v>57.08961506924937</v>
       </c>
     </row>
     <row r="492">
@@ -31427,7 +31427,7 @@
         <v>8.111111111111112</v>
       </c>
       <c r="H492" t="n">
-        <v>27.9</v>
+        <v>-2.277777777777779</v>
       </c>
       <c r="I492" t="n">
         <v>103.07</v>
@@ -31460,7 +31460,7 @@
         <v>0.0508</v>
       </c>
       <c r="S492" t="n">
-        <v>347.9396208192801</v>
+        <v>47.87991337736474</v>
       </c>
     </row>
     <row r="493">
@@ -31490,7 +31490,7 @@
         <v>9.500000000000002</v>
       </c>
       <c r="H493" t="n">
-        <v>42.9</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="I493" t="n">
         <v>102.6</v>
@@ -31523,7 +31523,7 @@
         <v>0.0508</v>
       </c>
       <c r="S493" t="n">
-        <v>726.6684684499409</v>
+        <v>79.07850433450095</v>
       </c>
     </row>
     <row r="494">
@@ -31553,7 +31553,7 @@
         <v>9.944444444444445</v>
       </c>
       <c r="H494" t="n">
-        <v>44.5</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="I494" t="n">
         <v>102.11</v>
@@ -31586,7 +31586,7 @@
         <v>0.0508</v>
       </c>
       <c r="S494" t="n">
-        <v>766.7108107065759</v>
+        <v>81.598555807086</v>
       </c>
     </row>
     <row r="495">
@@ -31616,7 +31616,7 @@
         <v>8.611111111111111</v>
       </c>
       <c r="H495" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I495" t="n">
         <v>101.97</v>
@@ -31649,7 +31649,7 @@
         <v>0.0508</v>
       </c>
       <c r="S495" t="n">
-        <v>906.2378320886055</v>
+        <v>94.49729962821347</v>
       </c>
     </row>
     <row r="496">
@@ -31679,7 +31679,7 @@
         <v>14</v>
       </c>
       <c r="H496" t="n">
-        <v>46</v>
+        <v>7.777777777777779</v>
       </c>
       <c r="I496" t="n">
         <v>101.52</v>
@@ -31712,7 +31712,7 @@
         <v>0.0508</v>
       </c>
       <c r="S496" t="n">
-        <v>634.0574405971712</v>
+        <v>66.11588462105919</v>
       </c>
     </row>
     <row r="497">
@@ -31742,7 +31742,7 @@
         <v>17.11111111111111</v>
       </c>
       <c r="H497" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I497" t="n">
         <v>101.45</v>
@@ -31775,7 +31775,7 @@
         <v>0.0508</v>
       </c>
       <c r="S497" t="n">
-        <v>861.3432937777292</v>
+        <v>79.00968638888627</v>
       </c>
     </row>
     <row r="498">
@@ -31805,7 +31805,7 @@
         <v>9.888888888888888</v>
       </c>
       <c r="H498" t="n">
-        <v>49.2</v>
+        <v>9.555555555555557</v>
       </c>
       <c r="I498" t="n">
         <v>102.06</v>
@@ -31838,7 +31838,7 @@
         <v>0.0508</v>
       </c>
       <c r="S498" t="n">
-        <v>978.2107668283838</v>
+        <v>97.78811316760917</v>
       </c>
     </row>
     <row r="499">
@@ -31868,7 +31868,7 @@
         <v>1.500000000000002</v>
       </c>
       <c r="H499" t="n">
-        <v>23.1</v>
+        <v>-4.944444444444444</v>
       </c>
       <c r="I499" t="n">
         <v>103.82</v>
@@ -31901,7 +31901,7 @@
         <v>0.0508</v>
       </c>
       <c r="S499" t="n">
-        <v>414.8981316297582</v>
+        <v>62.22442294121437</v>
       </c>
     </row>
     <row r="500">
@@ -31931,7 +31931,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="H500" t="n">
-        <v>22.3</v>
+        <v>-5.388888888888888</v>
       </c>
       <c r="I500" t="n">
         <v>103.37</v>
@@ -31964,7 +31964,7 @@
         <v>0.0508</v>
       </c>
       <c r="S500" t="n">
-        <v>375.3432457301212</v>
+        <v>57.13773784113568</v>
       </c>
     </row>
     <row r="501">
@@ -31994,7 +31994,7 @@
         <v>0.8888888888888897</v>
       </c>
       <c r="H501" t="n">
-        <v>31.8</v>
+        <v>-0.1111111111111107</v>
       </c>
       <c r="I501" t="n">
         <v>103.09</v>
@@ -32027,7 +32027,7 @@
         <v>0.0508</v>
       </c>
       <c r="S501" t="n">
-        <v>721.9594398394272</v>
+        <v>93.02184727114474</v>
       </c>
     </row>
     <row r="502">
@@ -32057,7 +32057,7 @@
         <v>1.833333333333332</v>
       </c>
       <c r="H502" t="n">
-        <v>32.3</v>
+        <v>0.1666666666666651</v>
       </c>
       <c r="I502" t="n">
         <v>103.27</v>
@@ -32090,7 +32090,7 @@
         <v>0.0508</v>
       </c>
       <c r="S502" t="n">
-        <v>694.0382605225701</v>
+        <v>88.69571084016293</v>
       </c>
     </row>
     <row r="503">
@@ -32120,7 +32120,7 @@
         <v>-0.6666666666666663</v>
       </c>
       <c r="H503" t="n">
-        <v>15</v>
+        <v>-9.444444444444445</v>
       </c>
       <c r="I503" t="n">
         <v>104.13</v>
@@ -32153,7 +32153,7 @@
         <v>0.0508</v>
       </c>
       <c r="S503" t="n">
-        <v>292.6622798061708</v>
+        <v>51.45324164911058</v>
       </c>
     </row>
     <row r="504">
@@ -32183,7 +32183,7 @@
         <v>-0.9444444444444441</v>
       </c>
       <c r="H504" t="n">
-        <v>12.8</v>
+        <v>-10.66666666666667</v>
       </c>
       <c r="I504" t="n">
         <v>104.03</v>
@@ -32216,7 +32216,7 @@
         <v>0.0508</v>
       </c>
       <c r="S504" t="n">
-        <v>258.8990334614309</v>
+        <v>47.67781563643022</v>
       </c>
     </row>
     <row r="505">
@@ -32246,7 +32246,7 @@
         <v>3.166666666666668</v>
       </c>
       <c r="H505" t="n">
-        <v>22.5</v>
+        <v>-5.277777777777778</v>
       </c>
       <c r="I505" t="n">
         <v>103.6</v>
@@ -32279,7 +32279,7 @@
         <v>0.0508</v>
       </c>
       <c r="S505" t="n">
-        <v>355.3021124457599</v>
+        <v>53.88485088198991</v>
       </c>
     </row>
     <row r="506">
@@ -32309,7 +32309,7 @@
         <v>11.88888888888889</v>
       </c>
       <c r="H506" t="n">
-        <v>43.5</v>
+        <v>6.388888888888889</v>
       </c>
       <c r="I506" t="n">
         <v>102.23</v>
@@ -32342,7 +32342,7 @@
         <v>0.0508</v>
       </c>
       <c r="S506" t="n">
-        <v>639.572617495803</v>
+        <v>69.01763456924</v>
       </c>
     </row>
   </sheetData>
